--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="16"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6048" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="957">
   <si>
     <t>SVN</t>
   </si>
@@ -3083,6 +3083,18 @@
   </si>
   <si>
     <t>MediaStore</t>
+  </si>
+  <si>
+    <t>no use</t>
+  </si>
+  <si>
+    <t>Force delete</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Do not ask for confirmation to delete the previously generated data</t>
   </si>
 </sst>
 </file>
@@ -35868,7 +35880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -36122,10 +36134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D51"/>
+  <dimension ref="B1:E52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36134,12 +36146,12 @@
     <col min="3" max="3" width="107.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:5">
       <c r="D1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:5">
       <c r="B3" s="16" t="s">
         <v>338</v>
       </c>
@@ -36150,7 +36162,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:5">
       <c r="B4" s="7" t="s">
         <v>69</v>
       </c>
@@ -36161,7 +36173,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5" s="7" t="s">
         <v>70</v>
       </c>
@@ -36172,19 +36184,25 @@
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5">
       <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="7" t="s">
         <v>75</v>
       </c>
@@ -36195,7 +36213,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:5">
       <c r="B9" s="17" t="s">
         <v>376</v>
       </c>
@@ -36203,7 +36221,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:5">
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
@@ -36214,7 +36232,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:5">
       <c r="B11" s="7" t="s">
         <v>92</v>
       </c>
@@ -36225,7 +36243,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:5">
       <c r="B12" s="17" t="s">
         <v>340</v>
       </c>
@@ -36236,7 +36254,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:5">
       <c r="B13" s="19" t="s">
         <v>380</v>
       </c>
@@ -36244,7 +36262,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:5">
       <c r="B14" s="19" t="s">
         <v>381</v>
       </c>
@@ -36252,7 +36270,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:5">
       <c r="B15" s="19" t="s">
         <v>408</v>
       </c>
@@ -36260,7 +36278,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:5">
       <c r="B16" s="7" t="s">
         <v>382</v>
       </c>
@@ -36271,7 +36289,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:5">
       <c r="B17" s="7" t="s">
         <v>384</v>
       </c>
@@ -36282,7 +36300,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:5">
       <c r="B18" s="7" t="s">
         <v>343</v>
       </c>
@@ -36293,7 +36311,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:5">
       <c r="B19" s="7" t="s">
         <v>341</v>
       </c>
@@ -36304,7 +36322,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:5">
       <c r="B20" s="7" t="s">
         <v>359</v>
       </c>
@@ -36315,7 +36333,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:5">
       <c r="B21" s="7" t="s">
         <v>364</v>
       </c>
@@ -36325,8 +36343,11 @@
       <c r="D21" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="7" t="s">
         <v>374</v>
       </c>
@@ -36336,8 +36357,11 @@
       <c r="D22" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="24" t="s">
         <v>413</v>
       </c>
@@ -36346,7 +36370,7 @@
       </c>
       <c r="D23" s="23"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:5">
       <c r="B24" s="29" t="s">
         <v>798</v>
       </c>
@@ -36354,7 +36378,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:5">
       <c r="B25" s="29" t="s">
         <v>799</v>
       </c>
@@ -36362,35 +36386,42 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="2:5" s="32" customFormat="1">
+      <c r="B26" s="29" t="s">
+        <v>954</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>955</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="30" t="s">
         <v>795</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="30" t="s">
+    <row r="28" spans="2:5">
+      <c r="B28" s="30" t="s">
         <v>813</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C28" s="31" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:5">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:5">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:5">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
@@ -36398,13 +36429,13 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+    <row r="34" spans="2:3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="7"/>
@@ -36412,19 +36443,19 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+    <row r="40" spans="2:3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="7"/>
@@ -36432,15 +36463,15 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+    <row r="46" spans="2:3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="7"/>
@@ -36448,15 +36479,19 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -19,19 +19,20 @@
     <sheet name="retrospective" sheetId="37" r:id="rId10"/>
     <sheet name="product" sheetId="42" r:id="rId11"/>
     <sheet name="requirement" sheetId="28" r:id="rId12"/>
-    <sheet name="defect" sheetId="38" r:id="rId13"/>
-    <sheet name="release-backlog-item" sheetId="39" r:id="rId14"/>
-    <sheet name="project-task" sheetId="41" r:id="rId15"/>
-    <sheet name="build-server" sheetId="11" r:id="rId16"/>
-    <sheet name="build-type" sheetId="12" r:id="rId17"/>
-    <sheet name="scm-repository" sheetId="13" r:id="rId18"/>
-    <sheet name="scm-branch" sheetId="14" r:id="rId19"/>
-    <sheet name="policy-item" sheetId="15" r:id="rId20"/>
-    <sheet name="scm-branch-release" sheetId="16" r:id="rId21"/>
-    <sheet name="branch-policy-link" sheetId="17" r:id="rId22"/>
+    <sheet name="acceptance-test" sheetId="43" r:id="rId13"/>
+    <sheet name="defect" sheetId="38" r:id="rId14"/>
+    <sheet name="release-backlog-item" sheetId="39" r:id="rId15"/>
+    <sheet name="project-task" sheetId="41" r:id="rId16"/>
+    <sheet name="build-server" sheetId="11" r:id="rId17"/>
+    <sheet name="build-type" sheetId="12" r:id="rId18"/>
+    <sheet name="scm-repository" sheetId="13" r:id="rId19"/>
+    <sheet name="scm-branch" sheetId="14" r:id="rId20"/>
+    <sheet name="policy-item" sheetId="15" r:id="rId21"/>
+    <sheet name="scm-branch-release" sheetId="16" r:id="rId22"/>
+    <sheet name="branch-policy-link" sheetId="17" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'release-backlog-item'!$F$1:$F$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'release-backlog-item'!$F$1:$F$336</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Settings!$B$4:$C$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -214,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="1094">
   <si>
     <t>SVN</t>
   </si>
@@ -3095,6 +3096,417 @@
   </si>
   <si>
     <t>Do not ask for confirmation to delete the previously generated data</t>
+  </si>
+  <si>
+    <t>#entity-id</t>
+  </si>
+  <si>
+    <t>entity-type</t>
+  </si>
+  <si>
+    <t>requirement#1</t>
+  </si>
+  <si>
+    <t>requirement#2</t>
+  </si>
+  <si>
+    <t>requirement#3</t>
+  </si>
+  <si>
+    <t>requirement#4</t>
+  </si>
+  <si>
+    <t>requirement#5</t>
+  </si>
+  <si>
+    <t>requirement#6</t>
+  </si>
+  <si>
+    <t>requirement#7</t>
+  </si>
+  <si>
+    <t>requirement#8</t>
+  </si>
+  <si>
+    <t>requirement#9</t>
+  </si>
+  <si>
+    <t>requirement#10</t>
+  </si>
+  <si>
+    <t>requirement#11</t>
+  </si>
+  <si>
+    <t>requirement#12</t>
+  </si>
+  <si>
+    <t>requirement#13</t>
+  </si>
+  <si>
+    <t>requirement#14</t>
+  </si>
+  <si>
+    <t>requirement#15</t>
+  </si>
+  <si>
+    <t>requirement#16</t>
+  </si>
+  <si>
+    <t>requirement#17</t>
+  </si>
+  <si>
+    <t>requirement#18</t>
+  </si>
+  <si>
+    <t>requirement#19</t>
+  </si>
+  <si>
+    <t>requirement#20</t>
+  </si>
+  <si>
+    <t>requirement#21</t>
+  </si>
+  <si>
+    <t>requirement#22</t>
+  </si>
+  <si>
+    <t>requirement#23</t>
+  </si>
+  <si>
+    <t>requirement#24</t>
+  </si>
+  <si>
+    <t>requirement#25</t>
+  </si>
+  <si>
+    <t>requirement#26</t>
+  </si>
+  <si>
+    <t>requirement#27</t>
+  </si>
+  <si>
+    <t>requirement#28</t>
+  </si>
+  <si>
+    <t>requirement#29</t>
+  </si>
+  <si>
+    <t>requirement#30</t>
+  </si>
+  <si>
+    <t>requirement#31</t>
+  </si>
+  <si>
+    <t>requirement#32</t>
+  </si>
+  <si>
+    <t>requirement#33</t>
+  </si>
+  <si>
+    <t>requirement#34</t>
+  </si>
+  <si>
+    <t>requirement#35</t>
+  </si>
+  <si>
+    <t>requirement#36</t>
+  </si>
+  <si>
+    <t>requirement#37</t>
+  </si>
+  <si>
+    <t>requirement#38</t>
+  </si>
+  <si>
+    <t>requirement#39</t>
+  </si>
+  <si>
+    <t>requirement#40</t>
+  </si>
+  <si>
+    <t>requirement#41</t>
+  </si>
+  <si>
+    <t>requirement#42</t>
+  </si>
+  <si>
+    <t>requirement#43</t>
+  </si>
+  <si>
+    <t>requirement#44</t>
+  </si>
+  <si>
+    <t>requirement#45</t>
+  </si>
+  <si>
+    <t>requirement#46</t>
+  </si>
+  <si>
+    <t>requirement#47</t>
+  </si>
+  <si>
+    <t>requirement#48</t>
+  </si>
+  <si>
+    <t>requirement#49</t>
+  </si>
+  <si>
+    <t>requirement#50</t>
+  </si>
+  <si>
+    <t>requirement#51</t>
+  </si>
+  <si>
+    <t>requirement#52</t>
+  </si>
+  <si>
+    <t>requirement#53</t>
+  </si>
+  <si>
+    <t>requirement#54</t>
+  </si>
+  <si>
+    <t>requirement#55</t>
+  </si>
+  <si>
+    <t>requirement#56</t>
+  </si>
+  <si>
+    <t>requirement#57</t>
+  </si>
+  <si>
+    <t>requirement#58</t>
+  </si>
+  <si>
+    <t>requirement#59</t>
+  </si>
+  <si>
+    <t>requirement#60</t>
+  </si>
+  <si>
+    <t>requirement#61</t>
+  </si>
+  <si>
+    <t>requirement#62</t>
+  </si>
+  <si>
+    <t>requirement#63</t>
+  </si>
+  <si>
+    <t>requirement#64</t>
+  </si>
+  <si>
+    <t>requirement#65</t>
+  </si>
+  <si>
+    <t>requirement#66</t>
+  </si>
+  <si>
+    <t>requirement#67</t>
+  </si>
+  <si>
+    <t>requirement#68</t>
+  </si>
+  <si>
+    <t>requirement#69</t>
+  </si>
+  <si>
+    <t>requirement#70</t>
+  </si>
+  <si>
+    <t>requirement#71</t>
+  </si>
+  <si>
+    <t>requirement#72</t>
+  </si>
+  <si>
+    <t>requirement#73</t>
+  </si>
+  <si>
+    <t>requirement#74</t>
+  </si>
+  <si>
+    <t>requirement#75</t>
+  </si>
+  <si>
+    <t>requirement#76</t>
+  </si>
+  <si>
+    <t>requirement#77</t>
+  </si>
+  <si>
+    <t>requirement#78</t>
+  </si>
+  <si>
+    <t>requirement#79</t>
+  </si>
+  <si>
+    <t>requirement#80</t>
+  </si>
+  <si>
+    <t>requirement#81</t>
+  </si>
+  <si>
+    <t>requirement#82</t>
+  </si>
+  <si>
+    <t>requirement#83</t>
+  </si>
+  <si>
+    <t>requirement#84</t>
+  </si>
+  <si>
+    <t>requirement#85</t>
+  </si>
+  <si>
+    <t>requirement#86</t>
+  </si>
+  <si>
+    <t>requirement#87</t>
+  </si>
+  <si>
+    <t>requirement#88</t>
+  </si>
+  <si>
+    <t>requirement#89</t>
+  </si>
+  <si>
+    <t>requirement#90</t>
+  </si>
+  <si>
+    <t>requirement#91</t>
+  </si>
+  <si>
+    <t>requirement#92</t>
+  </si>
+  <si>
+    <t>requirement#93</t>
+  </si>
+  <si>
+    <t>requirement#94</t>
+  </si>
+  <si>
+    <t>requirement#95</t>
+  </si>
+  <si>
+    <t>requirement#96</t>
+  </si>
+  <si>
+    <t>requirement#97</t>
+  </si>
+  <si>
+    <t>requirement#98</t>
+  </si>
+  <si>
+    <t>requirement#99</t>
+  </si>
+  <si>
+    <t>requirement#100</t>
+  </si>
+  <si>
+    <t>requirement#101</t>
+  </si>
+  <si>
+    <t>requirement#102</t>
+  </si>
+  <si>
+    <t>requirement#103</t>
+  </si>
+  <si>
+    <t>requirement#104</t>
+  </si>
+  <si>
+    <t>requirement#105</t>
+  </si>
+  <si>
+    <t>requirement#106</t>
+  </si>
+  <si>
+    <t>requirement#107</t>
+  </si>
+  <si>
+    <t>requirement#108</t>
+  </si>
+  <si>
+    <t>requirement#109</t>
+  </si>
+  <si>
+    <t>requirement#110</t>
+  </si>
+  <si>
+    <t>requirement#111</t>
+  </si>
+  <si>
+    <t>requirement#112</t>
+  </si>
+  <si>
+    <t>requirement#113</t>
+  </si>
+  <si>
+    <t>requirement#114</t>
+  </si>
+  <si>
+    <t>requirement#115</t>
+  </si>
+  <si>
+    <t>requirement#116</t>
+  </si>
+  <si>
+    <t>requirement#117</t>
+  </si>
+  <si>
+    <t>requirement#118</t>
+  </si>
+  <si>
+    <t>requirement#119</t>
+  </si>
+  <si>
+    <t>requirement#120</t>
+  </si>
+  <si>
+    <t>Enable fields according to permissions</t>
+  </si>
+  <si>
+    <t>Hints And Tooltip on all input fields</t>
+  </si>
+  <si>
+    <t>Keyboard support on all fields</t>
+  </si>
+  <si>
+    <t>UI Design aligned with UX guidelines</t>
+  </si>
+  <si>
+    <t>All strings and labels approved by doc team</t>
+  </si>
+  <si>
+    <t>Verify user story on FireFox and Chrome</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>requirement</t>
+  </si>
+  <si>
+    <t>#last-modified-by</t>
+  </si>
+  <si>
+    <t>creation-date</t>
+  </si>
+  <si>
+    <t>last-modified-status-date</t>
+  </si>
+  <si>
+    <t>2010-10-21 21:48:00</t>
+  </si>
+  <si>
+    <t>2012-09-22 08:13:12</t>
   </si>
 </sst>
 </file>
@@ -4242,7 +4654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -6887,10 +7299,7049 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I721"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="32" t="s">
+        <v>968</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="32" t="s">
+        <v>969</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="32" t="s">
+        <v>976</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="32" t="s">
+        <v>977</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="32" t="s">
+        <v>982</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="32" t="s">
+        <v>984</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="32" t="s">
+        <v>985</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="32" t="s">
+        <v>986</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="32" t="s">
+        <v>987</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="32" t="s">
+        <v>989</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="32" t="s">
+        <v>990</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="32" t="s">
+        <v>991</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="32" t="s">
+        <v>992</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="32" t="s">
+        <v>995</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="32" t="s">
+        <v>999</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="32" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="32" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="32" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="32" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="32" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="32" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="32" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="32" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="32" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="32" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G83" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G84" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G87" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G89" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G91" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="32" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="32" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G97" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G102" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="32" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="32" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G110" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G111" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="32" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G112" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G113" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="32" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G118" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="32" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="C122" s="32"/>
+      <c r="F122" s="32" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="C123" s="32"/>
+      <c r="G123" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="C124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="C125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="C126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="C127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="C128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="C129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="32" t="s">
+        <v>968</v>
+      </c>
+      <c r="C131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="32" t="s">
+        <v>969</v>
+      </c>
+      <c r="C132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="C133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="C134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="C135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="C136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="C137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="32" t="s">
+        <v>976</v>
+      </c>
+      <c r="C139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="32" t="s">
+        <v>977</v>
+      </c>
+      <c r="C140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="C141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="C142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="C143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="C144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="32" t="s">
+        <v>982</v>
+      </c>
+      <c r="C145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="C146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="32" t="s">
+        <v>984</v>
+      </c>
+      <c r="C147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="32" t="s">
+        <v>985</v>
+      </c>
+      <c r="C148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="32" t="s">
+        <v>986</v>
+      </c>
+      <c r="C149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="32" t="s">
+        <v>987</v>
+      </c>
+      <c r="C150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="C151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="32" t="s">
+        <v>989</v>
+      </c>
+      <c r="C152" s="32"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="32" t="s">
+        <v>990</v>
+      </c>
+      <c r="C153" s="32"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="32" t="s">
+        <v>991</v>
+      </c>
+      <c r="C154" s="32"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="32" t="s">
+        <v>992</v>
+      </c>
+      <c r="C155" s="32"/>
+      <c r="F155" s="32"/>
+      <c r="G155" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="C156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="C157" s="32"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="32" t="s">
+        <v>995</v>
+      </c>
+      <c r="C158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="C159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="C160" s="32"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="C161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="32" t="s">
+        <v>999</v>
+      </c>
+      <c r="C162" s="32"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C163" s="32"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="32" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C165" s="32"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="32" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C167" s="32"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C168" s="32"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C169" s="32"/>
+      <c r="F169" s="32"/>
+      <c r="G169" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C171" s="32"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C172" s="32"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C173" s="32"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" s="32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C174" s="32"/>
+      <c r="F174" s="32"/>
+      <c r="G174" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="32" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C175" s="32"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="32" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C178" s="32"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="32" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C179" s="32"/>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C180" s="32"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C181" s="32"/>
+      <c r="F181" s="32"/>
+      <c r="G181" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" s="32" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C182" s="32"/>
+      <c r="F182" s="32"/>
+      <c r="G182" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" s="32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C183" s="32"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" s="32" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C184" s="32"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" s="32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C186" s="32"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C187" s="32"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="32" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C188" s="32"/>
+      <c r="F188" s="32"/>
+      <c r="G188" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" s="32" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C189" s="32"/>
+      <c r="F189" s="32"/>
+      <c r="G189" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" s="32" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C190" s="32"/>
+      <c r="F190" s="32"/>
+      <c r="G190" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C191" s="32"/>
+      <c r="F191" s="32"/>
+      <c r="G191" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" s="32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C194" s="32"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" s="32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C195" s="32"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C196" s="32"/>
+      <c r="F196" s="32"/>
+      <c r="G196" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C197" s="32"/>
+      <c r="F197" s="32"/>
+      <c r="G197" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C200" s="32"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C201" s="32"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" s="32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C202" s="32"/>
+      <c r="F202" s="32"/>
+      <c r="G202" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" s="32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C203" s="32"/>
+      <c r="F203" s="32"/>
+      <c r="G203" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C204" s="32"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C205" s="32"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C206" s="32"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C207" s="32"/>
+      <c r="F207" s="32"/>
+      <c r="G207" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C209" s="32"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C210" s="32"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C211" s="32"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C212" s="32"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" s="32" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C213" s="32"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" s="32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C214" s="32"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C215" s="32"/>
+      <c r="F215" s="32"/>
+      <c r="G215" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" s="32" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C216" s="32"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C217" s="32"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C218" s="32"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C219" s="32"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="B220" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C220" s="32"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7">
+      <c r="B221" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C221" s="32"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7">
+      <c r="B222" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C222" s="32"/>
+      <c r="F222" s="32"/>
+      <c r="G222" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7">
+      <c r="B223" s="32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C223" s="32"/>
+      <c r="F223" s="32"/>
+      <c r="G223" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7">
+      <c r="B224" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C224" s="32"/>
+      <c r="F224" s="32"/>
+      <c r="G224" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" s="32" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C225" s="32"/>
+      <c r="F225" s="32"/>
+      <c r="G225" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C226" s="32"/>
+      <c r="F226" s="32"/>
+      <c r="G226" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7">
+      <c r="B227" s="32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C227" s="32"/>
+      <c r="F227" s="32"/>
+      <c r="G227" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7">
+      <c r="B228" s="32" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C228" s="32"/>
+      <c r="F228" s="32"/>
+      <c r="G228" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" s="32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C229" s="32"/>
+      <c r="F229" s="32"/>
+      <c r="G229" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7">
+      <c r="B230" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C230" s="32"/>
+      <c r="F230" s="32"/>
+      <c r="G230" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7">
+      <c r="B231" s="32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C231" s="32"/>
+      <c r="F231" s="32"/>
+      <c r="G231" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7">
+      <c r="B232" s="32" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C232" s="32"/>
+      <c r="F232" s="32"/>
+      <c r="G232" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7">
+      <c r="B233" s="32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C233" s="32"/>
+      <c r="F233" s="32"/>
+      <c r="G233" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7">
+      <c r="B234" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C234" s="32"/>
+      <c r="F234" s="32"/>
+      <c r="G234" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7">
+      <c r="B235" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C235" s="32"/>
+      <c r="F235" s="32"/>
+      <c r="G235" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7">
+      <c r="B236" s="32" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C236" s="32"/>
+      <c r="F236" s="32"/>
+      <c r="G236" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7">
+      <c r="B237" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C237" s="32"/>
+      <c r="F237" s="32"/>
+      <c r="G237" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7">
+      <c r="B238" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C238" s="32"/>
+      <c r="F238" s="32"/>
+      <c r="G238" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7">
+      <c r="B239" s="32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C239" s="32"/>
+      <c r="F239" s="32"/>
+      <c r="G239" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" s="32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C240" s="32"/>
+      <c r="F240" s="32"/>
+      <c r="G240" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7">
+      <c r="B241" s="32" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C241" s="32"/>
+      <c r="F241" s="32"/>
+      <c r="G241" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7">
+      <c r="B242" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="C242" s="32"/>
+      <c r="F242" s="32" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G242" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7">
+      <c r="B243" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="C243" s="32"/>
+      <c r="F243" s="32"/>
+      <c r="G243" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7">
+      <c r="B244" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="C244" s="32"/>
+      <c r="G244" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7">
+      <c r="B245" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="C245" s="32"/>
+      <c r="F245" s="32"/>
+      <c r="G245" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7">
+      <c r="B246" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="C246" s="32"/>
+      <c r="F246" s="32"/>
+      <c r="G246" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7">
+      <c r="B247" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="C247" s="32"/>
+      <c r="F247" s="32"/>
+      <c r="G247" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7">
+      <c r="B248" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="C248" s="32"/>
+      <c r="F248" s="32"/>
+      <c r="G248" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7">
+      <c r="B249" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="C249" s="32"/>
+      <c r="F249" s="32"/>
+      <c r="G249" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7">
+      <c r="B250" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="C250" s="32"/>
+      <c r="F250" s="32"/>
+      <c r="G250" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7">
+      <c r="B251" s="32" t="s">
+        <v>968</v>
+      </c>
+      <c r="C251" s="32"/>
+      <c r="F251" s="32"/>
+      <c r="G251" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7">
+      <c r="B252" s="32" t="s">
+        <v>969</v>
+      </c>
+      <c r="C252" s="32"/>
+      <c r="F252" s="32"/>
+      <c r="G252" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7">
+      <c r="B253" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="C253" s="32"/>
+      <c r="F253" s="32"/>
+      <c r="G253" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7">
+      <c r="B254" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="C254" s="32"/>
+      <c r="F254" s="32"/>
+      <c r="G254" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7">
+      <c r="B255" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="C255" s="32"/>
+      <c r="F255" s="32"/>
+      <c r="G255" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7">
+      <c r="B256" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="C256" s="32"/>
+      <c r="F256" s="32"/>
+      <c r="G256" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7">
+      <c r="B257" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="C257" s="32"/>
+      <c r="F257" s="32"/>
+      <c r="G257" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7">
+      <c r="B258" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C258" s="32"/>
+      <c r="F258" s="32"/>
+      <c r="G258" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7">
+      <c r="B259" s="32" t="s">
+        <v>976</v>
+      </c>
+      <c r="C259" s="32"/>
+      <c r="F259" s="32"/>
+      <c r="G259" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7">
+      <c r="B260" s="32" t="s">
+        <v>977</v>
+      </c>
+      <c r="C260" s="32"/>
+      <c r="F260" s="32"/>
+      <c r="G260" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7">
+      <c r="B261" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="C261" s="32"/>
+      <c r="F261" s="32"/>
+      <c r="G261" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7">
+      <c r="B262" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="C262" s="32"/>
+      <c r="F262" s="32"/>
+      <c r="G262" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7">
+      <c r="B263" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="C263" s="32"/>
+      <c r="F263" s="32"/>
+      <c r="G263" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7">
+      <c r="B264" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="C264" s="32"/>
+      <c r="F264" s="32"/>
+      <c r="G264" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7">
+      <c r="B265" s="32" t="s">
+        <v>982</v>
+      </c>
+      <c r="C265" s="32"/>
+      <c r="F265" s="32"/>
+      <c r="G265" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7">
+      <c r="B266" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="C266" s="32"/>
+      <c r="F266" s="32"/>
+      <c r="G266" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7">
+      <c r="B267" s="32" t="s">
+        <v>984</v>
+      </c>
+      <c r="C267" s="32"/>
+      <c r="F267" s="32"/>
+      <c r="G267" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7">
+      <c r="B268" s="32" t="s">
+        <v>985</v>
+      </c>
+      <c r="C268" s="32"/>
+      <c r="F268" s="32"/>
+      <c r="G268" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7">
+      <c r="B269" s="32" t="s">
+        <v>986</v>
+      </c>
+      <c r="C269" s="32"/>
+      <c r="F269" s="32"/>
+      <c r="G269" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7">
+      <c r="B270" s="32" t="s">
+        <v>987</v>
+      </c>
+      <c r="C270" s="32"/>
+      <c r="F270" s="32"/>
+      <c r="G270" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7">
+      <c r="B271" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="C271" s="32"/>
+      <c r="F271" s="32"/>
+      <c r="G271" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7">
+      <c r="B272" s="32" t="s">
+        <v>989</v>
+      </c>
+      <c r="C272" s="32"/>
+      <c r="F272" s="32"/>
+      <c r="G272" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7">
+      <c r="B273" s="32" t="s">
+        <v>990</v>
+      </c>
+      <c r="C273" s="32"/>
+      <c r="F273" s="32"/>
+      <c r="G273" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7">
+      <c r="B274" s="32" t="s">
+        <v>991</v>
+      </c>
+      <c r="C274" s="32"/>
+      <c r="F274" s="32"/>
+      <c r="G274" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7">
+      <c r="B275" s="32" t="s">
+        <v>992</v>
+      </c>
+      <c r="C275" s="32"/>
+      <c r="F275" s="32"/>
+      <c r="G275" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7">
+      <c r="B276" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="C276" s="32"/>
+      <c r="F276" s="32"/>
+      <c r="G276" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="B277" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="C277" s="32"/>
+      <c r="F277" s="32"/>
+      <c r="G277" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7">
+      <c r="B278" s="32" t="s">
+        <v>995</v>
+      </c>
+      <c r="C278" s="32"/>
+      <c r="F278" s="32"/>
+      <c r="G278" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7">
+      <c r="B279" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="C279" s="32"/>
+      <c r="F279" s="32"/>
+      <c r="G279" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7">
+      <c r="B280" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="C280" s="32"/>
+      <c r="F280" s="32"/>
+      <c r="G280" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7">
+      <c r="B281" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="C281" s="32"/>
+      <c r="F281" s="32"/>
+      <c r="G281" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7">
+      <c r="B282" s="32" t="s">
+        <v>999</v>
+      </c>
+      <c r="C282" s="32"/>
+      <c r="F282" s="32"/>
+      <c r="G282" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7">
+      <c r="B283" s="32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C283" s="32"/>
+      <c r="F283" s="32"/>
+      <c r="G283" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7">
+      <c r="B284" s="32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C284" s="32"/>
+      <c r="F284" s="32"/>
+      <c r="G284" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7">
+      <c r="B285" s="32" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C285" s="32"/>
+      <c r="F285" s="32"/>
+      <c r="G285" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7">
+      <c r="B286" s="32" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C286" s="32"/>
+      <c r="F286" s="32"/>
+      <c r="G286" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7">
+      <c r="B287" s="32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C287" s="32"/>
+      <c r="F287" s="32"/>
+      <c r="G287" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7">
+      <c r="B288" s="32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C288" s="32"/>
+      <c r="F288" s="32"/>
+      <c r="G288" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7">
+      <c r="B289" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C289" s="32"/>
+      <c r="F289" s="32"/>
+      <c r="G289" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7">
+      <c r="B290" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C290" s="32"/>
+      <c r="F290" s="32"/>
+      <c r="G290" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7">
+      <c r="B291" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C291" s="32"/>
+      <c r="F291" s="32"/>
+      <c r="G291" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7">
+      <c r="B292" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C292" s="32"/>
+      <c r="F292" s="32"/>
+      <c r="G292" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7">
+      <c r="B293" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C293" s="32"/>
+      <c r="F293" s="32"/>
+      <c r="G293" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7">
+      <c r="B294" s="32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C294" s="32"/>
+      <c r="F294" s="32"/>
+      <c r="G294" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7">
+      <c r="B295" s="32" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C295" s="32"/>
+      <c r="F295" s="32"/>
+      <c r="G295" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7">
+      <c r="B296" s="32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C296" s="32"/>
+      <c r="F296" s="32"/>
+      <c r="G296" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7">
+      <c r="B297" s="32" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C297" s="32"/>
+      <c r="F297" s="32"/>
+      <c r="G297" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7">
+      <c r="B298" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C298" s="32"/>
+      <c r="F298" s="32"/>
+      <c r="G298" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7">
+      <c r="B299" s="32" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C299" s="32"/>
+      <c r="F299" s="32"/>
+      <c r="G299" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7">
+      <c r="B300" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C300" s="32"/>
+      <c r="F300" s="32"/>
+      <c r="G300" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7">
+      <c r="B301" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C301" s="32"/>
+      <c r="F301" s="32"/>
+      <c r="G301" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7">
+      <c r="B302" s="32" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C302" s="32"/>
+      <c r="F302" s="32"/>
+      <c r="G302" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7">
+      <c r="B303" s="32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C303" s="32"/>
+      <c r="F303" s="32"/>
+      <c r="G303" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7">
+      <c r="B304" s="32" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C304" s="32"/>
+      <c r="F304" s="32"/>
+      <c r="G304" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7">
+      <c r="B305" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C305" s="32"/>
+      <c r="F305" s="32"/>
+      <c r="G305" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7">
+      <c r="B306" s="32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C306" s="32"/>
+      <c r="F306" s="32"/>
+      <c r="G306" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7">
+      <c r="B307" s="32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C307" s="32"/>
+      <c r="F307" s="32"/>
+      <c r="G307" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7">
+      <c r="B308" s="32" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C308" s="32"/>
+      <c r="F308" s="32"/>
+      <c r="G308" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7">
+      <c r="B309" s="32" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C309" s="32"/>
+      <c r="F309" s="32"/>
+      <c r="G309" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7">
+      <c r="B310" s="32" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C310" s="32"/>
+      <c r="F310" s="32"/>
+      <c r="G310" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7">
+      <c r="B311" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C311" s="32"/>
+      <c r="F311" s="32"/>
+      <c r="G311" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7">
+      <c r="B312" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C312" s="32"/>
+      <c r="F312" s="32"/>
+      <c r="G312" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7">
+      <c r="B313" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C313" s="32"/>
+      <c r="F313" s="32"/>
+      <c r="G313" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7">
+      <c r="B314" s="32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C314" s="32"/>
+      <c r="F314" s="32"/>
+      <c r="G314" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7">
+      <c r="B315" s="32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C315" s="32"/>
+      <c r="F315" s="32"/>
+      <c r="G315" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7">
+      <c r="B316" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C316" s="32"/>
+      <c r="F316" s="32"/>
+      <c r="G316" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7">
+      <c r="B317" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C317" s="32"/>
+      <c r="F317" s="32"/>
+      <c r="G317" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7">
+      <c r="B318" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C318" s="32"/>
+      <c r="F318" s="32"/>
+      <c r="G318" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7">
+      <c r="B319" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C319" s="32"/>
+      <c r="F319" s="32"/>
+      <c r="G319" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7">
+      <c r="B320" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C320" s="32"/>
+      <c r="F320" s="32"/>
+      <c r="G320" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7">
+      <c r="B321" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C321" s="32"/>
+      <c r="F321" s="32"/>
+      <c r="G321" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7">
+      <c r="B322" s="32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C322" s="32"/>
+      <c r="F322" s="32"/>
+      <c r="G322" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7">
+      <c r="B323" s="32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C323" s="32"/>
+      <c r="F323" s="32"/>
+      <c r="G323" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7">
+      <c r="B324" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C324" s="32"/>
+      <c r="F324" s="32"/>
+      <c r="G324" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7">
+      <c r="B325" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C325" s="32"/>
+      <c r="F325" s="32"/>
+      <c r="G325" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7">
+      <c r="B326" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C326" s="32"/>
+      <c r="F326" s="32"/>
+      <c r="G326" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7">
+      <c r="B327" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C327" s="32"/>
+      <c r="F327" s="32"/>
+      <c r="G327" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7">
+      <c r="B328" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C328" s="32"/>
+      <c r="F328" s="32"/>
+      <c r="G328" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7">
+      <c r="B329" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C329" s="32"/>
+      <c r="F329" s="32"/>
+      <c r="G329" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7">
+      <c r="B330" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C330" s="32"/>
+      <c r="F330" s="32"/>
+      <c r="G330" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7">
+      <c r="B331" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C331" s="32"/>
+      <c r="F331" s="32"/>
+      <c r="G331" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7">
+      <c r="B332" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C332" s="32"/>
+      <c r="F332" s="32"/>
+      <c r="G332" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7">
+      <c r="B333" s="32" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C333" s="32"/>
+      <c r="F333" s="32"/>
+      <c r="G333" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7">
+      <c r="B334" s="32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C334" s="32"/>
+      <c r="F334" s="32"/>
+      <c r="G334" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7">
+      <c r="B335" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C335" s="32"/>
+      <c r="F335" s="32"/>
+      <c r="G335" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7">
+      <c r="B336" s="32" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C336" s="32"/>
+      <c r="F336" s="32"/>
+      <c r="G336" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7">
+      <c r="B337" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C337" s="32"/>
+      <c r="F337" s="32"/>
+      <c r="G337" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7">
+      <c r="B338" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C338" s="32"/>
+      <c r="F338" s="32"/>
+      <c r="G338" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7">
+      <c r="B339" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C339" s="32"/>
+      <c r="F339" s="32"/>
+      <c r="G339" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7">
+      <c r="B340" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C340" s="32"/>
+      <c r="F340" s="32"/>
+      <c r="G340" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7">
+      <c r="B341" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C341" s="32"/>
+      <c r="F341" s="32"/>
+      <c r="G341" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7">
+      <c r="B342" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C342" s="32"/>
+      <c r="F342" s="32"/>
+      <c r="G342" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7">
+      <c r="B343" s="32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C343" s="32"/>
+      <c r="F343" s="32"/>
+      <c r="G343" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7">
+      <c r="B344" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C344" s="32"/>
+      <c r="F344" s="32"/>
+      <c r="G344" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7">
+      <c r="B345" s="32" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C345" s="32"/>
+      <c r="F345" s="32"/>
+      <c r="G345" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7">
+      <c r="B346" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C346" s="32"/>
+      <c r="F346" s="32"/>
+      <c r="G346" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7">
+      <c r="B347" s="32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C347" s="32"/>
+      <c r="F347" s="32"/>
+      <c r="G347" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7">
+      <c r="B348" s="32" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C348" s="32"/>
+      <c r="F348" s="32"/>
+      <c r="G348" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7">
+      <c r="B349" s="32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C349" s="32"/>
+      <c r="F349" s="32"/>
+      <c r="G349" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7">
+      <c r="B350" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C350" s="32"/>
+      <c r="F350" s="32"/>
+      <c r="G350" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7">
+      <c r="B351" s="32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C351" s="32"/>
+      <c r="F351" s="32"/>
+      <c r="G351" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7">
+      <c r="B352" s="32" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C352" s="32"/>
+      <c r="F352" s="32"/>
+      <c r="G352" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7">
+      <c r="B353" s="32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C353" s="32"/>
+      <c r="F353" s="32"/>
+      <c r="G353" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7">
+      <c r="B354" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C354" s="32"/>
+      <c r="F354" s="32"/>
+      <c r="G354" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7">
+      <c r="B355" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C355" s="32"/>
+      <c r="F355" s="32"/>
+      <c r="G355" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7">
+      <c r="B356" s="32" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C356" s="32"/>
+      <c r="F356" s="32"/>
+      <c r="G356" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="357" spans="2:7">
+      <c r="B357" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C357" s="32"/>
+      <c r="F357" s="32"/>
+      <c r="G357" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7">
+      <c r="B358" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C358" s="32"/>
+      <c r="F358" s="32"/>
+      <c r="G358" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="359" spans="2:7">
+      <c r="B359" s="32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C359" s="32"/>
+      <c r="F359" s="32"/>
+      <c r="G359" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7">
+      <c r="B360" s="32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C360" s="32"/>
+      <c r="F360" s="32"/>
+      <c r="G360" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7">
+      <c r="B361" s="32" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C361" s="32"/>
+      <c r="F361" s="32"/>
+      <c r="G361" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="362" spans="2:7">
+      <c r="B362" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="C362" s="32"/>
+      <c r="F362" s="32" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G362" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="363" spans="2:7">
+      <c r="B363" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="C363" s="32"/>
+      <c r="F363" s="32"/>
+      <c r="G363" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7">
+      <c r="B364" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="C364" s="32"/>
+      <c r="F364" s="32"/>
+      <c r="G364" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="365" spans="2:7">
+      <c r="B365" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="C365" s="32"/>
+      <c r="G365" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="366" spans="2:7">
+      <c r="B366" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="C366" s="32"/>
+      <c r="F366" s="32"/>
+      <c r="G366" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="367" spans="2:7">
+      <c r="B367" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="C367" s="32"/>
+      <c r="F367" s="32"/>
+      <c r="G367" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="368" spans="2:7">
+      <c r="B368" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="C368" s="32"/>
+      <c r="F368" s="32"/>
+      <c r="G368" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="369" spans="2:7">
+      <c r="B369" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="C369" s="32"/>
+      <c r="F369" s="32"/>
+      <c r="G369" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="370" spans="2:7">
+      <c r="B370" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="C370" s="32"/>
+      <c r="F370" s="32"/>
+      <c r="G370" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="371" spans="2:7">
+      <c r="B371" s="32" t="s">
+        <v>968</v>
+      </c>
+      <c r="C371" s="32"/>
+      <c r="F371" s="32"/>
+      <c r="G371" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="372" spans="2:7">
+      <c r="B372" s="32" t="s">
+        <v>969</v>
+      </c>
+      <c r="C372" s="32"/>
+      <c r="F372" s="32"/>
+      <c r="G372" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="373" spans="2:7">
+      <c r="B373" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="C373" s="32"/>
+      <c r="F373" s="32"/>
+      <c r="G373" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="374" spans="2:7">
+      <c r="B374" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="C374" s="32"/>
+      <c r="F374" s="32"/>
+      <c r="G374" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="375" spans="2:7">
+      <c r="B375" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="C375" s="32"/>
+      <c r="F375" s="32"/>
+      <c r="G375" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="376" spans="2:7">
+      <c r="B376" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="C376" s="32"/>
+      <c r="F376" s="32"/>
+      <c r="G376" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="377" spans="2:7">
+      <c r="B377" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="C377" s="32"/>
+      <c r="F377" s="32"/>
+      <c r="G377" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="378" spans="2:7">
+      <c r="B378" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C378" s="32"/>
+      <c r="F378" s="32"/>
+      <c r="G378" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="379" spans="2:7">
+      <c r="B379" s="32" t="s">
+        <v>976</v>
+      </c>
+      <c r="C379" s="32"/>
+      <c r="F379" s="32"/>
+      <c r="G379" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="380" spans="2:7">
+      <c r="B380" s="32" t="s">
+        <v>977</v>
+      </c>
+      <c r="C380" s="32"/>
+      <c r="F380" s="32"/>
+      <c r="G380" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="381" spans="2:7">
+      <c r="B381" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="C381" s="32"/>
+      <c r="F381" s="32"/>
+      <c r="G381" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="382" spans="2:7">
+      <c r="B382" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="C382" s="32"/>
+      <c r="F382" s="32"/>
+      <c r="G382" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="383" spans="2:7">
+      <c r="B383" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="C383" s="32"/>
+      <c r="F383" s="32"/>
+      <c r="G383" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="384" spans="2:7">
+      <c r="B384" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="C384" s="32"/>
+      <c r="F384" s="32"/>
+      <c r="G384" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="385" spans="2:7">
+      <c r="B385" s="32" t="s">
+        <v>982</v>
+      </c>
+      <c r="C385" s="32"/>
+      <c r="F385" s="32"/>
+      <c r="G385" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="386" spans="2:7">
+      <c r="B386" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="C386" s="32"/>
+      <c r="F386" s="32"/>
+      <c r="G386" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="387" spans="2:7">
+      <c r="B387" s="32" t="s">
+        <v>984</v>
+      </c>
+      <c r="C387" s="32"/>
+      <c r="F387" s="32"/>
+      <c r="G387" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="388" spans="2:7">
+      <c r="B388" s="32" t="s">
+        <v>985</v>
+      </c>
+      <c r="C388" s="32"/>
+      <c r="F388" s="32"/>
+      <c r="G388" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="389" spans="2:7">
+      <c r="B389" s="32" t="s">
+        <v>986</v>
+      </c>
+      <c r="C389" s="32"/>
+      <c r="F389" s="32"/>
+      <c r="G389" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="390" spans="2:7">
+      <c r="B390" s="32" t="s">
+        <v>987</v>
+      </c>
+      <c r="C390" s="32"/>
+      <c r="F390" s="32"/>
+      <c r="G390" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="391" spans="2:7">
+      <c r="B391" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="C391" s="32"/>
+      <c r="F391" s="32"/>
+      <c r="G391" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="392" spans="2:7">
+      <c r="B392" s="32" t="s">
+        <v>989</v>
+      </c>
+      <c r="C392" s="32"/>
+      <c r="F392" s="32"/>
+      <c r="G392" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="393" spans="2:7">
+      <c r="B393" s="32" t="s">
+        <v>990</v>
+      </c>
+      <c r="C393" s="32"/>
+      <c r="F393" s="32"/>
+      <c r="G393" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="394" spans="2:7">
+      <c r="B394" s="32" t="s">
+        <v>991</v>
+      </c>
+      <c r="C394" s="32"/>
+      <c r="F394" s="32"/>
+      <c r="G394" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="395" spans="2:7">
+      <c r="B395" s="32" t="s">
+        <v>992</v>
+      </c>
+      <c r="C395" s="32"/>
+      <c r="F395" s="32"/>
+      <c r="G395" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="396" spans="2:7">
+      <c r="B396" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="C396" s="32"/>
+      <c r="F396" s="32"/>
+      <c r="G396" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="397" spans="2:7">
+      <c r="B397" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="C397" s="32"/>
+      <c r="F397" s="32"/>
+      <c r="G397" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="398" spans="2:7">
+      <c r="B398" s="32" t="s">
+        <v>995</v>
+      </c>
+      <c r="C398" s="32"/>
+      <c r="F398" s="32"/>
+      <c r="G398" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="399" spans="2:7">
+      <c r="B399" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="C399" s="32"/>
+      <c r="F399" s="32"/>
+      <c r="G399" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="400" spans="2:7">
+      <c r="B400" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="C400" s="32"/>
+      <c r="F400" s="32"/>
+      <c r="G400" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="401" spans="2:7">
+      <c r="B401" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="C401" s="32"/>
+      <c r="F401" s="32"/>
+      <c r="G401" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="402" spans="2:7">
+      <c r="B402" s="32" t="s">
+        <v>999</v>
+      </c>
+      <c r="C402" s="32"/>
+      <c r="F402" s="32"/>
+      <c r="G402" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="403" spans="2:7">
+      <c r="B403" s="32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C403" s="32"/>
+      <c r="F403" s="32"/>
+      <c r="G403" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="404" spans="2:7">
+      <c r="B404" s="32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C404" s="32"/>
+      <c r="F404" s="32"/>
+      <c r="G404" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="405" spans="2:7">
+      <c r="B405" s="32" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C405" s="32"/>
+      <c r="F405" s="32"/>
+      <c r="G405" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="406" spans="2:7">
+      <c r="B406" s="32" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C406" s="32"/>
+      <c r="F406" s="32"/>
+      <c r="G406" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="407" spans="2:7">
+      <c r="B407" s="32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C407" s="32"/>
+      <c r="F407" s="32"/>
+      <c r="G407" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="408" spans="2:7">
+      <c r="B408" s="32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C408" s="32"/>
+      <c r="F408" s="32"/>
+      <c r="G408" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="409" spans="2:7">
+      <c r="B409" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C409" s="32"/>
+      <c r="F409" s="32"/>
+      <c r="G409" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="410" spans="2:7">
+      <c r="B410" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C410" s="32"/>
+      <c r="F410" s="32"/>
+      <c r="G410" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="411" spans="2:7">
+      <c r="B411" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C411" s="32"/>
+      <c r="F411" s="32"/>
+      <c r="G411" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="412" spans="2:7">
+      <c r="B412" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C412" s="32"/>
+      <c r="F412" s="32"/>
+      <c r="G412" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="413" spans="2:7">
+      <c r="B413" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C413" s="32"/>
+      <c r="F413" s="32"/>
+      <c r="G413" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="414" spans="2:7">
+      <c r="B414" s="32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C414" s="32"/>
+      <c r="F414" s="32"/>
+      <c r="G414" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="415" spans="2:7">
+      <c r="B415" s="32" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C415" s="32"/>
+      <c r="F415" s="32"/>
+      <c r="G415" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="416" spans="2:7">
+      <c r="B416" s="32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C416" s="32"/>
+      <c r="F416" s="32"/>
+      <c r="G416" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7">
+      <c r="B417" s="32" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C417" s="32"/>
+      <c r="F417" s="32"/>
+      <c r="G417" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="418" spans="2:7">
+      <c r="B418" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C418" s="32"/>
+      <c r="F418" s="32"/>
+      <c r="G418" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="419" spans="2:7">
+      <c r="B419" s="32" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C419" s="32"/>
+      <c r="F419" s="32"/>
+      <c r="G419" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="420" spans="2:7">
+      <c r="B420" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C420" s="32"/>
+      <c r="F420" s="32"/>
+      <c r="G420" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="421" spans="2:7">
+      <c r="B421" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C421" s="32"/>
+      <c r="F421" s="32"/>
+      <c r="G421" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="422" spans="2:7">
+      <c r="B422" s="32" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C422" s="32"/>
+      <c r="F422" s="32"/>
+      <c r="G422" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="423" spans="2:7">
+      <c r="B423" s="32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C423" s="32"/>
+      <c r="F423" s="32"/>
+      <c r="G423" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="424" spans="2:7">
+      <c r="B424" s="32" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C424" s="32"/>
+      <c r="F424" s="32"/>
+      <c r="G424" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="425" spans="2:7">
+      <c r="B425" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C425" s="32"/>
+      <c r="F425" s="32"/>
+      <c r="G425" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="426" spans="2:7">
+      <c r="B426" s="32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C426" s="32"/>
+      <c r="F426" s="32"/>
+      <c r="G426" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="427" spans="2:7">
+      <c r="B427" s="32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C427" s="32"/>
+      <c r="F427" s="32"/>
+      <c r="G427" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="428" spans="2:7">
+      <c r="B428" s="32" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C428" s="32"/>
+      <c r="F428" s="32"/>
+      <c r="G428" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="429" spans="2:7">
+      <c r="B429" s="32" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C429" s="32"/>
+      <c r="F429" s="32"/>
+      <c r="G429" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="430" spans="2:7">
+      <c r="B430" s="32" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C430" s="32"/>
+      <c r="F430" s="32"/>
+      <c r="G430" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="431" spans="2:7">
+      <c r="B431" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C431" s="32"/>
+      <c r="F431" s="32"/>
+      <c r="G431" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="432" spans="2:7">
+      <c r="B432" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C432" s="32"/>
+      <c r="F432" s="32"/>
+      <c r="G432" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="433" spans="2:7">
+      <c r="B433" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C433" s="32"/>
+      <c r="F433" s="32"/>
+      <c r="G433" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="434" spans="2:7">
+      <c r="B434" s="32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C434" s="32"/>
+      <c r="F434" s="32"/>
+      <c r="G434" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="435" spans="2:7">
+      <c r="B435" s="32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C435" s="32"/>
+      <c r="F435" s="32"/>
+      <c r="G435" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="436" spans="2:7">
+      <c r="B436" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C436" s="32"/>
+      <c r="F436" s="32"/>
+      <c r="G436" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="437" spans="2:7">
+      <c r="B437" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C437" s="32"/>
+      <c r="F437" s="32"/>
+      <c r="G437" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="438" spans="2:7">
+      <c r="B438" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C438" s="32"/>
+      <c r="F438" s="32"/>
+      <c r="G438" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="439" spans="2:7">
+      <c r="B439" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C439" s="32"/>
+      <c r="F439" s="32"/>
+      <c r="G439" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="440" spans="2:7">
+      <c r="B440" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C440" s="32"/>
+      <c r="F440" s="32"/>
+      <c r="G440" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="441" spans="2:7">
+      <c r="B441" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C441" s="32"/>
+      <c r="F441" s="32"/>
+      <c r="G441" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="442" spans="2:7">
+      <c r="B442" s="32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C442" s="32"/>
+      <c r="F442" s="32"/>
+      <c r="G442" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="443" spans="2:7">
+      <c r="B443" s="32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C443" s="32"/>
+      <c r="F443" s="32"/>
+      <c r="G443" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="444" spans="2:7">
+      <c r="B444" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C444" s="32"/>
+      <c r="F444" s="32"/>
+      <c r="G444" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="445" spans="2:7">
+      <c r="B445" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C445" s="32"/>
+      <c r="F445" s="32"/>
+      <c r="G445" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="446" spans="2:7">
+      <c r="B446" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C446" s="32"/>
+      <c r="F446" s="32"/>
+      <c r="G446" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="447" spans="2:7">
+      <c r="B447" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C447" s="32"/>
+      <c r="F447" s="32"/>
+      <c r="G447" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="448" spans="2:7">
+      <c r="B448" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C448" s="32"/>
+      <c r="F448" s="32"/>
+      <c r="G448" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="449" spans="2:7">
+      <c r="B449" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C449" s="32"/>
+      <c r="F449" s="32"/>
+      <c r="G449" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="450" spans="2:7">
+      <c r="B450" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C450" s="32"/>
+      <c r="F450" s="32"/>
+      <c r="G450" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="451" spans="2:7">
+      <c r="B451" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C451" s="32"/>
+      <c r="F451" s="32"/>
+      <c r="G451" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="452" spans="2:7">
+      <c r="B452" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C452" s="32"/>
+      <c r="F452" s="32"/>
+      <c r="G452" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="453" spans="2:7">
+      <c r="B453" s="32" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C453" s="32"/>
+      <c r="F453" s="32"/>
+      <c r="G453" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="454" spans="2:7">
+      <c r="B454" s="32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C454" s="32"/>
+      <c r="F454" s="32"/>
+      <c r="G454" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="455" spans="2:7">
+      <c r="B455" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C455" s="32"/>
+      <c r="F455" s="32"/>
+      <c r="G455" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="456" spans="2:7">
+      <c r="B456" s="32" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C456" s="32"/>
+      <c r="F456" s="32"/>
+      <c r="G456" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="457" spans="2:7">
+      <c r="B457" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C457" s="32"/>
+      <c r="F457" s="32"/>
+      <c r="G457" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="458" spans="2:7">
+      <c r="B458" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C458" s="32"/>
+      <c r="F458" s="32"/>
+      <c r="G458" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="459" spans="2:7">
+      <c r="B459" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C459" s="32"/>
+      <c r="F459" s="32"/>
+      <c r="G459" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="460" spans="2:7">
+      <c r="B460" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C460" s="32"/>
+      <c r="F460" s="32"/>
+      <c r="G460" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="461" spans="2:7">
+      <c r="B461" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C461" s="32"/>
+      <c r="F461" s="32"/>
+      <c r="G461" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="462" spans="2:7">
+      <c r="B462" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C462" s="32"/>
+      <c r="F462" s="32"/>
+      <c r="G462" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="463" spans="2:7">
+      <c r="B463" s="32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C463" s="32"/>
+      <c r="F463" s="32"/>
+      <c r="G463" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="464" spans="2:7">
+      <c r="B464" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C464" s="32"/>
+      <c r="F464" s="32"/>
+      <c r="G464" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="465" spans="2:7">
+      <c r="B465" s="32" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C465" s="32"/>
+      <c r="F465" s="32"/>
+      <c r="G465" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="466" spans="2:7">
+      <c r="B466" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C466" s="32"/>
+      <c r="F466" s="32"/>
+      <c r="G466" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="467" spans="2:7">
+      <c r="B467" s="32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C467" s="32"/>
+      <c r="F467" s="32"/>
+      <c r="G467" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="468" spans="2:7">
+      <c r="B468" s="32" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C468" s="32"/>
+      <c r="F468" s="32"/>
+      <c r="G468" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="469" spans="2:7">
+      <c r="B469" s="32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C469" s="32"/>
+      <c r="F469" s="32"/>
+      <c r="G469" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="470" spans="2:7">
+      <c r="B470" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C470" s="32"/>
+      <c r="F470" s="32"/>
+      <c r="G470" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="471" spans="2:7">
+      <c r="B471" s="32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C471" s="32"/>
+      <c r="F471" s="32"/>
+      <c r="G471" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="472" spans="2:7">
+      <c r="B472" s="32" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C472" s="32"/>
+      <c r="F472" s="32"/>
+      <c r="G472" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="473" spans="2:7">
+      <c r="B473" s="32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C473" s="32"/>
+      <c r="F473" s="32"/>
+      <c r="G473" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="474" spans="2:7">
+      <c r="B474" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C474" s="32"/>
+      <c r="F474" s="32"/>
+      <c r="G474" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="475" spans="2:7">
+      <c r="B475" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C475" s="32"/>
+      <c r="F475" s="32"/>
+      <c r="G475" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="476" spans="2:7">
+      <c r="B476" s="32" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C476" s="32"/>
+      <c r="F476" s="32"/>
+      <c r="G476" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="477" spans="2:7">
+      <c r="B477" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C477" s="32"/>
+      <c r="F477" s="32"/>
+      <c r="G477" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="478" spans="2:7">
+      <c r="B478" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C478" s="32"/>
+      <c r="F478" s="32"/>
+      <c r="G478" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="479" spans="2:7">
+      <c r="B479" s="32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C479" s="32"/>
+      <c r="F479" s="32"/>
+      <c r="G479" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="480" spans="2:7">
+      <c r="B480" s="32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C480" s="32"/>
+      <c r="F480" s="32"/>
+      <c r="G480" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="481" spans="2:7">
+      <c r="B481" s="32" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C481" s="32"/>
+      <c r="F481" s="32"/>
+      <c r="G481" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="482" spans="2:7">
+      <c r="B482" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="C482" s="32"/>
+      <c r="F482" s="32" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G482" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="483" spans="2:7">
+      <c r="B483" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="C483" s="32"/>
+      <c r="F483" s="32"/>
+      <c r="G483" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="484" spans="2:7">
+      <c r="B484" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="C484" s="32"/>
+      <c r="F484" s="32"/>
+      <c r="G484" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="485" spans="2:7">
+      <c r="B485" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="C485" s="32"/>
+      <c r="F485" s="32"/>
+      <c r="G485" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="486" spans="2:7">
+      <c r="B486" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="C486" s="32"/>
+      <c r="G486" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="487" spans="2:7">
+      <c r="B487" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="C487" s="32"/>
+      <c r="F487" s="32"/>
+      <c r="G487" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="488" spans="2:7">
+      <c r="B488" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="C488" s="32"/>
+      <c r="F488" s="32"/>
+      <c r="G488" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="489" spans="2:7">
+      <c r="B489" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="C489" s="32"/>
+      <c r="F489" s="32"/>
+      <c r="G489" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="490" spans="2:7">
+      <c r="B490" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="C490" s="32"/>
+      <c r="F490" s="32"/>
+      <c r="G490" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="491" spans="2:7">
+      <c r="B491" s="32" t="s">
+        <v>968</v>
+      </c>
+      <c r="C491" s="32"/>
+      <c r="F491" s="32"/>
+      <c r="G491" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="492" spans="2:7">
+      <c r="B492" s="32" t="s">
+        <v>969</v>
+      </c>
+      <c r="C492" s="32"/>
+      <c r="F492" s="32"/>
+      <c r="G492" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="493" spans="2:7">
+      <c r="B493" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="C493" s="32"/>
+      <c r="F493" s="32"/>
+      <c r="G493" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="494" spans="2:7">
+      <c r="B494" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="C494" s="32"/>
+      <c r="F494" s="32"/>
+      <c r="G494" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="495" spans="2:7">
+      <c r="B495" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="C495" s="32"/>
+      <c r="F495" s="32"/>
+      <c r="G495" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="496" spans="2:7">
+      <c r="B496" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="C496" s="32"/>
+      <c r="F496" s="32"/>
+      <c r="G496" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="497" spans="2:7">
+      <c r="B497" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="C497" s="32"/>
+      <c r="F497" s="32"/>
+      <c r="G497" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="498" spans="2:7">
+      <c r="B498" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C498" s="32"/>
+      <c r="F498" s="32"/>
+      <c r="G498" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="499" spans="2:7">
+      <c r="B499" s="32" t="s">
+        <v>976</v>
+      </c>
+      <c r="C499" s="32"/>
+      <c r="F499" s="32"/>
+      <c r="G499" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="500" spans="2:7">
+      <c r="B500" s="32" t="s">
+        <v>977</v>
+      </c>
+      <c r="C500" s="32"/>
+      <c r="F500" s="32"/>
+      <c r="G500" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="501" spans="2:7">
+      <c r="B501" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="C501" s="32"/>
+      <c r="F501" s="32"/>
+      <c r="G501" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="502" spans="2:7">
+      <c r="B502" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="C502" s="32"/>
+      <c r="F502" s="32"/>
+      <c r="G502" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="503" spans="2:7">
+      <c r="B503" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="C503" s="32"/>
+      <c r="F503" s="32"/>
+      <c r="G503" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="504" spans="2:7">
+      <c r="B504" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="C504" s="32"/>
+      <c r="F504" s="32"/>
+      <c r="G504" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="505" spans="2:7">
+      <c r="B505" s="32" t="s">
+        <v>982</v>
+      </c>
+      <c r="C505" s="32"/>
+      <c r="F505" s="32"/>
+      <c r="G505" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="506" spans="2:7">
+      <c r="B506" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="C506" s="32"/>
+      <c r="F506" s="32"/>
+      <c r="G506" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="507" spans="2:7">
+      <c r="B507" s="32" t="s">
+        <v>984</v>
+      </c>
+      <c r="C507" s="32"/>
+      <c r="F507" s="32"/>
+      <c r="G507" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="508" spans="2:7">
+      <c r="B508" s="32" t="s">
+        <v>985</v>
+      </c>
+      <c r="C508" s="32"/>
+      <c r="F508" s="32"/>
+      <c r="G508" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="509" spans="2:7">
+      <c r="B509" s="32" t="s">
+        <v>986</v>
+      </c>
+      <c r="C509" s="32"/>
+      <c r="F509" s="32"/>
+      <c r="G509" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="510" spans="2:7">
+      <c r="B510" s="32" t="s">
+        <v>987</v>
+      </c>
+      <c r="C510" s="32"/>
+      <c r="F510" s="32"/>
+      <c r="G510" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="511" spans="2:7">
+      <c r="B511" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="C511" s="32"/>
+      <c r="F511" s="32"/>
+      <c r="G511" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="512" spans="2:7">
+      <c r="B512" s="32" t="s">
+        <v>989</v>
+      </c>
+      <c r="C512" s="32"/>
+      <c r="F512" s="32"/>
+      <c r="G512" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="513" spans="2:7">
+      <c r="B513" s="32" t="s">
+        <v>990</v>
+      </c>
+      <c r="C513" s="32"/>
+      <c r="F513" s="32"/>
+      <c r="G513" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="514" spans="2:7">
+      <c r="B514" s="32" t="s">
+        <v>991</v>
+      </c>
+      <c r="C514" s="32"/>
+      <c r="F514" s="32"/>
+      <c r="G514" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="515" spans="2:7">
+      <c r="B515" s="32" t="s">
+        <v>992</v>
+      </c>
+      <c r="C515" s="32"/>
+      <c r="F515" s="32"/>
+      <c r="G515" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="516" spans="2:7">
+      <c r="B516" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="C516" s="32"/>
+      <c r="F516" s="32"/>
+      <c r="G516" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="517" spans="2:7">
+      <c r="B517" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="C517" s="32"/>
+      <c r="F517" s="32"/>
+      <c r="G517" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="518" spans="2:7">
+      <c r="B518" s="32" t="s">
+        <v>995</v>
+      </c>
+      <c r="C518" s="32"/>
+      <c r="F518" s="32"/>
+      <c r="G518" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="519" spans="2:7">
+      <c r="B519" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="C519" s="32"/>
+      <c r="F519" s="32"/>
+      <c r="G519" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="520" spans="2:7">
+      <c r="B520" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="C520" s="32"/>
+      <c r="F520" s="32"/>
+      <c r="G520" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="521" spans="2:7">
+      <c r="B521" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="C521" s="32"/>
+      <c r="F521" s="32"/>
+      <c r="G521" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="522" spans="2:7">
+      <c r="B522" s="32" t="s">
+        <v>999</v>
+      </c>
+      <c r="C522" s="32"/>
+      <c r="F522" s="32"/>
+      <c r="G522" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="523" spans="2:7">
+      <c r="B523" s="32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C523" s="32"/>
+      <c r="F523" s="32"/>
+      <c r="G523" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="524" spans="2:7">
+      <c r="B524" s="32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C524" s="32"/>
+      <c r="F524" s="32"/>
+      <c r="G524" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="525" spans="2:7">
+      <c r="B525" s="32" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C525" s="32"/>
+      <c r="F525" s="32"/>
+      <c r="G525" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="526" spans="2:7">
+      <c r="B526" s="32" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C526" s="32"/>
+      <c r="F526" s="32"/>
+      <c r="G526" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="527" spans="2:7">
+      <c r="B527" s="32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C527" s="32"/>
+      <c r="F527" s="32"/>
+      <c r="G527" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="528" spans="2:7">
+      <c r="B528" s="32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C528" s="32"/>
+      <c r="F528" s="32"/>
+      <c r="G528" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="529" spans="2:7">
+      <c r="B529" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C529" s="32"/>
+      <c r="F529" s="32"/>
+      <c r="G529" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="530" spans="2:7">
+      <c r="B530" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C530" s="32"/>
+      <c r="F530" s="32"/>
+      <c r="G530" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="531" spans="2:7">
+      <c r="B531" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C531" s="32"/>
+      <c r="F531" s="32"/>
+      <c r="G531" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="532" spans="2:7">
+      <c r="B532" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C532" s="32"/>
+      <c r="F532" s="32"/>
+      <c r="G532" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="533" spans="2:7">
+      <c r="B533" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C533" s="32"/>
+      <c r="F533" s="32"/>
+      <c r="G533" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="534" spans="2:7">
+      <c r="B534" s="32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C534" s="32"/>
+      <c r="F534" s="32"/>
+      <c r="G534" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="535" spans="2:7">
+      <c r="B535" s="32" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C535" s="32"/>
+      <c r="F535" s="32"/>
+      <c r="G535" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="536" spans="2:7">
+      <c r="B536" s="32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C536" s="32"/>
+      <c r="F536" s="32"/>
+      <c r="G536" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="537" spans="2:7">
+      <c r="B537" s="32" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C537" s="32"/>
+      <c r="F537" s="32"/>
+      <c r="G537" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="538" spans="2:7">
+      <c r="B538" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C538" s="32"/>
+      <c r="F538" s="32"/>
+      <c r="G538" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="539" spans="2:7">
+      <c r="B539" s="32" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C539" s="32"/>
+      <c r="F539" s="32"/>
+      <c r="G539" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="540" spans="2:7">
+      <c r="B540" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C540" s="32"/>
+      <c r="F540" s="32"/>
+      <c r="G540" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="541" spans="2:7">
+      <c r="B541" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C541" s="32"/>
+      <c r="F541" s="32"/>
+      <c r="G541" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="542" spans="2:7">
+      <c r="B542" s="32" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C542" s="32"/>
+      <c r="F542" s="32"/>
+      <c r="G542" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="543" spans="2:7">
+      <c r="B543" s="32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C543" s="32"/>
+      <c r="F543" s="32"/>
+      <c r="G543" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="544" spans="2:7">
+      <c r="B544" s="32" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C544" s="32"/>
+      <c r="F544" s="32"/>
+      <c r="G544" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="545" spans="2:7">
+      <c r="B545" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C545" s="32"/>
+      <c r="F545" s="32"/>
+      <c r="G545" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="546" spans="2:7">
+      <c r="B546" s="32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C546" s="32"/>
+      <c r="F546" s="32"/>
+      <c r="G546" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="547" spans="2:7">
+      <c r="B547" s="32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C547" s="32"/>
+      <c r="F547" s="32"/>
+      <c r="G547" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="548" spans="2:7">
+      <c r="B548" s="32" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C548" s="32"/>
+      <c r="F548" s="32"/>
+      <c r="G548" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="549" spans="2:7">
+      <c r="B549" s="32" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C549" s="32"/>
+      <c r="F549" s="32"/>
+      <c r="G549" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="550" spans="2:7">
+      <c r="B550" s="32" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C550" s="32"/>
+      <c r="F550" s="32"/>
+      <c r="G550" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="551" spans="2:7">
+      <c r="B551" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C551" s="32"/>
+      <c r="F551" s="32"/>
+      <c r="G551" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="552" spans="2:7">
+      <c r="B552" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C552" s="32"/>
+      <c r="F552" s="32"/>
+      <c r="G552" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="553" spans="2:7">
+      <c r="B553" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C553" s="32"/>
+      <c r="F553" s="32"/>
+      <c r="G553" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="554" spans="2:7">
+      <c r="B554" s="32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C554" s="32"/>
+      <c r="F554" s="32"/>
+      <c r="G554" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="555" spans="2:7">
+      <c r="B555" s="32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C555" s="32"/>
+      <c r="F555" s="32"/>
+      <c r="G555" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="556" spans="2:7">
+      <c r="B556" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C556" s="32"/>
+      <c r="F556" s="32"/>
+      <c r="G556" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="557" spans="2:7">
+      <c r="B557" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C557" s="32"/>
+      <c r="F557" s="32"/>
+      <c r="G557" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="558" spans="2:7">
+      <c r="B558" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C558" s="32"/>
+      <c r="F558" s="32"/>
+      <c r="G558" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="559" spans="2:7">
+      <c r="B559" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C559" s="32"/>
+      <c r="F559" s="32"/>
+      <c r="G559" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="560" spans="2:7">
+      <c r="B560" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C560" s="32"/>
+      <c r="F560" s="32"/>
+      <c r="G560" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="561" spans="2:7">
+      <c r="B561" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C561" s="32"/>
+      <c r="F561" s="32"/>
+      <c r="G561" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="562" spans="2:7">
+      <c r="B562" s="32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C562" s="32"/>
+      <c r="F562" s="32"/>
+      <c r="G562" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="563" spans="2:7">
+      <c r="B563" s="32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C563" s="32"/>
+      <c r="F563" s="32"/>
+      <c r="G563" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="564" spans="2:7">
+      <c r="B564" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C564" s="32"/>
+      <c r="F564" s="32"/>
+      <c r="G564" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="565" spans="2:7">
+      <c r="B565" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C565" s="32"/>
+      <c r="F565" s="32"/>
+      <c r="G565" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="566" spans="2:7">
+      <c r="B566" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C566" s="32"/>
+      <c r="F566" s="32"/>
+      <c r="G566" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="567" spans="2:7">
+      <c r="B567" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C567" s="32"/>
+      <c r="F567" s="32"/>
+      <c r="G567" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="568" spans="2:7">
+      <c r="B568" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C568" s="32"/>
+      <c r="F568" s="32"/>
+      <c r="G568" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="569" spans="2:7">
+      <c r="B569" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C569" s="32"/>
+      <c r="F569" s="32"/>
+      <c r="G569" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="570" spans="2:7">
+      <c r="B570" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C570" s="32"/>
+      <c r="F570" s="32"/>
+      <c r="G570" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="571" spans="2:7">
+      <c r="B571" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C571" s="32"/>
+      <c r="F571" s="32"/>
+      <c r="G571" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="572" spans="2:7">
+      <c r="B572" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C572" s="32"/>
+      <c r="F572" s="32"/>
+      <c r="G572" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="573" spans="2:7">
+      <c r="B573" s="32" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C573" s="32"/>
+      <c r="F573" s="32"/>
+      <c r="G573" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="574" spans="2:7">
+      <c r="B574" s="32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C574" s="32"/>
+      <c r="F574" s="32"/>
+      <c r="G574" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="575" spans="2:7">
+      <c r="B575" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C575" s="32"/>
+      <c r="F575" s="32"/>
+      <c r="G575" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="576" spans="2:7">
+      <c r="B576" s="32" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C576" s="32"/>
+      <c r="F576" s="32"/>
+      <c r="G576" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="577" spans="2:7">
+      <c r="B577" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C577" s="32"/>
+      <c r="F577" s="32"/>
+      <c r="G577" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="578" spans="2:7">
+      <c r="B578" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C578" s="32"/>
+      <c r="F578" s="32"/>
+      <c r="G578" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="579" spans="2:7">
+      <c r="B579" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C579" s="32"/>
+      <c r="F579" s="32"/>
+      <c r="G579" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="580" spans="2:7">
+      <c r="B580" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C580" s="32"/>
+      <c r="F580" s="32"/>
+      <c r="G580" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="581" spans="2:7">
+      <c r="B581" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C581" s="32"/>
+      <c r="F581" s="32"/>
+      <c r="G581" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="582" spans="2:7">
+      <c r="B582" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C582" s="32"/>
+      <c r="F582" s="32"/>
+      <c r="G582" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="583" spans="2:7">
+      <c r="B583" s="32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C583" s="32"/>
+      <c r="F583" s="32"/>
+      <c r="G583" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="584" spans="2:7">
+      <c r="B584" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C584" s="32"/>
+      <c r="F584" s="32"/>
+      <c r="G584" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="585" spans="2:7">
+      <c r="B585" s="32" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C585" s="32"/>
+      <c r="F585" s="32"/>
+      <c r="G585" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="586" spans="2:7">
+      <c r="B586" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C586" s="32"/>
+      <c r="F586" s="32"/>
+      <c r="G586" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="587" spans="2:7">
+      <c r="B587" s="32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C587" s="32"/>
+      <c r="F587" s="32"/>
+      <c r="G587" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="588" spans="2:7">
+      <c r="B588" s="32" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C588" s="32"/>
+      <c r="F588" s="32"/>
+      <c r="G588" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="589" spans="2:7">
+      <c r="B589" s="32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C589" s="32"/>
+      <c r="F589" s="32"/>
+      <c r="G589" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="590" spans="2:7">
+      <c r="B590" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C590" s="32"/>
+      <c r="F590" s="32"/>
+      <c r="G590" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="591" spans="2:7">
+      <c r="B591" s="32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C591" s="32"/>
+      <c r="F591" s="32"/>
+      <c r="G591" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="592" spans="2:7">
+      <c r="B592" s="32" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C592" s="32"/>
+      <c r="F592" s="32"/>
+      <c r="G592" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="593" spans="2:7">
+      <c r="B593" s="32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C593" s="32"/>
+      <c r="F593" s="32"/>
+      <c r="G593" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="594" spans="2:7">
+      <c r="B594" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C594" s="32"/>
+      <c r="F594" s="32"/>
+      <c r="G594" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="595" spans="2:7">
+      <c r="B595" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C595" s="32"/>
+      <c r="F595" s="32"/>
+      <c r="G595" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="596" spans="2:7">
+      <c r="B596" s="32" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C596" s="32"/>
+      <c r="F596" s="32"/>
+      <c r="G596" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="597" spans="2:7">
+      <c r="B597" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C597" s="32"/>
+      <c r="F597" s="32"/>
+      <c r="G597" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="598" spans="2:7">
+      <c r="B598" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C598" s="32"/>
+      <c r="F598" s="32"/>
+      <c r="G598" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="599" spans="2:7">
+      <c r="B599" s="32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C599" s="32"/>
+      <c r="F599" s="32"/>
+      <c r="G599" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="600" spans="2:7">
+      <c r="B600" s="32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C600" s="32"/>
+      <c r="F600" s="32"/>
+      <c r="G600" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="601" spans="2:7">
+      <c r="B601" s="32" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C601" s="32"/>
+      <c r="F601" s="32"/>
+      <c r="G601" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="602" spans="2:7">
+      <c r="B602" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="C602" s="32"/>
+      <c r="F602" s="32" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G602" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="603" spans="2:7">
+      <c r="B603" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="C603" s="32"/>
+      <c r="F603" s="32"/>
+      <c r="G603" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="604" spans="2:7">
+      <c r="B604" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="C604" s="32"/>
+      <c r="F604" s="32"/>
+      <c r="G604" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="605" spans="2:7">
+      <c r="B605" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="C605" s="32"/>
+      <c r="F605" s="32"/>
+      <c r="G605" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="606" spans="2:7">
+      <c r="B606" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="C606" s="32"/>
+      <c r="F606" s="32"/>
+      <c r="G606" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="607" spans="2:7">
+      <c r="B607" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="C607" s="32"/>
+      <c r="G607" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="608" spans="2:7">
+      <c r="B608" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="C608" s="32"/>
+      <c r="F608" s="32"/>
+      <c r="G608" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="609" spans="2:7">
+      <c r="B609" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="C609" s="32"/>
+      <c r="F609" s="32"/>
+      <c r="G609" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="610" spans="2:7">
+      <c r="B610" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="C610" s="32"/>
+      <c r="F610" s="32"/>
+      <c r="G610" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="611" spans="2:7">
+      <c r="B611" s="32" t="s">
+        <v>968</v>
+      </c>
+      <c r="C611" s="32"/>
+      <c r="F611" s="32"/>
+      <c r="G611" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="612" spans="2:7">
+      <c r="B612" s="32" t="s">
+        <v>969</v>
+      </c>
+      <c r="C612" s="32"/>
+      <c r="F612" s="32"/>
+      <c r="G612" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="613" spans="2:7">
+      <c r="B613" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="C613" s="32"/>
+      <c r="F613" s="32"/>
+      <c r="G613" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="614" spans="2:7">
+      <c r="B614" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="C614" s="32"/>
+      <c r="F614" s="32"/>
+      <c r="G614" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="615" spans="2:7">
+      <c r="B615" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="C615" s="32"/>
+      <c r="F615" s="32"/>
+      <c r="G615" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="616" spans="2:7">
+      <c r="B616" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="C616" s="32"/>
+      <c r="F616" s="32"/>
+      <c r="G616" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="617" spans="2:7">
+      <c r="B617" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="C617" s="32"/>
+      <c r="F617" s="32"/>
+      <c r="G617" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="618" spans="2:7">
+      <c r="B618" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="C618" s="32"/>
+      <c r="F618" s="32"/>
+      <c r="G618" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="619" spans="2:7">
+      <c r="B619" s="32" t="s">
+        <v>976</v>
+      </c>
+      <c r="C619" s="32"/>
+      <c r="F619" s="32"/>
+      <c r="G619" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="620" spans="2:7">
+      <c r="B620" s="32" t="s">
+        <v>977</v>
+      </c>
+      <c r="C620" s="32"/>
+      <c r="F620" s="32"/>
+      <c r="G620" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="621" spans="2:7">
+      <c r="B621" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="C621" s="32"/>
+      <c r="F621" s="32"/>
+      <c r="G621" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="622" spans="2:7">
+      <c r="B622" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="C622" s="32"/>
+      <c r="F622" s="32"/>
+      <c r="G622" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="623" spans="2:7">
+      <c r="B623" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="C623" s="32"/>
+      <c r="F623" s="32"/>
+      <c r="G623" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="624" spans="2:7">
+      <c r="B624" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="C624" s="32"/>
+      <c r="F624" s="32"/>
+      <c r="G624" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="625" spans="2:7">
+      <c r="B625" s="32" t="s">
+        <v>982</v>
+      </c>
+      <c r="C625" s="32"/>
+      <c r="F625" s="32"/>
+      <c r="G625" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="626" spans="2:7">
+      <c r="B626" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="C626" s="32"/>
+      <c r="F626" s="32"/>
+      <c r="G626" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="627" spans="2:7">
+      <c r="B627" s="32" t="s">
+        <v>984</v>
+      </c>
+      <c r="C627" s="32"/>
+      <c r="F627" s="32"/>
+      <c r="G627" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="628" spans="2:7">
+      <c r="B628" s="32" t="s">
+        <v>985</v>
+      </c>
+      <c r="C628" s="32"/>
+      <c r="F628" s="32"/>
+      <c r="G628" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="629" spans="2:7">
+      <c r="B629" s="32" t="s">
+        <v>986</v>
+      </c>
+      <c r="C629" s="32"/>
+      <c r="F629" s="32"/>
+      <c r="G629" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="630" spans="2:7">
+      <c r="B630" s="32" t="s">
+        <v>987</v>
+      </c>
+      <c r="C630" s="32"/>
+      <c r="F630" s="32"/>
+      <c r="G630" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="631" spans="2:7">
+      <c r="B631" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="C631" s="32"/>
+      <c r="F631" s="32"/>
+      <c r="G631" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="632" spans="2:7">
+      <c r="B632" s="32" t="s">
+        <v>989</v>
+      </c>
+      <c r="C632" s="32"/>
+      <c r="F632" s="32"/>
+      <c r="G632" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="633" spans="2:7">
+      <c r="B633" s="32" t="s">
+        <v>990</v>
+      </c>
+      <c r="C633" s="32"/>
+      <c r="F633" s="32"/>
+      <c r="G633" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="634" spans="2:7">
+      <c r="B634" s="32" t="s">
+        <v>991</v>
+      </c>
+      <c r="C634" s="32"/>
+      <c r="F634" s="32"/>
+      <c r="G634" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="635" spans="2:7">
+      <c r="B635" s="32" t="s">
+        <v>992</v>
+      </c>
+      <c r="C635" s="32"/>
+      <c r="F635" s="32"/>
+      <c r="G635" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="636" spans="2:7">
+      <c r="B636" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="C636" s="32"/>
+      <c r="F636" s="32"/>
+      <c r="G636" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="637" spans="2:7">
+      <c r="B637" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="C637" s="32"/>
+      <c r="F637" s="32"/>
+      <c r="G637" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="638" spans="2:7">
+      <c r="B638" s="32" t="s">
+        <v>995</v>
+      </c>
+      <c r="C638" s="32"/>
+      <c r="F638" s="32"/>
+      <c r="G638" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="639" spans="2:7">
+      <c r="B639" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="C639" s="32"/>
+      <c r="F639" s="32"/>
+      <c r="G639" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="640" spans="2:7">
+      <c r="B640" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="C640" s="32"/>
+      <c r="F640" s="32"/>
+      <c r="G640" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="641" spans="2:7">
+      <c r="B641" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="C641" s="32"/>
+      <c r="F641" s="32"/>
+      <c r="G641" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="642" spans="2:7">
+      <c r="B642" s="32" t="s">
+        <v>999</v>
+      </c>
+      <c r="C642" s="32"/>
+      <c r="F642" s="32"/>
+      <c r="G642" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="643" spans="2:7">
+      <c r="B643" s="32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C643" s="32"/>
+      <c r="F643" s="32"/>
+      <c r="G643" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="644" spans="2:7">
+      <c r="B644" s="32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C644" s="32"/>
+      <c r="F644" s="32"/>
+      <c r="G644" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="645" spans="2:7">
+      <c r="B645" s="32" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C645" s="32"/>
+      <c r="F645" s="32"/>
+      <c r="G645" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="646" spans="2:7">
+      <c r="B646" s="32" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C646" s="32"/>
+      <c r="F646" s="32"/>
+      <c r="G646" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="647" spans="2:7">
+      <c r="B647" s="32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C647" s="32"/>
+      <c r="F647" s="32"/>
+      <c r="G647" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="648" spans="2:7">
+      <c r="B648" s="32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C648" s="32"/>
+      <c r="F648" s="32"/>
+      <c r="G648" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="649" spans="2:7">
+      <c r="B649" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C649" s="32"/>
+      <c r="F649" s="32"/>
+      <c r="G649" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="650" spans="2:7">
+      <c r="B650" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C650" s="32"/>
+      <c r="F650" s="32"/>
+      <c r="G650" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="651" spans="2:7">
+      <c r="B651" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C651" s="32"/>
+      <c r="F651" s="32"/>
+      <c r="G651" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="652" spans="2:7">
+      <c r="B652" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C652" s="32"/>
+      <c r="F652" s="32"/>
+      <c r="G652" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="653" spans="2:7">
+      <c r="B653" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C653" s="32"/>
+      <c r="F653" s="32"/>
+      <c r="G653" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="654" spans="2:7">
+      <c r="B654" s="32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C654" s="32"/>
+      <c r="F654" s="32"/>
+      <c r="G654" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="655" spans="2:7">
+      <c r="B655" s="32" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C655" s="32"/>
+      <c r="F655" s="32"/>
+      <c r="G655" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="656" spans="2:7">
+      <c r="B656" s="32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C656" s="32"/>
+      <c r="F656" s="32"/>
+      <c r="G656" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="657" spans="2:7">
+      <c r="B657" s="32" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C657" s="32"/>
+      <c r="F657" s="32"/>
+      <c r="G657" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="658" spans="2:7">
+      <c r="B658" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C658" s="32"/>
+      <c r="F658" s="32"/>
+      <c r="G658" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="659" spans="2:7">
+      <c r="B659" s="32" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C659" s="32"/>
+      <c r="F659" s="32"/>
+      <c r="G659" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="660" spans="2:7">
+      <c r="B660" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C660" s="32"/>
+      <c r="F660" s="32"/>
+      <c r="G660" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="661" spans="2:7">
+      <c r="B661" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C661" s="32"/>
+      <c r="F661" s="32"/>
+      <c r="G661" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="662" spans="2:7">
+      <c r="B662" s="32" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C662" s="32"/>
+      <c r="F662" s="32"/>
+      <c r="G662" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="663" spans="2:7">
+      <c r="B663" s="32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C663" s="32"/>
+      <c r="F663" s="32"/>
+      <c r="G663" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="664" spans="2:7">
+      <c r="B664" s="32" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C664" s="32"/>
+      <c r="F664" s="32"/>
+      <c r="G664" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="665" spans="2:7">
+      <c r="B665" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C665" s="32"/>
+      <c r="F665" s="32"/>
+      <c r="G665" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="666" spans="2:7">
+      <c r="B666" s="32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C666" s="32"/>
+      <c r="F666" s="32"/>
+      <c r="G666" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="667" spans="2:7">
+      <c r="B667" s="32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C667" s="32"/>
+      <c r="F667" s="32"/>
+      <c r="G667" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="668" spans="2:7">
+      <c r="B668" s="32" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C668" s="32"/>
+      <c r="F668" s="32"/>
+      <c r="G668" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="669" spans="2:7">
+      <c r="B669" s="32" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C669" s="32"/>
+      <c r="F669" s="32"/>
+      <c r="G669" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="670" spans="2:7">
+      <c r="B670" s="32" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C670" s="32"/>
+      <c r="F670" s="32"/>
+      <c r="G670" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="671" spans="2:7">
+      <c r="B671" s="32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C671" s="32"/>
+      <c r="F671" s="32"/>
+      <c r="G671" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="672" spans="2:7">
+      <c r="B672" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C672" s="32"/>
+      <c r="F672" s="32"/>
+      <c r="G672" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="673" spans="2:7">
+      <c r="B673" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C673" s="32"/>
+      <c r="F673" s="32"/>
+      <c r="G673" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="674" spans="2:7">
+      <c r="B674" s="32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C674" s="32"/>
+      <c r="F674" s="32"/>
+      <c r="G674" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="675" spans="2:7">
+      <c r="B675" s="32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C675" s="32"/>
+      <c r="F675" s="32"/>
+      <c r="G675" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="676" spans="2:7">
+      <c r="B676" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C676" s="32"/>
+      <c r="F676" s="32"/>
+      <c r="G676" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="677" spans="2:7">
+      <c r="B677" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C677" s="32"/>
+      <c r="F677" s="32"/>
+      <c r="G677" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="678" spans="2:7">
+      <c r="B678" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C678" s="32"/>
+      <c r="F678" s="32"/>
+      <c r="G678" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="679" spans="2:7">
+      <c r="B679" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C679" s="32"/>
+      <c r="F679" s="32"/>
+      <c r="G679" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="680" spans="2:7">
+      <c r="B680" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C680" s="32"/>
+      <c r="F680" s="32"/>
+      <c r="G680" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="681" spans="2:7">
+      <c r="B681" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C681" s="32"/>
+      <c r="F681" s="32"/>
+      <c r="G681" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="682" spans="2:7">
+      <c r="B682" s="32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C682" s="32"/>
+      <c r="F682" s="32"/>
+      <c r="G682" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="683" spans="2:7">
+      <c r="B683" s="32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C683" s="32"/>
+      <c r="F683" s="32"/>
+      <c r="G683" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="684" spans="2:7">
+      <c r="B684" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C684" s="32"/>
+      <c r="F684" s="32"/>
+      <c r="G684" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="685" spans="2:7">
+      <c r="B685" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C685" s="32"/>
+      <c r="F685" s="32"/>
+      <c r="G685" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="686" spans="2:7">
+      <c r="B686" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C686" s="32"/>
+      <c r="F686" s="32"/>
+      <c r="G686" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="687" spans="2:7">
+      <c r="B687" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C687" s="32"/>
+      <c r="F687" s="32"/>
+      <c r="G687" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="688" spans="2:7">
+      <c r="B688" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C688" s="32"/>
+      <c r="F688" s="32"/>
+      <c r="G688" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="689" spans="2:7">
+      <c r="B689" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C689" s="32"/>
+      <c r="F689" s="32"/>
+      <c r="G689" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="690" spans="2:7">
+      <c r="B690" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C690" s="32"/>
+      <c r="F690" s="32"/>
+      <c r="G690" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="691" spans="2:7">
+      <c r="B691" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C691" s="32"/>
+      <c r="F691" s="32"/>
+      <c r="G691" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="692" spans="2:7">
+      <c r="B692" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C692" s="32"/>
+      <c r="F692" s="32"/>
+      <c r="G692" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="693" spans="2:7">
+      <c r="B693" s="32" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C693" s="32"/>
+      <c r="F693" s="32"/>
+      <c r="G693" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="694" spans="2:7">
+      <c r="B694" s="32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C694" s="32"/>
+      <c r="F694" s="32"/>
+      <c r="G694" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="695" spans="2:7">
+      <c r="B695" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C695" s="32"/>
+      <c r="F695" s="32"/>
+      <c r="G695" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="696" spans="2:7">
+      <c r="B696" s="32" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C696" s="32"/>
+      <c r="F696" s="32"/>
+      <c r="G696" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="697" spans="2:7">
+      <c r="B697" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C697" s="32"/>
+      <c r="F697" s="32"/>
+      <c r="G697" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="698" spans="2:7">
+      <c r="B698" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C698" s="32"/>
+      <c r="F698" s="32"/>
+      <c r="G698" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="699" spans="2:7">
+      <c r="B699" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C699" s="32"/>
+      <c r="F699" s="32"/>
+      <c r="G699" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="700" spans="2:7">
+      <c r="B700" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C700" s="32"/>
+      <c r="F700" s="32"/>
+      <c r="G700" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="701" spans="2:7">
+      <c r="B701" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C701" s="32"/>
+      <c r="F701" s="32"/>
+      <c r="G701" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="702" spans="2:7">
+      <c r="B702" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C702" s="32"/>
+      <c r="F702" s="32"/>
+      <c r="G702" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="703" spans="2:7">
+      <c r="B703" s="32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C703" s="32"/>
+      <c r="F703" s="32"/>
+      <c r="G703" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="704" spans="2:7">
+      <c r="B704" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C704" s="32"/>
+      <c r="F704" s="32"/>
+      <c r="G704" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="705" spans="2:7">
+      <c r="B705" s="32" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C705" s="32"/>
+      <c r="F705" s="32"/>
+      <c r="G705" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="706" spans="2:7">
+      <c r="B706" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C706" s="32"/>
+      <c r="F706" s="32"/>
+      <c r="G706" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="707" spans="2:7">
+      <c r="B707" s="32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C707" s="32"/>
+      <c r="F707" s="32"/>
+      <c r="G707" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="708" spans="2:7">
+      <c r="B708" s="32" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C708" s="32"/>
+      <c r="F708" s="32"/>
+      <c r="G708" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="709" spans="2:7">
+      <c r="B709" s="32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C709" s="32"/>
+      <c r="F709" s="32"/>
+      <c r="G709" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="710" spans="2:7">
+      <c r="B710" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C710" s="32"/>
+      <c r="F710" s="32"/>
+      <c r="G710" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="711" spans="2:7">
+      <c r="B711" s="32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C711" s="32"/>
+      <c r="F711" s="32"/>
+      <c r="G711" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="712" spans="2:7">
+      <c r="B712" s="32" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C712" s="32"/>
+      <c r="F712" s="32"/>
+      <c r="G712" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="713" spans="2:7">
+      <c r="B713" s="32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C713" s="32"/>
+      <c r="F713" s="32"/>
+      <c r="G713" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="714" spans="2:7">
+      <c r="B714" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C714" s="32"/>
+      <c r="F714" s="32"/>
+      <c r="G714" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="715" spans="2:7">
+      <c r="B715" s="32" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C715" s="32"/>
+      <c r="F715" s="32"/>
+      <c r="G715" s="32" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="716" spans="2:7">
+      <c r="B716" s="32" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C716" s="32"/>
+      <c r="F716" s="32"/>
+      <c r="G716" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="717" spans="2:7">
+      <c r="B717" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C717" s="32"/>
+      <c r="F717" s="32"/>
+      <c r="G717" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="718" spans="2:7">
+      <c r="B718" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C718" s="32"/>
+      <c r="F718" s="32"/>
+      <c r="G718" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="719" spans="2:7">
+      <c r="B719" s="32" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C719" s="32"/>
+      <c r="F719" s="32"/>
+      <c r="G719" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="720" spans="2:7">
+      <c r="B720" s="32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C720" s="32"/>
+      <c r="F720" s="32"/>
+      <c r="G720" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="721" spans="2:7">
+      <c r="B721" s="32" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C721" s="32"/>
+      <c r="F721" s="32"/>
+      <c r="G721" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11578,7 +19029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H336"/>
   <sheetViews>
@@ -17631,7 +25082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N746"/>
   <sheetViews>
@@ -35784,7 +43235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -35876,7 +43327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -35963,7 +43414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -36080,7 +43531,381 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E52"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="107.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="D1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="E6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="E7" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="D17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E22" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="32" customFormat="1">
+      <c r="B26" s="29" t="s">
+        <v>954</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>955</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="C23" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -36132,381 +43957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="107.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="D1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>875</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="E6" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="E7" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="D16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="D17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D20" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D21" t="s">
-        <v>372</v>
-      </c>
-      <c r="E21" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D22" t="s">
-        <v>373</v>
-      </c>
-      <c r="E22" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="29" t="s">
-        <v>798</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="29" t="s">
-        <v>799</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" s="32" customFormat="1">
-      <c r="B26" s="29" t="s">
-        <v>954</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>955</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2"/>
-    <hyperlink ref="C23" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -36580,7 +44031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -36621,7 +44072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="1095">
   <si>
     <t>SVN</t>
   </si>
@@ -3508,20 +3508,23 @@
   <si>
     <t>2012-09-22 08:13:12</t>
   </si>
+  <si>
+    <t>_not-used-id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;₪&quot;\ * #,##0_ ;_ &quot;₪&quot;\ * \-#,##0_ ;_ &quot;₪&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ &quot;₪&quot;\ * #,##0.00_ ;_ &quot;₪&quot;\ * \-#,##0.00_ ;_ &quot;₪&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_ &quot;₪&quot;\ * #,##0_ ;_ &quot;₪&quot;\ * \-#,##0_ ;_ &quot;₪&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_ &quot;₪&quot;\ * #,##0.00_ ;_ &quot;₪&quot;\ * \-#,##0.00_ ;_ &quot;₪&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -3674,28 +3677,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
@@ -7301,7 +7304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I721"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -19033,9 +19036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H336"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F339" sqref="F339"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -19051,7 +19052,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="32" t="s">
-        <v>10</v>
+        <v>1094</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>91</v>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="13"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7957" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7740" uniqueCount="1114">
   <si>
     <t>SVN</t>
   </si>
@@ -14401,7 +14401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+    <sheetView topLeftCell="A207" workbookViewId="0">
       <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
@@ -19022,8 +19022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L336"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19096,7 +19096,7 @@
         <v>320</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="G2" s="32">
         <v>4</v>
@@ -19130,9 +19130,6 @@
       <c r="E3" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>316</v>
-      </c>
       <c r="G3" s="32">
         <v>6</v>
       </c>
@@ -19165,9 +19162,6 @@
       <c r="E4" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>312</v>
-      </c>
       <c r="G4" s="32">
         <v>10</v>
       </c>
@@ -19200,9 +19194,6 @@
       <c r="E5" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>311</v>
-      </c>
       <c r="G5" s="32">
         <v>6</v>
       </c>
@@ -19235,9 +19226,6 @@
       <c r="E6" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="G6" s="32">
         <v>2</v>
       </c>
@@ -19270,9 +19258,6 @@
       <c r="E7" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="G7" s="32">
         <v>8</v>
       </c>
@@ -19305,9 +19290,6 @@
       <c r="E8" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>310</v>
-      </c>
       <c r="G8" s="32">
         <v>6</v>
       </c>
@@ -19340,9 +19322,6 @@
       <c r="E9" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>317</v>
-      </c>
       <c r="G9" s="32">
         <v>8</v>
       </c>
@@ -19375,9 +19354,6 @@
       <c r="E10" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>314</v>
-      </c>
       <c r="G10" s="32">
         <v>2</v>
       </c>
@@ -19410,9 +19386,6 @@
       <c r="E11" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G11" s="32">
         <v>4</v>
       </c>
@@ -19445,9 +19418,6 @@
       <c r="E12" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>318</v>
-      </c>
       <c r="G12" s="32">
         <v>2</v>
       </c>
@@ -19480,9 +19450,6 @@
       <c r="E13" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>315</v>
-      </c>
       <c r="G13" s="32">
         <v>6</v>
       </c>
@@ -19518,9 +19485,6 @@
       <c r="E14" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G14" s="32">
         <v>8</v>
       </c>
@@ -19553,9 +19517,6 @@
       <c r="E15" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>316</v>
-      </c>
       <c r="G15" s="32">
         <v>6</v>
       </c>
@@ -19588,9 +19549,6 @@
       <c r="E16" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>312</v>
-      </c>
       <c r="G16" s="32">
         <v>2</v>
       </c>
@@ -19623,9 +19581,6 @@
       <c r="E17" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>311</v>
-      </c>
       <c r="G17" s="32">
         <v>2</v>
       </c>
@@ -19658,9 +19613,6 @@
       <c r="E18" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="G18" s="32">
         <v>6</v>
       </c>
@@ -19693,9 +19645,6 @@
       <c r="E19" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="G19" s="32">
         <v>2</v>
       </c>
@@ -19728,9 +19677,6 @@
       <c r="E20" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>310</v>
-      </c>
       <c r="G20" s="32">
         <v>2</v>
       </c>
@@ -19763,9 +19709,6 @@
       <c r="E21" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>317</v>
-      </c>
       <c r="G21" s="32">
         <v>2</v>
       </c>
@@ -19798,9 +19741,6 @@
       <c r="E22" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F22" s="32" t="s">
-        <v>314</v>
-      </c>
       <c r="G22" s="32">
         <v>2</v>
       </c>
@@ -19833,9 +19773,6 @@
       <c r="E23" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G23" s="32">
         <v>6</v>
       </c>
@@ -19868,9 +19805,6 @@
       <c r="E24" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>318</v>
-      </c>
       <c r="G24" s="32">
         <v>2</v>
       </c>
@@ -19903,9 +19837,6 @@
       <c r="E25" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>315</v>
-      </c>
       <c r="G25" s="32">
         <v>2</v>
       </c>
@@ -19941,9 +19872,6 @@
       <c r="E26" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G26" s="32">
         <v>2</v>
       </c>
@@ -19976,9 +19904,6 @@
       <c r="E27" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F27" s="32" t="s">
-        <v>316</v>
-      </c>
       <c r="G27" s="32">
         <v>6</v>
       </c>
@@ -20011,9 +19936,6 @@
       <c r="E28" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>312</v>
-      </c>
       <c r="G28" s="32">
         <v>6</v>
       </c>
@@ -20046,9 +19968,6 @@
       <c r="E29" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F29" s="32" t="s">
-        <v>311</v>
-      </c>
       <c r="G29" s="32">
         <v>2</v>
       </c>
@@ -20081,9 +20000,6 @@
       <c r="E30" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F30" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="G30" s="32">
         <v>8</v>
       </c>
@@ -20116,9 +20032,6 @@
       <c r="E31" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="G31" s="32">
         <v>2</v>
       </c>
@@ -20151,9 +20064,6 @@
       <c r="E32" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>310</v>
-      </c>
       <c r="G32" s="32">
         <v>6</v>
       </c>
@@ -20186,9 +20096,6 @@
       <c r="E33" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F33" s="32" t="s">
-        <v>317</v>
-      </c>
       <c r="G33" s="32">
         <v>2</v>
       </c>
@@ -20221,9 +20128,6 @@
       <c r="E34" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F34" s="32" t="s">
-        <v>314</v>
-      </c>
       <c r="G34" s="32">
         <v>2</v>
       </c>
@@ -20256,9 +20160,6 @@
       <c r="E35" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G35" s="32">
         <v>6</v>
       </c>
@@ -20291,9 +20192,6 @@
       <c r="E36" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F36" s="32" t="s">
-        <v>318</v>
-      </c>
       <c r="G36" s="32">
         <v>8</v>
       </c>
@@ -20326,9 +20224,6 @@
       <c r="E37" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F37" s="32" t="s">
-        <v>315</v>
-      </c>
       <c r="G37" s="32">
         <v>2</v>
       </c>
@@ -20361,9 +20256,6 @@
       <c r="E38" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F38" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G38" s="32">
         <v>4</v>
       </c>
@@ -20396,9 +20288,6 @@
       <c r="E39" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F39" s="32" t="s">
-        <v>316</v>
-      </c>
       <c r="G39" s="32">
         <v>8</v>
       </c>
@@ -20431,9 +20320,6 @@
       <c r="E40" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F40" s="32" t="s">
-        <v>312</v>
-      </c>
       <c r="G40" s="32">
         <v>2</v>
       </c>
@@ -20466,9 +20352,6 @@
       <c r="E41" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F41" s="32" t="s">
-        <v>311</v>
-      </c>
       <c r="G41" s="32">
         <v>6</v>
       </c>
@@ -20501,9 +20384,6 @@
       <c r="E42" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F42" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="G42" s="32">
         <v>2</v>
       </c>
@@ -20536,9 +20416,6 @@
       <c r="E43" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F43" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="G43" s="32">
         <v>2</v>
       </c>
@@ -20571,9 +20448,6 @@
       <c r="E44" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F44" s="32" t="s">
-        <v>310</v>
-      </c>
       <c r="G44" s="32">
         <v>2</v>
       </c>
@@ -20606,9 +20480,6 @@
       <c r="E45" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F45" s="32" t="s">
-        <v>317</v>
-      </c>
       <c r="G45" s="32">
         <v>8</v>
       </c>
@@ -20641,9 +20512,6 @@
       <c r="E46" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F46" s="32" t="s">
-        <v>314</v>
-      </c>
       <c r="G46" s="32">
         <v>8</v>
       </c>
@@ -20676,9 +20544,6 @@
       <c r="E47" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F47" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G47" s="32">
         <v>2</v>
       </c>
@@ -20711,9 +20576,6 @@
       <c r="E48" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F48" s="32" t="s">
-        <v>318</v>
-      </c>
       <c r="G48" s="32">
         <v>8</v>
       </c>
@@ -20746,9 +20608,6 @@
       <c r="E49" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F49" s="32" t="s">
-        <v>315</v>
-      </c>
       <c r="G49" s="32">
         <v>6</v>
       </c>
@@ -20781,9 +20640,6 @@
       <c r="E50" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F50" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G50" s="32">
         <v>4</v>
       </c>
@@ -20816,9 +20672,6 @@
       <c r="E51" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F51" s="32" t="s">
-        <v>316</v>
-      </c>
       <c r="G51" s="32">
         <v>2</v>
       </c>
@@ -20851,9 +20704,6 @@
       <c r="E52" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F52" s="32" t="s">
-        <v>312</v>
-      </c>
       <c r="G52" s="32">
         <v>6</v>
       </c>
@@ -20886,9 +20736,6 @@
       <c r="E53" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F53" s="32" t="s">
-        <v>311</v>
-      </c>
       <c r="G53" s="32">
         <v>6</v>
       </c>
@@ -20921,9 +20768,6 @@
       <c r="E54" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F54" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="G54" s="32">
         <v>6</v>
       </c>
@@ -20956,9 +20800,6 @@
       <c r="E55" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F55" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="G55" s="32">
         <v>2</v>
       </c>
@@ -20991,9 +20832,6 @@
       <c r="E56" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F56" s="32" t="s">
-        <v>310</v>
-      </c>
       <c r="G56" s="32">
         <v>2</v>
       </c>
@@ -21026,9 +20864,6 @@
       <c r="E57" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F57" s="32" t="s">
-        <v>317</v>
-      </c>
       <c r="G57" s="32">
         <v>6</v>
       </c>
@@ -21061,9 +20896,6 @@
       <c r="E58" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F58" s="32" t="s">
-        <v>314</v>
-      </c>
       <c r="G58" s="32">
         <v>2</v>
       </c>
@@ -21096,9 +20928,6 @@
       <c r="E59" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F59" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G59" s="32">
         <v>2</v>
       </c>
@@ -21131,9 +20960,6 @@
       <c r="E60" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F60" s="32" t="s">
-        <v>318</v>
-      </c>
       <c r="G60" s="32">
         <v>4</v>
       </c>
@@ -21166,9 +20992,6 @@
       <c r="E61" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F61" s="32" t="s">
-        <v>315</v>
-      </c>
       <c r="G61" s="32">
         <v>2</v>
       </c>
@@ -21201,9 +21024,6 @@
       <c r="E62" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F62" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G62" s="32">
         <v>6</v>
       </c>
@@ -21236,9 +21056,6 @@
       <c r="E63" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F63" s="32" t="s">
-        <v>316</v>
-      </c>
       <c r="G63" s="32">
         <v>4</v>
       </c>
@@ -21271,9 +21088,6 @@
       <c r="E64" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F64" s="32" t="s">
-        <v>312</v>
-      </c>
       <c r="G64" s="32">
         <v>6</v>
       </c>
@@ -21306,9 +21120,6 @@
       <c r="E65" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F65" s="32" t="s">
-        <v>311</v>
-      </c>
       <c r="G65" s="32">
         <v>2</v>
       </c>
@@ -21341,9 +21152,6 @@
       <c r="E66" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F66" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="G66" s="32">
         <v>8</v>
       </c>
@@ -21376,9 +21184,6 @@
       <c r="E67" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F67" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="G67" s="32">
         <v>2</v>
       </c>
@@ -21411,9 +21216,6 @@
       <c r="E68" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F68" s="32" t="s">
-        <v>310</v>
-      </c>
       <c r="G68" s="32">
         <v>2</v>
       </c>
@@ -21446,9 +21248,6 @@
       <c r="E69" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F69" s="32" t="s">
-        <v>317</v>
-      </c>
       <c r="G69" s="32">
         <v>2</v>
       </c>
@@ -21481,9 +21280,6 @@
       <c r="E70" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F70" s="32" t="s">
-        <v>314</v>
-      </c>
       <c r="G70" s="32">
         <v>6</v>
       </c>
@@ -21516,9 +21312,6 @@
       <c r="E71" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F71" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G71" s="32">
         <v>6</v>
       </c>
@@ -21551,9 +21344,6 @@
       <c r="E72" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F72" s="32" t="s">
-        <v>318</v>
-      </c>
       <c r="G72" s="32">
         <v>6</v>
       </c>
@@ -21586,9 +21376,6 @@
       <c r="E73" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F73" s="32" t="s">
-        <v>315</v>
-      </c>
       <c r="G73" s="32">
         <v>2</v>
       </c>
@@ -21621,9 +21408,6 @@
       <c r="E74" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F74" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G74" s="32">
         <v>2</v>
       </c>
@@ -21656,9 +21440,6 @@
       <c r="E75" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F75" s="32" t="s">
-        <v>316</v>
-      </c>
       <c r="G75" s="32">
         <v>6</v>
       </c>
@@ -21691,9 +21472,6 @@
       <c r="E76" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F76" s="32" t="s">
-        <v>312</v>
-      </c>
       <c r="G76" s="32">
         <v>2</v>
       </c>
@@ -21726,9 +21504,6 @@
       <c r="E77" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F77" s="32" t="s">
-        <v>311</v>
-      </c>
       <c r="G77" s="32">
         <v>2</v>
       </c>
@@ -21761,9 +21536,6 @@
       <c r="E78" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F78" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="G78" s="32">
         <v>2</v>
       </c>
@@ -21796,9 +21568,6 @@
       <c r="E79" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F79" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="G79" s="32">
         <v>2</v>
       </c>
@@ -21831,9 +21600,6 @@
       <c r="E80" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F80" s="32" t="s">
-        <v>310</v>
-      </c>
       <c r="G80" s="32">
         <v>6</v>
       </c>
@@ -21866,9 +21632,6 @@
       <c r="E81" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F81" s="32" t="s">
-        <v>317</v>
-      </c>
       <c r="G81" s="32">
         <v>2</v>
       </c>
@@ -21901,9 +21664,6 @@
       <c r="E82" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F82" s="32" t="s">
-        <v>314</v>
-      </c>
       <c r="G82" s="32">
         <v>12</v>
       </c>
@@ -21936,9 +21696,6 @@
       <c r="E83" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F83" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G83" s="32">
         <v>2</v>
       </c>
@@ -21971,9 +21728,6 @@
       <c r="E84" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F84" s="32" t="s">
-        <v>318</v>
-      </c>
       <c r="G84" s="32">
         <v>2</v>
       </c>
@@ -22006,9 +21760,6 @@
       <c r="E85" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F85" s="32" t="s">
-        <v>315</v>
-      </c>
       <c r="G85" s="32">
         <v>6</v>
       </c>
@@ -22041,9 +21792,6 @@
       <c r="E86" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F86" s="32" t="s">
-        <v>309</v>
-      </c>
       <c r="G86" s="32">
         <v>4</v>
       </c>
@@ -22076,9 +21824,6 @@
       <c r="E87" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F87" s="32" t="s">
-        <v>316</v>
-      </c>
       <c r="G87" s="32">
         <v>6</v>
       </c>
@@ -22111,9 +21856,6 @@
       <c r="E88" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F88" s="32" t="s">
-        <v>312</v>
-      </c>
       <c r="G88" s="32">
         <v>2</v>
       </c>
@@ -22146,9 +21888,6 @@
       <c r="E89" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F89" s="32" t="s">
-        <v>311</v>
-      </c>
       <c r="G89" s="32">
         <v>2</v>
       </c>
@@ -22181,9 +21920,6 @@
       <c r="E90" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="32" t="s">
-        <v>15</v>
-      </c>
       <c r="G90" s="32">
         <v>6</v>
       </c>
@@ -22583,9 +22319,6 @@
       <c r="E122" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F122" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G122" s="41">
         <v>3</v>
       </c>
@@ -22618,9 +22351,6 @@
       <c r="E123" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G123" s="41" t="s">
         <v>937</v>
       </c>
@@ -22653,9 +22383,6 @@
       <c r="E124" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G124" s="41" t="s">
         <v>936</v>
       </c>
@@ -22688,9 +22415,6 @@
       <c r="E125" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F125" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G125" s="6">
         <v>3</v>
       </c>
@@ -22723,9 +22447,6 @@
       <c r="E126" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G126" s="6">
         <v>1</v>
       </c>
@@ -22758,9 +22479,6 @@
       <c r="E127" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G127" s="6">
         <v>5</v>
       </c>
@@ -22793,9 +22511,6 @@
       <c r="E128" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F128" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G128" s="6">
         <v>3</v>
       </c>
@@ -22828,9 +22543,6 @@
       <c r="E129" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F129" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G129" s="6">
         <v>5</v>
       </c>
@@ -22863,9 +22575,6 @@
       <c r="E130" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F130" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="G130" s="6">
         <v>1</v>
       </c>
@@ -22898,9 +22607,6 @@
       <c r="E131" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F131" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G131" s="6">
         <v>3</v>
       </c>
@@ -22933,9 +22639,6 @@
       <c r="E132" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="G132" s="6">
         <v>3</v>
       </c>
@@ -22968,9 +22671,6 @@
       <c r="E133" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F133" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="G133" s="6">
         <v>3</v>
       </c>
@@ -23003,9 +22703,6 @@
       <c r="E134" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F134" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G134" s="6">
         <v>3</v>
       </c>
@@ -23038,9 +22735,6 @@
       <c r="E135" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F135" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G135" s="6">
         <v>3</v>
       </c>
@@ -23073,9 +22767,6 @@
       <c r="E136" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F136" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G136" s="6">
         <v>3</v>
       </c>
@@ -23108,9 +22799,6 @@
       <c r="E137" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F137" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G137" s="6">
         <v>3</v>
       </c>
@@ -23143,9 +22831,6 @@
       <c r="E138" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F138" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G138" s="6">
         <v>1</v>
       </c>
@@ -23178,9 +22863,6 @@
       <c r="E139" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F139" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G139" s="6">
         <v>3</v>
       </c>
@@ -23213,9 +22895,6 @@
       <c r="E140" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G140" s="6">
         <v>3</v>
       </c>
@@ -23248,9 +22927,6 @@
       <c r="E141" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F141" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G141" s="6">
         <v>1</v>
       </c>
@@ -23283,9 +22959,6 @@
       <c r="E142" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F142" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="G142" s="6">
         <v>1</v>
       </c>
@@ -23318,9 +22991,6 @@
       <c r="E143" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F143" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G143" s="6">
         <v>2</v>
       </c>
@@ -23353,9 +23023,6 @@
       <c r="E144" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="G144" s="6">
         <v>3</v>
       </c>
@@ -23388,9 +23055,6 @@
       <c r="E145" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F145" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="G145" s="6">
         <v>3</v>
       </c>
@@ -23423,9 +23087,6 @@
       <c r="E146" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F146" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G146" s="6">
         <v>2</v>
       </c>
@@ -23458,9 +23119,6 @@
       <c r="E147" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F147" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G147" s="6">
         <v>3</v>
       </c>
@@ -23493,9 +23151,6 @@
       <c r="E148" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F148" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G148" s="6">
         <v>3</v>
       </c>
@@ -23528,9 +23183,6 @@
       <c r="E149" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F149" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G149" s="6">
         <v>3</v>
       </c>
@@ -23563,9 +23215,6 @@
       <c r="E150" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F150" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G150" s="6">
         <v>2</v>
       </c>
@@ -23598,9 +23247,6 @@
       <c r="E151" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F151" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G151" s="6">
         <v>2</v>
       </c>
@@ -23633,9 +23279,6 @@
       <c r="E152" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F152" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G152" s="6">
         <v>2</v>
       </c>
@@ -23668,9 +23311,6 @@
       <c r="E153" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F153" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G153" s="6">
         <v>2</v>
       </c>
@@ -23703,9 +23343,6 @@
       <c r="E154" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F154" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="G154" s="6">
         <v>2</v>
       </c>
@@ -23738,9 +23375,6 @@
       <c r="E155" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F155" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G155" s="6">
         <v>1</v>
       </c>
@@ -23773,9 +23407,6 @@
       <c r="E156" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F156" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="G156" s="6">
         <v>1</v>
       </c>
@@ -23808,9 +23439,6 @@
       <c r="E157" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F157" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="G157" s="6">
         <v>5</v>
       </c>
@@ -23843,9 +23471,6 @@
       <c r="E158" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F158" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G158" s="6">
         <v>3</v>
       </c>
@@ -23881,9 +23506,6 @@
       <c r="E159" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F159" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G159" s="6">
         <v>1</v>
       </c>
@@ -23916,9 +23538,6 @@
       <c r="E160" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F160" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G160" s="6">
         <v>3</v>
       </c>
@@ -23951,9 +23570,6 @@
       <c r="E161" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F161" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G161" s="6">
         <v>2</v>
       </c>
@@ -23986,9 +23602,6 @@
       <c r="E162" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F162" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G162" s="6">
         <v>1</v>
       </c>
@@ -24021,9 +23634,6 @@
       <c r="E163" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F163" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G163" s="6">
         <v>1</v>
       </c>
@@ -24056,9 +23666,6 @@
       <c r="E164" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F164" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G164" s="6">
         <v>3</v>
       </c>
@@ -24091,9 +23698,6 @@
       <c r="E165" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F165" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G165" s="6">
         <v>3</v>
       </c>
@@ -24126,9 +23730,6 @@
       <c r="E166" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F166" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="G166" s="6">
         <v>3</v>
       </c>
@@ -24161,9 +23762,6 @@
       <c r="E167" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F167" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G167" s="6">
         <v>3</v>
       </c>
@@ -24196,9 +23794,6 @@
       <c r="E168" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F168" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="G168" s="6">
         <v>3</v>
       </c>
@@ -24231,9 +23826,6 @@
       <c r="E169" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F169" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="G169" s="6">
         <v>3</v>
       </c>
@@ -24266,9 +23858,6 @@
       <c r="E170" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F170" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G170" s="6">
         <v>3</v>
       </c>
@@ -24301,9 +23890,6 @@
       <c r="E171" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F171" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G171" s="6">
         <v>3</v>
       </c>
@@ -24336,9 +23922,6 @@
       <c r="E172" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F172" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G172" s="6">
         <v>3</v>
       </c>
@@ -24371,9 +23954,6 @@
       <c r="E173" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F173" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G173" s="6">
         <v>3</v>
       </c>
@@ -24406,9 +23986,6 @@
       <c r="E174" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F174" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G174" s="6">
         <v>2</v>
       </c>
@@ -24441,9 +24018,6 @@
       <c r="E175" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F175" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G175" s="6">
         <v>3</v>
       </c>
@@ -24476,9 +24050,6 @@
       <c r="E176" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F176" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G176" s="6">
         <v>3</v>
       </c>
@@ -24511,9 +24082,6 @@
       <c r="E177" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F177" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G177" s="6">
         <v>1</v>
       </c>
@@ -24546,9 +24114,6 @@
       <c r="E178" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F178" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="G178" s="6">
         <v>1</v>
       </c>
@@ -24581,9 +24146,6 @@
       <c r="E179" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F179" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G179" s="6">
         <v>1</v>
       </c>
@@ -24616,9 +24178,6 @@
       <c r="E180" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F180" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="G180" s="6">
         <v>3</v>
       </c>
@@ -24651,9 +24210,6 @@
       <c r="E181" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="G181" s="6">
         <v>3</v>
       </c>
@@ -24686,9 +24242,6 @@
       <c r="E182" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F182" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G182" s="6">
         <v>3</v>
       </c>
@@ -24721,9 +24274,6 @@
       <c r="E183" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F183" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G183" s="6">
         <v>3</v>
       </c>
@@ -24756,9 +24306,6 @@
       <c r="E184" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F184" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G184" s="6">
         <v>3</v>
       </c>
@@ -24791,9 +24338,6 @@
       <c r="E185" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F185" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G185" s="6">
         <v>3</v>
       </c>
@@ -24826,9 +24370,6 @@
       <c r="E186" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F186" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G186" s="6">
         <v>4</v>
       </c>
@@ -24861,9 +24402,6 @@
       <c r="E187" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F187" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G187" s="6">
         <v>2</v>
       </c>
@@ -24896,9 +24434,6 @@
       <c r="E188" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F188" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G188" s="6">
         <v>3</v>
       </c>
@@ -24931,9 +24466,6 @@
       <c r="E189" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F189" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G189" s="6">
         <v>3</v>
       </c>
@@ -24966,9 +24498,6 @@
       <c r="E190" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F190" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="G190" s="6">
         <v>3</v>
       </c>
@@ -25001,9 +24530,6 @@
       <c r="E191" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F191" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G191" s="6">
         <v>1</v>
       </c>
@@ -25036,9 +24562,6 @@
       <c r="E192" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F192" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="G192" s="6">
         <v>1</v>
       </c>
@@ -25071,9 +24594,6 @@
       <c r="E193" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F193" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="G193" s="6">
         <v>3</v>
       </c>
@@ -25109,9 +24629,6 @@
       <c r="E194" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F194" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G194" s="6">
         <v>3</v>
       </c>
@@ -25144,9 +24661,6 @@
       <c r="E195" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F195" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G195" s="6">
         <v>1</v>
       </c>
@@ -25179,9 +24693,6 @@
       <c r="E196" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F196" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G196" s="6">
         <v>3</v>
       </c>
@@ -25214,9 +24725,6 @@
       <c r="E197" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F197" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G197" s="6">
         <v>2</v>
       </c>
@@ -25249,9 +24757,6 @@
       <c r="E198" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F198" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G198" s="6">
         <v>1</v>
       </c>
@@ -25284,9 +24789,6 @@
       <c r="E199" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F199" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G199" s="6">
         <v>1</v>
       </c>
@@ -25319,9 +24821,6 @@
       <c r="E200" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F200" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G200" s="6">
         <v>3</v>
       </c>
@@ -25354,9 +24853,6 @@
       <c r="E201" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F201" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G201" s="6">
         <v>3</v>
       </c>
@@ -25389,9 +24885,6 @@
       <c r="E202" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F202" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="G202" s="6">
         <v>3</v>
       </c>
@@ -25424,9 +24917,6 @@
       <c r="E203" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F203" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G203" s="6">
         <v>3</v>
       </c>
@@ -25459,9 +24949,6 @@
       <c r="E204" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F204" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="G204" s="6">
         <v>3</v>
       </c>
@@ -25494,9 +24981,6 @@
       <c r="E205" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F205" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="G205" s="6">
         <v>3</v>
       </c>
@@ -25529,9 +25013,6 @@
       <c r="E206" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F206" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G206" s="6">
         <v>3</v>
       </c>
@@ -25564,9 +25045,6 @@
       <c r="E207" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F207" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G207" s="6">
         <v>3</v>
       </c>
@@ -25599,9 +25077,6 @@
       <c r="E208" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F208" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G208" s="6">
         <v>3</v>
       </c>
@@ -25634,9 +25109,6 @@
       <c r="E209" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F209" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G209" s="6">
         <v>3</v>
       </c>
@@ -25669,9 +25141,6 @@
       <c r="E210" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F210" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G210" s="6">
         <v>2</v>
       </c>
@@ -25704,9 +25173,6 @@
       <c r="E211" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F211" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G211" s="6">
         <v>3</v>
       </c>
@@ -25739,9 +25205,6 @@
       <c r="E212" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F212" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G212" s="6">
         <v>3</v>
       </c>
@@ -25774,9 +25237,6 @@
       <c r="E213" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F213" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G213" s="6">
         <v>1</v>
       </c>
@@ -25812,9 +25272,6 @@
       <c r="E214" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F214" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="G214" s="6">
         <v>2</v>
       </c>
@@ -25847,9 +25304,6 @@
       <c r="E215" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F215" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G215" s="6">
         <v>2</v>
       </c>
@@ -25882,9 +25336,6 @@
       <c r="E216" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F216" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="G216" s="6">
         <v>3</v>
       </c>
@@ -25917,9 +25368,6 @@
       <c r="E217" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F217" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="G217" s="6">
         <v>3</v>
       </c>
@@ -25952,9 +25400,6 @@
       <c r="E218" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F218" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G218" s="6">
         <v>2</v>
       </c>
@@ -25987,9 +25432,6 @@
       <c r="E219" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F219" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G219" s="6">
         <v>3</v>
       </c>
@@ -26022,9 +25464,6 @@
       <c r="E220" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F220" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G220" s="6">
         <v>3</v>
       </c>
@@ -26057,9 +25496,6 @@
       <c r="E221" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F221" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G221" s="6">
         <v>3</v>
       </c>
@@ -26092,9 +25528,6 @@
       <c r="E222" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F222" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G222" s="6">
         <v>5</v>
       </c>
@@ -26127,9 +25560,6 @@
       <c r="E223" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F223" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G223" s="6">
         <v>4</v>
       </c>
@@ -26162,9 +25592,6 @@
       <c r="E224" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F224" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G224" s="6">
         <v>3</v>
       </c>
@@ -26197,9 +25624,6 @@
       <c r="E225" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F225" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G225" s="6">
         <v>3</v>
       </c>
@@ -26232,9 +25656,6 @@
       <c r="E226" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F226" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="G226" s="6">
         <v>3</v>
       </c>
@@ -26267,9 +25688,6 @@
       <c r="E227" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F227" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G227" s="6">
         <v>1</v>
       </c>
@@ -26302,9 +25720,6 @@
       <c r="E228" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F228" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="G228" s="6">
         <v>1</v>
       </c>
@@ -26337,9 +25752,6 @@
       <c r="E229" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F229" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="G229" s="6">
         <v>3</v>
       </c>
@@ -26372,9 +25784,6 @@
       <c r="E230" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F230" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G230" s="6">
         <v>3</v>
       </c>
@@ -26407,9 +25816,6 @@
       <c r="E231" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F231" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G231" s="6">
         <v>1</v>
       </c>
@@ -26445,9 +25851,6 @@
       <c r="E232" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F232" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G232" s="6">
         <v>3</v>
       </c>
@@ -26480,9 +25883,6 @@
       <c r="E233" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F233" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G233" s="6">
         <v>2</v>
       </c>
@@ -26515,9 +25915,6 @@
       <c r="E234" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F234" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G234" s="6">
         <v>1</v>
       </c>
@@ -26550,9 +25947,6 @@
       <c r="E235" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F235" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G235" s="6">
         <v>1</v>
       </c>
@@ -26585,9 +25979,6 @@
       <c r="E236" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F236" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G236" s="6">
         <v>3</v>
       </c>
@@ -26620,9 +26011,6 @@
       <c r="E237" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F237" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G237" s="6">
         <v>3</v>
       </c>
@@ -26655,9 +26043,6 @@
       <c r="E238" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F238" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="G238" s="6">
         <v>3</v>
       </c>
@@ -26690,9 +26075,6 @@
       <c r="E239" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F239" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G239" s="6">
         <v>3</v>
       </c>
@@ -26725,9 +26107,6 @@
       <c r="E240" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F240" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="G240" s="6">
         <v>3</v>
       </c>
@@ -26760,9 +26139,6 @@
       <c r="E241" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F241" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="G241" s="6">
         <v>3</v>
       </c>
@@ -26795,9 +26171,6 @@
       <c r="E242" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F242" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="G242" s="6">
         <v>3</v>
       </c>
@@ -26830,9 +26203,6 @@
       <c r="E243" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F243" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="G243" s="6">
         <v>3</v>
       </c>
@@ -26865,9 +26235,6 @@
       <c r="E244" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F244" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="G244" s="6">
         <v>3</v>
       </c>
@@ -26900,9 +26267,6 @@
       <c r="E245" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F245" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="G245" s="6">
         <v>3</v>
       </c>
@@ -26935,9 +26299,6 @@
       <c r="E246" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F246" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="G246" s="6">
         <v>1</v>
       </c>
@@ -26970,9 +26331,6 @@
       <c r="E247" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F247" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="G247" s="6">
         <v>3</v>
       </c>
@@ -27005,9 +26363,6 @@
       <c r="E248" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F248" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="G248" s="6">
         <v>3</v>
       </c>
@@ -27040,9 +26395,6 @@
       <c r="E249" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F249" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="G249" s="6">
         <v>1</v>
       </c>
@@ -27073,9 +26425,6 @@
         <v>15</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F250" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G250" s="6">

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="14"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7740" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7773" uniqueCount="1146">
   <si>
     <t>SVN</t>
   </si>
@@ -3567,6 +3567,102 @@
   </si>
   <si>
     <t>#kanban-status-id</t>
+  </si>
+  <si>
+    <t>UI get stuck for few seconds post setting application</t>
+  </si>
+  <si>
+    <t>Exception while navigating back to the teams page after adding new team member.</t>
+  </si>
+  <si>
+    <t>Task ballon icons  stay open when moving task to completed</t>
+  </si>
+  <si>
+    <t>the "Today" label is hidden by the date label</t>
+  </si>
+  <si>
+    <t>Comments in Code</t>
+  </si>
+  <si>
+    <t>Full screen: when restoring screen, buttons become disabled</t>
+  </si>
+  <si>
+    <t>Remove Items from API only removes administrators</t>
+  </si>
+  <si>
+    <t>Bypass business logic (No input validation in server side)</t>
+  </si>
+  <si>
+    <t>Description fields can contain HTML tags - Phishing</t>
+  </si>
+  <si>
+    <t>export fails when detected by field is empty</t>
+  </si>
+  <si>
+    <t>copy &amp; paste numbered list from mail to description editor doesn't display the numbering</t>
+  </si>
+  <si>
+    <t>User cannot scroll down after changing columns visability.</t>
+  </si>
+  <si>
+    <t>Grid filter shows all features</t>
+  </si>
+  <si>
+    <t>Tooltip display cut while all statuses display.</t>
+  </si>
+  <si>
+    <t>No data pattern as on other pages</t>
+  </si>
+  <si>
+    <t>Hudson Git plugin does not support CGit URI format</t>
+  </si>
+  <si>
+    <t>When selecting planning on multiple items - not all attributes are presented</t>
+  </si>
+  <si>
+    <t>Implementation of Hardcoded Encryption Key</t>
+  </si>
+  <si>
+    <t>Flawed Implementation of AES Encryption</t>
+  </si>
+  <si>
+    <t>Wrong tooltip on Full Screen button</t>
+  </si>
+  <si>
+    <t>Permissions - admin can't delete an item</t>
+  </si>
+  <si>
+    <t>Dialog remain open while navigating to story details (Click on ID).</t>
+  </si>
+  <si>
+    <t>Main menu (filter) has different style of tooltip</t>
+  </si>
+  <si>
+    <t>From Cutomer Community - on Filter header operator is not working</t>
+  </si>
+  <si>
+    <t>typo in validation succeded message</t>
+  </si>
+  <si>
+    <t>Context menu available also in between the items.</t>
+  </si>
+  <si>
+    <t>De Facto Denial of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fixed and closed legend are displayed with the same color</t>
+  </si>
+  <si>
+    <t>(IE10) Some of the reports in dashboard cannot be displayed in IE10</t>
+  </si>
+  <si>
+    <t>grid is not regreshed after changing status of item to done</t>
+  </si>
+  <si>
+    <t>When changing attributes, all its children should be changed as well</t>
+  </si>
+  <si>
+    <t>When selecting a favorite by double click, the relevant filter is not displayed in sidebar</t>
   </si>
 </sst>
 </file>
@@ -19022,7 +19118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F250"/>
     </sheetView>
   </sheetViews>
@@ -27482,15 +27578,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N746"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="32" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" style="32" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="32" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="32" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="32" customWidth="1"/>
@@ -27498,7 +27594,7 @@
     <col min="8" max="8" width="11.5703125" style="32" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="32"/>
     <col min="10" max="10" width="11.42578125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="32" customWidth="1"/>
+    <col min="11" max="11" width="18" style="32" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="32" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" style="32" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="32"/>
@@ -27580,13 +27676,13 @@
         <v>806</v>
       </c>
       <c r="K2" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="32">
         <v>5</v>
       </c>
       <c r="M2" s="32">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -27606,13 +27702,13 @@
         <v>806</v>
       </c>
       <c r="K3" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="32">
         <v>3</v>
       </c>
       <c r="M3" s="32">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -27632,13 +27728,13 @@
         <v>806</v>
       </c>
       <c r="K4" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="32">
         <v>4</v>
       </c>
       <c r="M4" s="32">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -27658,13 +27754,13 @@
         <v>806</v>
       </c>
       <c r="K5" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="32">
         <v>3</v>
       </c>
       <c r="M5" s="32">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -27710,13 +27806,13 @@
         <v>806</v>
       </c>
       <c r="K7" s="32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="32">
         <v>2</v>
       </c>
       <c r="M7" s="32">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -27736,13 +27832,13 @@
         <v>806</v>
       </c>
       <c r="K8" s="32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="32">
         <v>1</v>
       </c>
       <c r="M8" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -27762,13 +27858,13 @@
         <v>806</v>
       </c>
       <c r="K9" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" s="32">
         <v>2</v>
       </c>
       <c r="M9" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -27788,7 +27884,7 @@
         <v>806</v>
       </c>
       <c r="K10" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" s="32">
         <v>3</v>
@@ -27814,13 +27910,13 @@
         <v>806</v>
       </c>
       <c r="K11" s="32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="32">
         <v>2</v>
       </c>
       <c r="M11" s="32">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -27840,13 +27936,13 @@
         <v>806</v>
       </c>
       <c r="K12" s="32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" s="32">
         <v>5</v>
       </c>
       <c r="M12" s="32">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -27866,13 +27962,13 @@
         <v>418</v>
       </c>
       <c r="K13" s="32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" s="32">
         <v>4</v>
       </c>
       <c r="M13" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -27892,13 +27988,13 @@
         <v>418</v>
       </c>
       <c r="K14" s="32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14" s="32">
         <v>5</v>
       </c>
       <c r="M14" s="32">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -27918,13 +28014,13 @@
         <v>418</v>
       </c>
       <c r="K15" s="32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L15" s="32">
         <v>3</v>
       </c>
       <c r="M15" s="32">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -27944,13 +28040,13 @@
         <v>418</v>
       </c>
       <c r="K16" s="32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L16" s="32">
         <v>4</v>
       </c>
       <c r="M16" s="32">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -27970,13 +28066,13 @@
         <v>418</v>
       </c>
       <c r="K17" s="32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L17" s="32">
         <v>3</v>
       </c>
       <c r="M17" s="32">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -27996,13 +28092,13 @@
         <v>418</v>
       </c>
       <c r="K18" s="32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L18" s="32">
         <v>1</v>
       </c>
       <c r="M18" s="32">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -28022,7 +28118,7 @@
         <v>418</v>
       </c>
       <c r="K19" s="32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L19" s="32">
         <v>2</v>
@@ -28048,13 +28144,13 @@
         <v>418</v>
       </c>
       <c r="K20" s="32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L20" s="32">
         <v>1</v>
       </c>
       <c r="M20" s="32">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -28074,13 +28170,13 @@
         <v>418</v>
       </c>
       <c r="K21" s="32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L21" s="32">
         <v>2</v>
       </c>
       <c r="M21" s="32">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -28100,13 +28196,13 @@
         <v>418</v>
       </c>
       <c r="K22" s="32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L22" s="32">
         <v>3</v>
       </c>
       <c r="M22" s="32">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -28126,13 +28222,13 @@
         <v>418</v>
       </c>
       <c r="K23" s="32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L23" s="32">
         <v>2</v>
       </c>
       <c r="M23" s="32">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -28152,13 +28248,13 @@
         <v>418</v>
       </c>
       <c r="K24" s="32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L24" s="32">
         <v>5</v>
       </c>
       <c r="M24" s="32">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -28178,13 +28274,13 @@
         <v>417</v>
       </c>
       <c r="K25" s="32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L25" s="32">
         <v>4</v>
       </c>
       <c r="M25" s="32">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -28204,13 +28300,13 @@
         <v>417</v>
       </c>
       <c r="K26" s="32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L26" s="32">
         <v>4</v>
       </c>
       <c r="M26" s="32">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -28230,13 +28326,13 @@
         <v>417</v>
       </c>
       <c r="K27" s="32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L27" s="32">
         <v>3</v>
       </c>
       <c r="M27" s="32">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -28256,13 +28352,13 @@
         <v>417</v>
       </c>
       <c r="K28" s="32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L28" s="32">
         <v>2</v>
       </c>
       <c r="M28" s="32">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -28282,13 +28378,13 @@
         <v>417</v>
       </c>
       <c r="K29" s="32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L29" s="32">
         <v>1</v>
       </c>
       <c r="M29" s="32">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -28308,13 +28404,13 @@
         <v>417</v>
       </c>
       <c r="K30" s="32">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L30" s="32">
         <v>2</v>
       </c>
       <c r="M30" s="32">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -28334,13 +28430,13 @@
         <v>417</v>
       </c>
       <c r="K31" s="32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L31" s="32">
         <v>3</v>
       </c>
       <c r="M31" s="32">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -28360,13 +28456,13 @@
         <v>417</v>
       </c>
       <c r="K32" s="32">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L32" s="32">
         <v>4</v>
       </c>
       <c r="M32" s="32">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -28386,13 +28482,13 @@
         <v>417</v>
       </c>
       <c r="K33" s="32">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L33" s="32">
         <v>3</v>
       </c>
       <c r="M33" s="32">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -28412,13 +28508,13 @@
         <v>417</v>
       </c>
       <c r="K34" s="32">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L34" s="32">
         <v>2</v>
       </c>
       <c r="M34" s="32">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -28438,13 +28534,13 @@
         <v>417</v>
       </c>
       <c r="K35" s="32">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L35" s="32">
         <v>4</v>
       </c>
       <c r="M35" s="32">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -28464,13 +28560,13 @@
         <v>417</v>
       </c>
       <c r="K36" s="32">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L36" s="32">
         <v>3</v>
       </c>
       <c r="M36" s="32">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -28490,13 +28586,13 @@
         <v>417</v>
       </c>
       <c r="K37" s="32">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L37" s="32">
         <v>2</v>
       </c>
       <c r="M37" s="32">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -28516,13 +28612,13 @@
         <v>417</v>
       </c>
       <c r="K38" s="32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L38" s="32">
         <v>1</v>
       </c>
       <c r="M38" s="32">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -28542,13 +28638,13 @@
         <v>415</v>
       </c>
       <c r="K39" s="32">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L39" s="32">
         <v>1</v>
       </c>
       <c r="M39" s="32">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -28568,13 +28664,13 @@
         <v>415</v>
       </c>
       <c r="K40" s="32">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L40" s="32">
         <v>3</v>
       </c>
       <c r="M40" s="32">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -28594,13 +28690,13 @@
         <v>415</v>
       </c>
       <c r="K41" s="32">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L41" s="32">
         <v>1</v>
       </c>
       <c r="M41" s="32">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -28620,13 +28716,13 @@
         <v>415</v>
       </c>
       <c r="K42" s="32">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L42" s="32">
         <v>3</v>
       </c>
       <c r="M42" s="32">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -28646,13 +28742,13 @@
         <v>415</v>
       </c>
       <c r="K43" s="32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L43" s="32">
         <v>4</v>
       </c>
       <c r="M43" s="32">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -28672,13 +28768,13 @@
         <v>415</v>
       </c>
       <c r="K44" s="32">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L44" s="32">
         <v>4</v>
       </c>
       <c r="M44" s="32">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -28698,13 +28794,13 @@
         <v>415</v>
       </c>
       <c r="K45" s="32">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L45" s="32">
         <v>4</v>
       </c>
       <c r="M45" s="32">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -28724,13 +28820,13 @@
         <v>415</v>
       </c>
       <c r="K46" s="32">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L46" s="32">
         <v>5</v>
       </c>
       <c r="M46" s="32">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -28750,13 +28846,13 @@
         <v>415</v>
       </c>
       <c r="K47" s="32">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L47" s="32">
         <v>4</v>
       </c>
       <c r="M47" s="32">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -28776,13 +28872,13 @@
         <v>415</v>
       </c>
       <c r="K48" s="32">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L48" s="32">
         <v>3</v>
       </c>
       <c r="M48" s="32">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -28802,13 +28898,13 @@
         <v>415</v>
       </c>
       <c r="K49" s="32">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L49" s="32">
         <v>2</v>
       </c>
       <c r="M49" s="32">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -28828,13 +28924,13 @@
         <v>540</v>
       </c>
       <c r="K50" s="32">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L50" s="32">
         <v>4</v>
       </c>
       <c r="M50" s="32">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -28854,13 +28950,13 @@
         <v>540</v>
       </c>
       <c r="K51" s="32">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L51" s="32">
         <v>4</v>
       </c>
       <c r="M51" s="32">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -28880,13 +28976,13 @@
         <v>540</v>
       </c>
       <c r="K52" s="32">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L52" s="32">
         <v>5</v>
       </c>
       <c r="M52" s="32">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -28906,13 +29002,13 @@
         <v>540</v>
       </c>
       <c r="K53" s="32">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L53" s="32">
         <v>4</v>
       </c>
       <c r="M53" s="32">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -28932,13 +29028,13 @@
         <v>540</v>
       </c>
       <c r="K54" s="32">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L54" s="32">
         <v>4</v>
       </c>
       <c r="M54" s="32">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -28958,13 +29054,13 @@
         <v>540</v>
       </c>
       <c r="K55" s="32">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L55" s="32">
         <v>3</v>
       </c>
       <c r="M55" s="32">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -28984,7 +29080,7 @@
         <v>540</v>
       </c>
       <c r="K56" s="32">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L56" s="32">
         <v>2</v>
@@ -29010,13 +29106,13 @@
         <v>540</v>
       </c>
       <c r="K57" s="32">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L57" s="32">
         <v>2</v>
       </c>
       <c r="M57" s="32">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -29036,13 +29132,13 @@
         <v>540</v>
       </c>
       <c r="K58" s="32">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L58" s="32">
         <v>2</v>
       </c>
       <c r="M58" s="32">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -29062,13 +29158,13 @@
         <v>540</v>
       </c>
       <c r="K59" s="32">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L59" s="32">
         <v>1</v>
       </c>
       <c r="M59" s="32">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -29078,6 +29174,9 @@
       <c r="B60" s="12" t="s">
         <v>438</v>
       </c>
+      <c r="C60" s="32" t="s">
+        <v>1114</v>
+      </c>
       <c r="E60" s="32" t="s">
         <v>790</v>
       </c>
@@ -29088,13 +29187,13 @@
         <v>540</v>
       </c>
       <c r="K60" s="32">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L60" s="32">
         <v>1</v>
       </c>
       <c r="M60" s="32">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -29104,6 +29203,9 @@
       <c r="B61" s="12" t="s">
         <v>439</v>
       </c>
+      <c r="C61" s="32" t="s">
+        <v>1115</v>
+      </c>
       <c r="E61" s="32" t="s">
         <v>791</v>
       </c>
@@ -29114,13 +29216,13 @@
         <v>807</v>
       </c>
       <c r="K61" s="32">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="L61" s="32">
         <v>1</v>
       </c>
       <c r="M61" s="32">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -29130,6 +29232,9 @@
       <c r="B62" s="12" t="s">
         <v>474</v>
       </c>
+      <c r="C62" s="32" t="s">
+        <v>1116</v>
+      </c>
       <c r="E62" s="32" t="s">
         <v>789</v>
       </c>
@@ -29140,13 +29245,13 @@
         <v>807</v>
       </c>
       <c r="K62" s="32">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L62" s="32">
         <v>2</v>
       </c>
       <c r="M62" s="32">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -29156,6 +29261,9 @@
       <c r="B63" s="12" t="s">
         <v>440</v>
       </c>
+      <c r="C63" s="32" t="s">
+        <v>1117</v>
+      </c>
       <c r="E63" s="32" t="s">
         <v>790</v>
       </c>
@@ -29166,13 +29274,13 @@
         <v>807</v>
       </c>
       <c r="K63" s="32">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="L63" s="32">
         <v>3</v>
       </c>
       <c r="M63" s="32">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -29182,6 +29290,9 @@
       <c r="B64" s="12" t="s">
         <v>475</v>
       </c>
+      <c r="C64" s="32" t="s">
+        <v>1118</v>
+      </c>
       <c r="E64" s="32" t="s">
         <v>791</v>
       </c>
@@ -29192,13 +29303,13 @@
         <v>807</v>
       </c>
       <c r="K64" s="32">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L64" s="32">
         <v>4</v>
       </c>
       <c r="M64" s="32">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -29208,6 +29319,9 @@
       <c r="B65" s="12" t="s">
         <v>514</v>
       </c>
+      <c r="C65" s="32" t="s">
+        <v>1119</v>
+      </c>
       <c r="E65" s="32" t="s">
         <v>789</v>
       </c>
@@ -29218,13 +29332,13 @@
         <v>807</v>
       </c>
       <c r="K65" s="32">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L65" s="32">
         <v>2</v>
       </c>
       <c r="M65" s="32">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -29234,6 +29348,9 @@
       <c r="B66" s="12" t="s">
         <v>515</v>
       </c>
+      <c r="C66" s="32" t="s">
+        <v>1120</v>
+      </c>
       <c r="E66" s="32" t="s">
         <v>790</v>
       </c>
@@ -29244,13 +29361,13 @@
         <v>807</v>
       </c>
       <c r="K66" s="32">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L66" s="32">
         <v>3</v>
       </c>
       <c r="M66" s="32">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -29260,6 +29377,9 @@
       <c r="B67" s="12" t="s">
         <v>516</v>
       </c>
+      <c r="C67" s="32" t="s">
+        <v>1121</v>
+      </c>
       <c r="E67" s="32" t="s">
         <v>791</v>
       </c>
@@ -29270,13 +29390,13 @@
         <v>807</v>
       </c>
       <c r="K67" s="32">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L67" s="32">
         <v>4</v>
       </c>
       <c r="M67" s="32">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -29286,6 +29406,9 @@
       <c r="B68" s="12" t="s">
         <v>441</v>
       </c>
+      <c r="C68" s="32" t="s">
+        <v>1122</v>
+      </c>
       <c r="E68" s="32" t="s">
         <v>789</v>
       </c>
@@ -29296,13 +29419,13 @@
         <v>807</v>
       </c>
       <c r="K68" s="32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L68" s="32">
         <v>5</v>
       </c>
       <c r="M68" s="32">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -29312,6 +29435,9 @@
       <c r="B69" s="12" t="s">
         <v>442</v>
       </c>
+      <c r="C69" s="32" t="s">
+        <v>1123</v>
+      </c>
       <c r="E69" s="32" t="s">
         <v>790</v>
       </c>
@@ -29322,7 +29448,7 @@
         <v>807</v>
       </c>
       <c r="K69" s="32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L69" s="32">
         <v>3</v>
@@ -29338,6 +29464,9 @@
       <c r="B70" s="12" t="s">
         <v>476</v>
       </c>
+      <c r="C70" s="32" t="s">
+        <v>1124</v>
+      </c>
       <c r="E70" s="32" t="s">
         <v>791</v>
       </c>
@@ -29348,13 +29477,13 @@
         <v>807</v>
       </c>
       <c r="K70" s="32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L70" s="32">
         <v>2</v>
       </c>
       <c r="M70" s="32">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -29377,13 +29506,13 @@
         <v>807</v>
       </c>
       <c r="K71" s="32">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="L71" s="32">
         <v>2</v>
       </c>
       <c r="M71" s="32">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -29406,13 +29535,13 @@
         <v>808</v>
       </c>
       <c r="K72" s="32">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L72" s="32">
         <v>4</v>
       </c>
-      <c r="M72" s="32" t="s">
-        <v>15</v>
+      <c r="M72" s="32">
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -29435,10 +29564,13 @@
         <v>808</v>
       </c>
       <c r="K73" s="32">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L73" s="32">
         <v>3</v>
+      </c>
+      <c r="M73" s="32">
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -29461,10 +29593,13 @@
         <v>808</v>
       </c>
       <c r="K74" s="32">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L74" s="32">
         <v>2</v>
+      </c>
+      <c r="M74" s="32">
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -29487,10 +29622,13 @@
         <v>808</v>
       </c>
       <c r="K75" s="32">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L75" s="32">
         <v>1</v>
+      </c>
+      <c r="M75" s="32">
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -29513,10 +29651,13 @@
         <v>808</v>
       </c>
       <c r="K76" s="32">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L76" s="32">
         <v>2</v>
+      </c>
+      <c r="M76" s="32">
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -29539,10 +29680,13 @@
         <v>808</v>
       </c>
       <c r="K77" s="32">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="L77" s="32">
         <v>2</v>
+      </c>
+      <c r="M77" s="32">
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -29565,10 +29709,13 @@
         <v>808</v>
       </c>
       <c r="K78" s="32">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="L78" s="32">
         <v>4</v>
+      </c>
+      <c r="M78" s="32">
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -29591,10 +29738,13 @@
         <v>808</v>
       </c>
       <c r="K79" s="32">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="L79" s="32">
         <v>4</v>
+      </c>
+      <c r="M79" s="32">
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -29617,10 +29767,13 @@
         <v>808</v>
       </c>
       <c r="K80" s="32">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="L80" s="32">
         <v>4</v>
+      </c>
+      <c r="M80" s="32">
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -29643,10 +29796,13 @@
         <v>808</v>
       </c>
       <c r="K81" s="32">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L81" s="32">
         <v>3</v>
+      </c>
+      <c r="M81" s="32">
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -29669,10 +29825,13 @@
         <v>808</v>
       </c>
       <c r="K82" s="32">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L82" s="32">
         <v>5</v>
+      </c>
+      <c r="M82" s="32">
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -29695,10 +29854,13 @@
         <v>808</v>
       </c>
       <c r="K83" s="32">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L83" s="32">
         <v>4</v>
+      </c>
+      <c r="M83" s="32">
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -29721,10 +29883,13 @@
         <v>808</v>
       </c>
       <c r="K84" s="32">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L84" s="32">
         <v>3</v>
+      </c>
+      <c r="M84" s="32">
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -29747,10 +29912,13 @@
         <v>808</v>
       </c>
       <c r="K85" s="32">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L85" s="32">
         <v>2</v>
+      </c>
+      <c r="M85" s="32" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -29773,7 +29941,7 @@
         <v>808</v>
       </c>
       <c r="K86" s="32">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L86" s="32">
         <v>2</v>
@@ -29799,7 +29967,7 @@
         <v>808</v>
       </c>
       <c r="K87" s="32">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L87" s="32">
         <v>0</v>
@@ -29825,7 +29993,7 @@
         <v>808</v>
       </c>
       <c r="K88" s="32">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L88" s="32">
         <v>1</v>
@@ -29851,7 +30019,7 @@
         <v>808</v>
       </c>
       <c r="K89" s="32">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L89" s="32">
         <v>3</v>
@@ -29962,7 +30130,7 @@
         <v>3</v>
       </c>
       <c r="M95" s="32">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -29982,13 +30150,13 @@
         <v>806</v>
       </c>
       <c r="K96" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="32">
         <v>5</v>
       </c>
       <c r="M96" s="32">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -30008,13 +30176,13 @@
         <v>806</v>
       </c>
       <c r="K97" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L97" s="32">
         <v>3</v>
       </c>
       <c r="M97" s="32">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -30034,13 +30202,13 @@
         <v>806</v>
       </c>
       <c r="K98" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L98" s="32">
         <v>4</v>
       </c>
       <c r="M98" s="32">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -30060,13 +30228,13 @@
         <v>806</v>
       </c>
       <c r="K99" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L99" s="32">
         <v>3</v>
       </c>
       <c r="M99" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -30086,13 +30254,13 @@
         <v>806</v>
       </c>
       <c r="K100" s="32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L100" s="32">
         <v>2</v>
       </c>
       <c r="M100" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -30112,13 +30280,13 @@
         <v>806</v>
       </c>
       <c r="K101" s="32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L101" s="32">
         <v>4</v>
       </c>
       <c r="M101" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -30144,7 +30312,7 @@
         <v>15</v>
       </c>
       <c r="M102" s="32">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -30164,13 +30332,13 @@
         <v>806</v>
       </c>
       <c r="K103" s="32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L103" s="32">
         <v>5</v>
       </c>
       <c r="M103" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -30190,13 +30358,13 @@
         <v>806</v>
       </c>
       <c r="K104" s="32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L104" s="32">
         <v>3</v>
       </c>
       <c r="M104" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -30216,13 +30384,13 @@
         <v>806</v>
       </c>
       <c r="K105" s="32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L105" s="32">
         <v>2</v>
       </c>
       <c r="M105" s="32">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -30242,7 +30410,7 @@
         <v>806</v>
       </c>
       <c r="K106" s="32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L106" s="32">
         <v>1</v>
@@ -30268,13 +30436,13 @@
         <v>806</v>
       </c>
       <c r="K107" s="32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L107" s="32">
         <v>4</v>
       </c>
       <c r="M107" s="32">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -30300,7 +30468,7 @@
         <v>15</v>
       </c>
       <c r="M108" s="32">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -30320,13 +30488,13 @@
         <v>806</v>
       </c>
       <c r="K109" s="32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L109" s="32">
         <v>3</v>
       </c>
       <c r="M109" s="32">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -30346,13 +30514,13 @@
         <v>806</v>
       </c>
       <c r="K110" s="32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L110" s="32">
         <v>3</v>
       </c>
       <c r="M110" s="32">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -30372,13 +30540,13 @@
         <v>806</v>
       </c>
       <c r="K111" s="32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L111" s="32">
         <v>4</v>
       </c>
       <c r="M111" s="32">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -30424,13 +30592,13 @@
         <v>806</v>
       </c>
       <c r="K113" s="32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L113" s="32">
         <v>3</v>
       </c>
       <c r="M113" s="32">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -30450,13 +30618,13 @@
         <v>418</v>
       </c>
       <c r="K114" s="32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L114" s="32">
         <v>3</v>
       </c>
       <c r="M114" s="32">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -30476,13 +30644,13 @@
         <v>418</v>
       </c>
       <c r="K115" s="32">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L115" s="32">
         <v>5</v>
       </c>
       <c r="M115" s="32">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -30502,13 +30670,13 @@
         <v>418</v>
       </c>
       <c r="K116" s="32">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L116" s="32">
         <v>3</v>
       </c>
       <c r="M116" s="32">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -30528,13 +30696,13 @@
         <v>418</v>
       </c>
       <c r="K117" s="32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L117" s="32">
         <v>4</v>
       </c>
       <c r="M117" s="32">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -30554,13 +30722,13 @@
         <v>418</v>
       </c>
       <c r="K118" s="32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L118" s="32">
         <v>3</v>
       </c>
       <c r="M118" s="32">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -30580,13 +30748,13 @@
         <v>418</v>
       </c>
       <c r="K119" s="32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L119" s="32">
         <v>2</v>
       </c>
       <c r="M119" s="32">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -30606,13 +30774,13 @@
         <v>418</v>
       </c>
       <c r="K120" s="32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L120" s="32">
         <v>4</v>
       </c>
       <c r="M120" s="32">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -30632,13 +30800,13 @@
         <v>418</v>
       </c>
       <c r="K121" s="32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L121" s="32">
         <v>5</v>
       </c>
       <c r="M121" s="32">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -30658,13 +30826,13 @@
         <v>418</v>
       </c>
       <c r="K122" s="32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L122" s="32">
         <v>5</v>
       </c>
       <c r="M122" s="32">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -30684,13 +30852,13 @@
         <v>418</v>
       </c>
       <c r="K123" s="32">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L123" s="32">
         <v>3</v>
       </c>
       <c r="M123" s="32">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -30710,13 +30878,13 @@
         <v>418</v>
       </c>
       <c r="K124" s="32">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L124" s="32">
         <v>2</v>
       </c>
       <c r="M124" s="32">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -30742,7 +30910,7 @@
         <v>1</v>
       </c>
       <c r="M125" s="32">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -30762,13 +30930,13 @@
         <v>418</v>
       </c>
       <c r="K126" s="32">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L126" s="32">
         <v>4</v>
       </c>
       <c r="M126" s="32">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -30788,7 +30956,7 @@
         <v>418</v>
       </c>
       <c r="K127" s="32">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L127" s="32">
         <v>5</v>
@@ -30814,13 +30982,13 @@
         <v>418</v>
       </c>
       <c r="K128" s="32">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L128" s="32">
         <v>3</v>
       </c>
       <c r="M128" s="32">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -30840,13 +31008,13 @@
         <v>418</v>
       </c>
       <c r="K129" s="32">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L129" s="32">
         <v>3</v>
       </c>
       <c r="M129" s="32">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -30866,13 +31034,13 @@
         <v>418</v>
       </c>
       <c r="K130" s="32">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L130" s="32">
         <v>4</v>
       </c>
       <c r="M130" s="32">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -30892,13 +31060,13 @@
         <v>417</v>
       </c>
       <c r="K131" s="32">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L131" s="32">
         <v>5</v>
       </c>
       <c r="M131" s="32">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -30918,13 +31086,13 @@
         <v>417</v>
       </c>
       <c r="K132" s="32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L132" s="32">
         <v>3</v>
       </c>
       <c r="M132" s="32">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -30944,13 +31112,13 @@
         <v>417</v>
       </c>
       <c r="K133" s="32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L133" s="32">
         <v>2</v>
       </c>
       <c r="M133" s="32">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -30970,13 +31138,13 @@
         <v>417</v>
       </c>
       <c r="K134" s="32">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L134" s="32">
         <v>3</v>
       </c>
       <c r="M134" s="32">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -30996,13 +31164,13 @@
         <v>417</v>
       </c>
       <c r="K135" s="32">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L135" s="32">
         <v>2</v>
       </c>
       <c r="M135" s="32">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -31022,13 +31190,13 @@
         <v>417</v>
       </c>
       <c r="K136" s="32">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L136" s="32">
         <v>3</v>
       </c>
       <c r="M136" s="32">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -31048,13 +31216,13 @@
         <v>417</v>
       </c>
       <c r="K137" s="32">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L137" s="32">
         <v>2</v>
       </c>
       <c r="M137" s="32">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -31074,13 +31242,13 @@
         <v>417</v>
       </c>
       <c r="K138" s="32">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L138" s="32">
         <v>3</v>
       </c>
       <c r="M138" s="32">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -31100,13 +31268,13 @@
         <v>417</v>
       </c>
       <c r="K139" s="32">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L139" s="32">
         <v>3</v>
       </c>
       <c r="M139" s="32">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -31126,13 +31294,13 @@
         <v>417</v>
       </c>
       <c r="K140" s="32">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L140" s="32">
         <v>3</v>
       </c>
       <c r="M140" s="32">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -31152,13 +31320,13 @@
         <v>417</v>
       </c>
       <c r="K141" s="32">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L141" s="32">
         <v>2</v>
       </c>
       <c r="M141" s="32">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -31178,7 +31346,7 @@
         <v>417</v>
       </c>
       <c r="K142" s="32">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L142" s="32">
         <v>1</v>
@@ -31204,13 +31372,13 @@
         <v>417</v>
       </c>
       <c r="K143" s="32">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L143" s="32">
         <v>1</v>
       </c>
       <c r="M143" s="32">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -31230,13 +31398,13 @@
         <v>417</v>
       </c>
       <c r="K144" s="32">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L144" s="32">
         <v>1</v>
       </c>
       <c r="M144" s="32">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -31256,13 +31424,13 @@
         <v>417</v>
       </c>
       <c r="K145" s="32">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L145" s="32">
         <v>3</v>
       </c>
       <c r="M145" s="32">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -31282,13 +31450,13 @@
         <v>417</v>
       </c>
       <c r="K146" s="32">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L146" s="32">
         <v>3</v>
       </c>
       <c r="M146" s="32">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -31308,13 +31476,13 @@
         <v>417</v>
       </c>
       <c r="K147" s="32">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L147" s="32">
         <v>4</v>
       </c>
       <c r="M147" s="32">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -31334,13 +31502,13 @@
         <v>417</v>
       </c>
       <c r="K148" s="32">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L148" s="32">
         <v>5</v>
       </c>
       <c r="M148" s="32">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -31360,13 +31528,13 @@
         <v>415</v>
       </c>
       <c r="K149" s="32">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L149" s="32">
         <v>5</v>
       </c>
       <c r="M149" s="32">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -31386,13 +31554,13 @@
         <v>415</v>
       </c>
       <c r="K150" s="32">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L150" s="32">
         <v>5</v>
       </c>
       <c r="M150" s="32">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -31412,13 +31580,13 @@
         <v>415</v>
       </c>
       <c r="K151" s="32">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L151" s="32">
         <v>4</v>
       </c>
       <c r="M151" s="32">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -31438,13 +31606,13 @@
         <v>415</v>
       </c>
       <c r="K152" s="32">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L152" s="32">
         <v>3</v>
       </c>
       <c r="M152" s="32">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -31464,13 +31632,13 @@
         <v>415</v>
       </c>
       <c r="K153" s="32">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L153" s="32">
         <v>2</v>
       </c>
       <c r="M153" s="32">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -31490,13 +31658,13 @@
         <v>415</v>
       </c>
       <c r="K154" s="32">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L154" s="32">
         <v>3</v>
       </c>
       <c r="M154" s="32">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -31516,13 +31684,13 @@
         <v>415</v>
       </c>
       <c r="K155" s="32">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L155" s="32">
         <v>4</v>
       </c>
       <c r="M155" s="32">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -31542,13 +31710,13 @@
         <v>415</v>
       </c>
       <c r="K156" s="32">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L156" s="32">
         <v>5</v>
       </c>
       <c r="M156" s="32">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -31568,13 +31736,13 @@
         <v>415</v>
       </c>
       <c r="K157" s="32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L157" s="32">
         <v>2</v>
       </c>
       <c r="M157" s="32">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -31594,13 +31762,13 @@
         <v>415</v>
       </c>
       <c r="K158" s="32">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L158" s="32">
         <v>2</v>
       </c>
       <c r="M158" s="32">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -31620,7 +31788,7 @@
         <v>415</v>
       </c>
       <c r="K159" s="32">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L159" s="32">
         <v>1</v>
@@ -31646,7 +31814,7 @@
         <v>415</v>
       </c>
       <c r="K160" s="32">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L160" s="32">
         <v>1</v>
@@ -31672,7 +31840,7 @@
         <v>415</v>
       </c>
       <c r="K161" s="32">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L161" s="32">
         <v>5</v>
@@ -31698,13 +31866,13 @@
         <v>415</v>
       </c>
       <c r="K162" s="32">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L162" s="32">
         <v>5</v>
       </c>
       <c r="M162" s="32">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -31724,13 +31892,13 @@
         <v>415</v>
       </c>
       <c r="K163" s="32">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L163" s="32">
         <v>4</v>
       </c>
       <c r="M163" s="32">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -31750,7 +31918,7 @@
         <v>415</v>
       </c>
       <c r="K164" s="32">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L164" s="32">
         <v>3</v>
@@ -31776,13 +31944,13 @@
         <v>415</v>
       </c>
       <c r="K165" s="32">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L165" s="32">
         <v>5</v>
       </c>
       <c r="M165" s="32">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -31802,13 +31970,13 @@
         <v>540</v>
       </c>
       <c r="K166" s="32">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L166" s="32">
         <v>4</v>
       </c>
       <c r="M166" s="32">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -31828,7 +31996,7 @@
         <v>540</v>
       </c>
       <c r="K167" s="32">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L167" s="32">
         <v>5</v>
@@ -31860,7 +32028,7 @@
         <v>5</v>
       </c>
       <c r="M168" s="32">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -31886,7 +32054,7 @@
         <v>2</v>
       </c>
       <c r="M169" s="32">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -31912,7 +32080,7 @@
         <v>2</v>
       </c>
       <c r="M170" s="32">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -31938,7 +32106,7 @@
         <v>3</v>
       </c>
       <c r="M171" s="32">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -31958,13 +32126,13 @@
         <v>540</v>
       </c>
       <c r="K172" s="32">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L172" s="32">
         <v>3</v>
       </c>
       <c r="M172" s="32">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -31984,13 +32152,13 @@
         <v>540</v>
       </c>
       <c r="K173" s="32">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L173" s="32">
         <v>2</v>
       </c>
       <c r="M173" s="32">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -32010,13 +32178,13 @@
         <v>540</v>
       </c>
       <c r="K174" s="32">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L174" s="32">
         <v>2</v>
       </c>
       <c r="M174" s="32">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -32062,7 +32230,7 @@
         <v>540</v>
       </c>
       <c r="K176" s="32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L176" s="32">
         <v>1</v>
@@ -32088,7 +32256,7 @@
         <v>540</v>
       </c>
       <c r="K177" s="32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L177" s="32">
         <v>2</v>
@@ -32114,7 +32282,7 @@
         <v>540</v>
       </c>
       <c r="K178" s="32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L178" s="32">
         <v>3</v>
@@ -32140,7 +32308,7 @@
         <v>540</v>
       </c>
       <c r="K179" s="32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L179" s="32">
         <v>2</v>
@@ -32166,7 +32334,7 @@
         <v>540</v>
       </c>
       <c r="K180" s="32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L180" s="32">
         <v>1</v>
@@ -32192,13 +32360,13 @@
         <v>540</v>
       </c>
       <c r="K181" s="32">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L181" s="32">
         <v>2</v>
       </c>
       <c r="M181" s="32">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -32218,13 +32386,13 @@
         <v>540</v>
       </c>
       <c r="K182" s="32">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L182" s="32">
         <v>4</v>
       </c>
       <c r="M182" s="32">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -32244,13 +32412,13 @@
         <v>540</v>
       </c>
       <c r="K183" s="32">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L183" s="32">
         <v>3</v>
       </c>
       <c r="M183" s="32">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -32270,13 +32438,13 @@
         <v>540</v>
       </c>
       <c r="K184" s="32">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L184" s="32">
         <v>1</v>
       </c>
       <c r="M184" s="32">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -32296,13 +32464,13 @@
         <v>540</v>
       </c>
       <c r="K185" s="32">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L185" s="32">
         <v>2</v>
       </c>
       <c r="M185" s="32">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -32348,13 +32516,13 @@
         <v>807</v>
       </c>
       <c r="K187" s="32">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L187" s="32">
         <v>4</v>
       </c>
       <c r="M187" s="32">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -32374,13 +32542,13 @@
         <v>807</v>
       </c>
       <c r="K188" s="32">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L188" s="32">
         <v>4</v>
       </c>
       <c r="M188" s="32">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -32400,13 +32568,13 @@
         <v>807</v>
       </c>
       <c r="K189" s="32">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L189" s="32">
         <v>3</v>
       </c>
       <c r="M189" s="32">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -32426,13 +32594,13 @@
         <v>807</v>
       </c>
       <c r="K190" s="32">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L190" s="32">
         <v>2</v>
       </c>
       <c r="M190" s="32">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -32452,13 +32620,13 @@
         <v>807</v>
       </c>
       <c r="K191" s="32">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L191" s="32">
         <v>3</v>
       </c>
       <c r="M191" s="32">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -32478,13 +32646,13 @@
         <v>807</v>
       </c>
       <c r="K192" s="32">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L192" s="32">
         <v>3</v>
       </c>
       <c r="M192" s="32">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -32504,13 +32672,13 @@
         <v>807</v>
       </c>
       <c r="K193" s="32">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L193" s="32">
         <v>4</v>
       </c>
       <c r="M193" s="32">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -32530,13 +32698,13 @@
         <v>807</v>
       </c>
       <c r="K194" s="32">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L194" s="32">
         <v>4</v>
       </c>
       <c r="M194" s="32">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -32556,7 +32724,7 @@
         <v>807</v>
       </c>
       <c r="K195" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L195" s="32">
         <v>3</v>
@@ -32582,7 +32750,7 @@
         <v>807</v>
       </c>
       <c r="K196" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L196" s="32">
         <v>3</v>
@@ -32608,13 +32776,13 @@
         <v>807</v>
       </c>
       <c r="K197" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L197" s="32">
         <v>3</v>
       </c>
       <c r="M197" s="32">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -32634,13 +32802,13 @@
         <v>807</v>
       </c>
       <c r="K198" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L198" s="32">
         <v>4</v>
       </c>
       <c r="M198" s="32">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -32660,13 +32828,13 @@
         <v>807</v>
       </c>
       <c r="K199" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L199" s="32">
         <v>2</v>
       </c>
       <c r="M199" s="32">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -32686,13 +32854,13 @@
         <v>807</v>
       </c>
       <c r="K200" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L200" s="32">
         <v>5</v>
       </c>
       <c r="M200" s="32">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -32712,13 +32880,13 @@
         <v>807</v>
       </c>
       <c r="K201" s="32">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L201" s="32">
         <v>4</v>
       </c>
       <c r="M201" s="32">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -32738,13 +32906,13 @@
         <v>807</v>
       </c>
       <c r="K202" s="32">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L202" s="32">
         <v>3</v>
       </c>
       <c r="M202" s="32">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -32764,13 +32932,13 @@
         <v>807</v>
       </c>
       <c r="K203" s="32">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L203" s="32">
         <v>3</v>
       </c>
       <c r="M203" s="32">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -32790,7 +32958,7 @@
         <v>807</v>
       </c>
       <c r="K204" s="32">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L204" s="32">
         <v>4</v>
@@ -32821,6 +32989,9 @@
       <c r="L205" s="32">
         <v>5</v>
       </c>
+      <c r="M205" s="32">
+        <v>87</v>
+      </c>
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="32">
@@ -32844,6 +33015,9 @@
       <c r="L206" s="32">
         <v>2</v>
       </c>
+      <c r="M206" s="32">
+        <v>87</v>
+      </c>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="32">
@@ -32862,10 +33036,13 @@
         <v>808</v>
       </c>
       <c r="K207" s="32">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L207" s="32">
         <v>4</v>
+      </c>
+      <c r="M207" s="32">
+        <v>87</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -32885,13 +33062,16 @@
         <v>808</v>
       </c>
       <c r="K208" s="32">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L208" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:12">
+      <c r="M208" s="32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="32">
         <v>235</v>
       </c>
@@ -32908,13 +33088,16 @@
         <v>808</v>
       </c>
       <c r="K209" s="32">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L209" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="M209" s="32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="32">
         <v>236</v>
       </c>
@@ -32931,13 +33114,16 @@
         <v>808</v>
       </c>
       <c r="K210" s="32">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L210" s="32">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:12">
+      <c r="M210" s="32">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="32">
         <v>237</v>
       </c>
@@ -32954,13 +33140,16 @@
         <v>808</v>
       </c>
       <c r="K211" s="32">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L211" s="32">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="M211" s="32">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="32">
         <v>238</v>
       </c>
@@ -32977,13 +33166,16 @@
         <v>808</v>
       </c>
       <c r="K212" s="32">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L212" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:12">
+      <c r="M212" s="32">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="32">
         <v>239</v>
       </c>
@@ -33000,13 +33192,16 @@
         <v>808</v>
       </c>
       <c r="K213" s="32">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L213" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:12">
+      <c r="M213" s="32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" s="32">
         <v>240</v>
       </c>
@@ -33023,13 +33218,16 @@
         <v>808</v>
       </c>
       <c r="K214" s="32">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L214" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:12">
+      <c r="M214" s="32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" s="32">
         <v>241</v>
       </c>
@@ -33046,13 +33244,16 @@
         <v>808</v>
       </c>
       <c r="K215" s="32">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L215" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:12">
+      <c r="M215" s="32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" s="32">
         <v>242</v>
       </c>
@@ -33069,13 +33270,16 @@
         <v>808</v>
       </c>
       <c r="K216" s="32">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L216" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:12">
+      <c r="M216" s="32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="32">
         <v>243</v>
       </c>
@@ -33092,13 +33296,16 @@
         <v>808</v>
       </c>
       <c r="K217" s="32">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L217" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:12">
+      <c r="M217" s="32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="32">
         <v>244</v>
       </c>
@@ -33115,13 +33322,16 @@
         <v>808</v>
       </c>
       <c r="K218" s="32">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L218" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:12">
+      <c r="M218" s="32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" s="32">
         <v>245</v>
       </c>
@@ -33138,13 +33348,16 @@
         <v>808</v>
       </c>
       <c r="K219" s="32">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L219" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:12">
+      <c r="M219" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="32">
         <v>246</v>
       </c>
@@ -33161,13 +33374,13 @@
         <v>808</v>
       </c>
       <c r="K220" s="32">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L220" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:13">
       <c r="A221" s="32">
         <v>247</v>
       </c>
@@ -33184,13 +33397,13 @@
         <v>808</v>
       </c>
       <c r="K221" s="32">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L221" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:13">
       <c r="A222" s="32">
         <v>248</v>
       </c>
@@ -33207,13 +33420,13 @@
         <v>808</v>
       </c>
       <c r="K222" s="32">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L222" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:13">
       <c r="A223" s="32">
         <v>249</v>
       </c>
@@ -33236,7 +33449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:13">
       <c r="A224" s="32">
         <v>250</v>
       </c>
@@ -33318,7 +33531,7 @@
         <v>3</v>
       </c>
       <c r="M228" s="32">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -33370,7 +33583,7 @@
         <v>15</v>
       </c>
       <c r="M230" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -33390,13 +33603,13 @@
         <v>806</v>
       </c>
       <c r="K231" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L231" s="32">
         <v>3</v>
       </c>
       <c r="M231" s="32">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -33416,13 +33629,13 @@
         <v>806</v>
       </c>
       <c r="K232" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L232" s="32">
         <v>2</v>
       </c>
       <c r="M232" s="32">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -33442,13 +33655,13 @@
         <v>806</v>
       </c>
       <c r="K233" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L233" s="32">
         <v>4</v>
       </c>
       <c r="M233" s="32">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -33474,7 +33687,7 @@
         <v>15</v>
       </c>
       <c r="M234" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -33494,13 +33707,13 @@
         <v>806</v>
       </c>
       <c r="K235" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L235" s="32">
         <v>4</v>
       </c>
       <c r="M235" s="32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -33520,13 +33733,13 @@
         <v>806</v>
       </c>
       <c r="K236" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L236" s="32">
         <v>5</v>
       </c>
       <c r="M236" s="32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -33546,13 +33759,13 @@
         <v>806</v>
       </c>
       <c r="K237" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L237" s="32">
         <v>5</v>
       </c>
       <c r="M237" s="32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -33572,13 +33785,13 @@
         <v>806</v>
       </c>
       <c r="K238" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L238" s="32">
         <v>4</v>
       </c>
       <c r="M238" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -33604,7 +33817,7 @@
         <v>15</v>
       </c>
       <c r="M239" s="32">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -33630,7 +33843,7 @@
         <v>3</v>
       </c>
       <c r="M240" s="32">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -33656,7 +33869,7 @@
         <v>3</v>
       </c>
       <c r="M241" s="32">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -33682,7 +33895,7 @@
         <v>2</v>
       </c>
       <c r="M242" s="32">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -33702,13 +33915,13 @@
         <v>418</v>
       </c>
       <c r="K243" s="32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L243" s="32">
         <v>1</v>
       </c>
       <c r="M243" s="32">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -33728,13 +33941,13 @@
         <v>418</v>
       </c>
       <c r="K244" s="32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L244" s="32">
         <v>3</v>
       </c>
       <c r="M244" s="32">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -33754,13 +33967,13 @@
         <v>418</v>
       </c>
       <c r="K245" s="32">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L245" s="32">
         <v>2</v>
       </c>
       <c r="M245" s="32">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -33780,13 +33993,13 @@
         <v>418</v>
       </c>
       <c r="K246" s="32">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L246" s="32">
         <v>4</v>
       </c>
       <c r="M246" s="32">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -33806,13 +34019,13 @@
         <v>418</v>
       </c>
       <c r="K247" s="32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L247" s="32">
         <v>4</v>
       </c>
       <c r="M247" s="32">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -33832,13 +34045,13 @@
         <v>418</v>
       </c>
       <c r="K248" s="32">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L248" s="32">
         <v>4</v>
       </c>
       <c r="M248" s="32">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -33858,7 +34071,7 @@
         <v>418</v>
       </c>
       <c r="K249" s="32">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L249" s="32">
         <v>5</v>
@@ -33884,13 +34097,13 @@
         <v>418</v>
       </c>
       <c r="K250" s="32">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L250" s="32">
         <v>5</v>
       </c>
       <c r="M250" s="32">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -33910,13 +34123,13 @@
         <v>417</v>
       </c>
       <c r="K251" s="32">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L251" s="32">
         <v>4</v>
       </c>
       <c r="M251" s="32">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -33942,7 +34155,7 @@
         <v>5</v>
       </c>
       <c r="M252" s="32">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -33962,13 +34175,13 @@
         <v>417</v>
       </c>
       <c r="K253" s="32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L253" s="32">
         <v>5</v>
       </c>
       <c r="M253" s="32">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -33988,13 +34201,13 @@
         <v>417</v>
       </c>
       <c r="K254" s="32">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L254" s="32">
         <v>4</v>
       </c>
       <c r="M254" s="32">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -34014,13 +34227,13 @@
         <v>417</v>
       </c>
       <c r="K255" s="32">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L255" s="32">
         <v>3</v>
       </c>
       <c r="M255" s="32">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -34040,13 +34253,13 @@
         <v>417</v>
       </c>
       <c r="K256" s="32">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L256" s="32">
         <v>2</v>
       </c>
       <c r="M256" s="32">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -34066,13 +34279,13 @@
         <v>417</v>
       </c>
       <c r="K257" s="32">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L257" s="32">
         <v>4</v>
       </c>
       <c r="M257" s="32">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -34092,7 +34305,7 @@
         <v>417</v>
       </c>
       <c r="K258" s="32">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L258" s="32">
         <v>3</v>
@@ -34118,7 +34331,7 @@
         <v>417</v>
       </c>
       <c r="K259" s="32">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L259" s="32">
         <v>2</v>
@@ -34144,7 +34357,7 @@
         <v>417</v>
       </c>
       <c r="K260" s="32">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L260" s="32">
         <v>2</v>
@@ -34170,7 +34383,7 @@
         <v>417</v>
       </c>
       <c r="K261" s="32">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L261" s="32">
         <v>3</v>
@@ -34196,7 +34409,7 @@
         <v>417</v>
       </c>
       <c r="K262" s="32">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L262" s="32">
         <v>4</v>
@@ -34222,7 +34435,7 @@
         <v>417</v>
       </c>
       <c r="K263" s="32">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L263" s="32">
         <v>4</v>
@@ -34248,13 +34461,13 @@
         <v>417</v>
       </c>
       <c r="K264" s="32">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L264" s="32">
         <v>3</v>
       </c>
       <c r="M264" s="32">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -34280,7 +34493,7 @@
         <v>3</v>
       </c>
       <c r="M265" s="32">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -34306,7 +34519,7 @@
         <v>2</v>
       </c>
       <c r="M266" s="32">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -34332,7 +34545,7 @@
         <v>4</v>
       </c>
       <c r="M267" s="32">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -34352,13 +34565,13 @@
         <v>415</v>
       </c>
       <c r="K268" s="32">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L268" s="32">
         <v>5</v>
       </c>
       <c r="M268" s="32">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -34378,7 +34591,7 @@
         <v>415</v>
       </c>
       <c r="K269" s="32">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L269" s="32">
         <v>4</v>
@@ -34404,7 +34617,7 @@
         <v>415</v>
       </c>
       <c r="K270" s="32">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L270" s="32">
         <v>2</v>
@@ -34430,13 +34643,13 @@
         <v>415</v>
       </c>
       <c r="K271" s="32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L271" s="32">
         <v>2</v>
       </c>
       <c r="M271" s="32">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -34456,13 +34669,13 @@
         <v>415</v>
       </c>
       <c r="K272" s="32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L272" s="32">
         <v>3</v>
       </c>
       <c r="M272" s="32">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -34482,13 +34695,13 @@
         <v>415</v>
       </c>
       <c r="K273" s="32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L273" s="32">
         <v>4</v>
       </c>
       <c r="M273" s="32">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -34508,13 +34721,13 @@
         <v>415</v>
       </c>
       <c r="K274" s="32">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L274" s="32">
         <v>5</v>
       </c>
       <c r="M274" s="32">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -34534,13 +34747,13 @@
         <v>415</v>
       </c>
       <c r="K275" s="32">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L275" s="32">
         <v>4</v>
       </c>
       <c r="M275" s="32">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -34566,7 +34779,7 @@
         <v>1</v>
       </c>
       <c r="M276" s="32">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -34592,7 +34805,7 @@
         <v>2</v>
       </c>
       <c r="M277" s="32">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -34612,7 +34825,7 @@
         <v>540</v>
       </c>
       <c r="K278" s="32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L278" s="32">
         <v>1</v>
@@ -34638,7 +34851,7 @@
         <v>540</v>
       </c>
       <c r="K279" s="32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L279" s="32">
         <v>2</v>
@@ -34664,13 +34877,13 @@
         <v>540</v>
       </c>
       <c r="K280" s="32">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L280" s="32">
         <v>4</v>
       </c>
       <c r="M280" s="32">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -34690,13 +34903,13 @@
         <v>540</v>
       </c>
       <c r="K281" s="32">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L281" s="32">
         <v>4</v>
       </c>
       <c r="M281" s="32">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -34716,13 +34929,13 @@
         <v>540</v>
       </c>
       <c r="K282" s="32">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L282" s="32">
         <v>5</v>
       </c>
       <c r="M282" s="32">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -34742,13 +34955,13 @@
         <v>540</v>
       </c>
       <c r="K283" s="32">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L283" s="32">
         <v>1</v>
       </c>
       <c r="M283" s="32">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -34768,13 +34981,13 @@
         <v>540</v>
       </c>
       <c r="K284" s="32">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L284" s="32">
         <v>2</v>
       </c>
       <c r="M284" s="32">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -34794,13 +35007,13 @@
         <v>540</v>
       </c>
       <c r="K285" s="32">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L285" s="32">
         <v>2</v>
       </c>
       <c r="M285" s="32">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -34820,13 +35033,13 @@
         <v>540</v>
       </c>
       <c r="K286" s="32">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L286" s="32">
         <v>4</v>
       </c>
       <c r="M286" s="32">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -34836,6 +35049,9 @@
       <c r="B287" s="12" t="s">
         <v>439</v>
       </c>
+      <c r="C287" s="32" t="s">
+        <v>1125</v>
+      </c>
       <c r="E287" s="32" t="s">
         <v>791</v>
       </c>
@@ -34852,7 +35068,7 @@
         <v>3</v>
       </c>
       <c r="M287" s="32">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -34862,6 +35078,9 @@
       <c r="B288" s="12" t="s">
         <v>474</v>
       </c>
+      <c r="C288" s="32" t="s">
+        <v>1126</v>
+      </c>
       <c r="E288" s="32" t="s">
         <v>789</v>
       </c>
@@ -34878,7 +35097,7 @@
         <v>4</v>
       </c>
       <c r="M288" s="32">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -34888,6 +35107,9 @@
       <c r="B289" s="12" t="s">
         <v>440</v>
       </c>
+      <c r="C289" s="32" t="s">
+        <v>1127</v>
+      </c>
       <c r="E289" s="32" t="s">
         <v>790</v>
       </c>
@@ -34914,6 +35136,9 @@
       <c r="B290" s="12" t="s">
         <v>475</v>
       </c>
+      <c r="C290" s="32" t="s">
+        <v>1128</v>
+      </c>
       <c r="E290" s="32" t="s">
         <v>791</v>
       </c>
@@ -34924,13 +35149,13 @@
         <v>807</v>
       </c>
       <c r="K290" s="32">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L290" s="32">
         <v>4</v>
       </c>
       <c r="M290" s="32">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -34940,6 +35165,9 @@
       <c r="B291" s="12" t="s">
         <v>514</v>
       </c>
+      <c r="C291" s="32" t="s">
+        <v>1129</v>
+      </c>
       <c r="E291" s="32" t="s">
         <v>789</v>
       </c>
@@ -34950,7 +35178,7 @@
         <v>807</v>
       </c>
       <c r="K291" s="32">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L291" s="32">
         <v>3</v>
@@ -34966,6 +35194,9 @@
       <c r="B292" s="12" t="s">
         <v>515</v>
       </c>
+      <c r="C292" s="32" t="s">
+        <v>1130</v>
+      </c>
       <c r="E292" s="32" t="s">
         <v>790</v>
       </c>
@@ -34976,7 +35207,7 @@
         <v>807</v>
       </c>
       <c r="K292" s="32">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L292" s="32">
         <v>3</v>
@@ -34992,6 +35223,9 @@
       <c r="B293" s="12" t="s">
         <v>516</v>
       </c>
+      <c r="C293" s="32" t="s">
+        <v>1131</v>
+      </c>
       <c r="E293" s="32" t="s">
         <v>791</v>
       </c>
@@ -35002,7 +35236,7 @@
         <v>807</v>
       </c>
       <c r="K293" s="32">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L293" s="32">
         <v>1</v>
@@ -35018,6 +35252,9 @@
       <c r="B294" s="12" t="s">
         <v>441</v>
       </c>
+      <c r="C294" s="32" t="s">
+        <v>1132</v>
+      </c>
       <c r="E294" s="32" t="s">
         <v>789</v>
       </c>
@@ -35028,13 +35265,13 @@
         <v>807</v>
       </c>
       <c r="K294" s="32">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L294" s="32">
         <v>3</v>
       </c>
       <c r="M294" s="32">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -35044,6 +35281,9 @@
       <c r="B295" s="12" t="s">
         <v>442</v>
       </c>
+      <c r="C295" s="32" t="s">
+        <v>1133</v>
+      </c>
       <c r="E295" s="32" t="s">
         <v>790</v>
       </c>
@@ -35054,13 +35294,13 @@
         <v>807</v>
       </c>
       <c r="K295" s="32">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L295" s="32">
         <v>2</v>
       </c>
       <c r="M295" s="32">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -35070,6 +35310,9 @@
       <c r="B296" s="12" t="s">
         <v>476</v>
       </c>
+      <c r="C296" s="32" t="s">
+        <v>1134</v>
+      </c>
       <c r="E296" s="32" t="s">
         <v>791</v>
       </c>
@@ -35080,13 +35323,13 @@
         <v>807</v>
       </c>
       <c r="K296" s="32">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L296" s="32">
         <v>3</v>
       </c>
       <c r="M296" s="32">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -35096,6 +35339,9 @@
       <c r="B297" s="12" t="s">
         <v>443</v>
       </c>
+      <c r="C297" s="32" t="s">
+        <v>1135</v>
+      </c>
       <c r="E297" s="32" t="s">
         <v>789</v>
       </c>
@@ -35106,13 +35352,13 @@
         <v>807</v>
       </c>
       <c r="K297" s="32">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L297" s="32">
         <v>3</v>
       </c>
       <c r="M297" s="32">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -35164,7 +35410,7 @@
         <v>808</v>
       </c>
       <c r="K299" s="32">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L299" s="32">
         <v>3</v>
@@ -35190,7 +35436,7 @@
         <v>808</v>
       </c>
       <c r="K300" s="32">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L300" s="32">
         <v>4</v>
@@ -35216,7 +35462,7 @@
         <v>808</v>
       </c>
       <c r="K301" s="32">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L301" s="32">
         <v>5</v>
@@ -35242,7 +35488,7 @@
         <v>808</v>
       </c>
       <c r="K302" s="32">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L302" s="32">
         <v>5</v>
@@ -35372,7 +35618,7 @@
         <v>808</v>
       </c>
       <c r="K307" s="32">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L307" s="32">
         <v>3</v>
@@ -35398,7 +35644,7 @@
         <v>808</v>
       </c>
       <c r="K308" s="32">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L308" s="32">
         <v>2</v>
@@ -35424,7 +35670,7 @@
         <v>808</v>
       </c>
       <c r="K309" s="32">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L309" s="32">
         <v>2</v>
@@ -35450,7 +35696,7 @@
         <v>808</v>
       </c>
       <c r="K310" s="32">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L310" s="32">
         <v>3</v>
@@ -35476,7 +35722,7 @@
         <v>808</v>
       </c>
       <c r="K311" s="32">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L311" s="32">
         <v>3</v>
@@ -35502,7 +35748,7 @@
         <v>808</v>
       </c>
       <c r="K312" s="32">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L312" s="32">
         <v>4</v>
@@ -35528,7 +35774,7 @@
         <v>808</v>
       </c>
       <c r="K313" s="32">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L313" s="32">
         <v>5</v>
@@ -35554,7 +35800,7 @@
         <v>808</v>
       </c>
       <c r="K314" s="32">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L314" s="32">
         <v>3</v>
@@ -35580,7 +35826,7 @@
         <v>808</v>
       </c>
       <c r="K315" s="32">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L315" s="32">
         <v>2</v>
@@ -35606,13 +35852,13 @@
         <v>806</v>
       </c>
       <c r="K316" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L316" s="32">
         <v>4</v>
       </c>
       <c r="M316" s="32">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -35632,7 +35878,7 @@
         <v>806</v>
       </c>
       <c r="K317" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L317" s="32">
         <v>2</v>
@@ -35658,13 +35904,13 @@
         <v>806</v>
       </c>
       <c r="K318" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L318" s="32">
         <v>3</v>
       </c>
       <c r="M318" s="32">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:13">
@@ -35690,7 +35936,7 @@
         <v>2</v>
       </c>
       <c r="M319" s="32">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:13">
@@ -35716,7 +35962,7 @@
         <v>1</v>
       </c>
       <c r="M320" s="32">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:13">
@@ -35742,7 +35988,7 @@
         <v>3</v>
       </c>
       <c r="M321" s="32">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:13">
@@ -35762,13 +36008,13 @@
         <v>806</v>
       </c>
       <c r="K322" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L322" s="32">
         <v>4</v>
       </c>
       <c r="M322" s="32">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323" spans="1:13">
@@ -35788,7 +36034,7 @@
         <v>806</v>
       </c>
       <c r="K323" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L323" s="32">
         <v>5</v>
@@ -35820,7 +36066,7 @@
         <v>15</v>
       </c>
       <c r="M324" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -35840,13 +36086,13 @@
         <v>806</v>
       </c>
       <c r="K325" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L325" s="32">
         <v>3</v>
       </c>
       <c r="M325" s="32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:13">
@@ -35866,13 +36112,13 @@
         <v>806</v>
       </c>
       <c r="K326" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L326" s="32">
         <v>3</v>
       </c>
       <c r="M326" s="32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:13">
@@ -35892,7 +36138,7 @@
         <v>806</v>
       </c>
       <c r="K327" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L327" s="32">
         <v>2</v>
@@ -35918,13 +36164,13 @@
         <v>806</v>
       </c>
       <c r="K328" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L328" s="32">
         <v>3</v>
       </c>
       <c r="M328" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:13">
@@ -35950,7 +36196,7 @@
         <v>15</v>
       </c>
       <c r="M329" s="32">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:13">
@@ -35970,13 +36216,13 @@
         <v>806</v>
       </c>
       <c r="K330" s="32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L330" s="32">
         <v>3</v>
       </c>
       <c r="M330" s="32">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:13">
@@ -35996,13 +36242,13 @@
         <v>806</v>
       </c>
       <c r="K331" s="32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L331" s="32">
         <v>5</v>
       </c>
       <c r="M331" s="32">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" spans="1:13">
@@ -36022,13 +36268,13 @@
         <v>806</v>
       </c>
       <c r="K332" s="32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L332" s="32">
         <v>4</v>
       </c>
       <c r="M332" s="32">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -36048,13 +36294,13 @@
         <v>806</v>
       </c>
       <c r="K333" s="32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L333" s="32">
         <v>2</v>
       </c>
       <c r="M333" s="32">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -36074,13 +36320,13 @@
         <v>806</v>
       </c>
       <c r="K334" s="32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L334" s="32">
         <v>3</v>
       </c>
       <c r="M334" s="32">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="335" spans="1:13">
@@ -36100,13 +36346,13 @@
         <v>418</v>
       </c>
       <c r="K335" s="32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L335" s="32">
         <v>3</v>
       </c>
       <c r="M335" s="32">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -36126,7 +36372,7 @@
         <v>418</v>
       </c>
       <c r="K336" s="32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L336" s="32">
         <v>4</v>
@@ -36158,7 +36404,7 @@
         <v>2</v>
       </c>
       <c r="M337" s="32">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -36184,7 +36430,7 @@
         <v>3</v>
       </c>
       <c r="M338" s="32">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="339" spans="1:13">
@@ -36204,13 +36450,13 @@
         <v>418</v>
       </c>
       <c r="K339" s="32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L339" s="32">
         <v>2</v>
       </c>
       <c r="M339" s="32">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="340" spans="1:13">
@@ -36230,13 +36476,13 @@
         <v>418</v>
       </c>
       <c r="K340" s="32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L340" s="32">
         <v>1</v>
       </c>
       <c r="M340" s="32">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -36256,13 +36502,13 @@
         <v>418</v>
       </c>
       <c r="K341" s="32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L341" s="32">
         <v>3</v>
       </c>
       <c r="M341" s="32">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="342" spans="1:13">
@@ -36282,13 +36528,13 @@
         <v>418</v>
       </c>
       <c r="K342" s="32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L342" s="32">
         <v>4</v>
       </c>
       <c r="M342" s="32">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="343" spans="1:13">
@@ -36308,13 +36554,13 @@
         <v>418</v>
       </c>
       <c r="K343" s="32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L343" s="32">
         <v>5</v>
       </c>
       <c r="M343" s="32">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="344" spans="1:13">
@@ -36334,13 +36580,13 @@
         <v>418</v>
       </c>
       <c r="K344" s="32">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L344" s="32">
         <v>3</v>
       </c>
       <c r="M344" s="32">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="345" spans="1:13">
@@ -36360,13 +36606,13 @@
         <v>418</v>
       </c>
       <c r="K345" s="32">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L345" s="32">
         <v>3</v>
       </c>
       <c r="M345" s="32">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="346" spans="1:13">
@@ -36386,13 +36632,13 @@
         <v>418</v>
       </c>
       <c r="K346" s="32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L346" s="32">
         <v>3</v>
       </c>
       <c r="M346" s="32">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="347" spans="1:13">
@@ -36412,13 +36658,13 @@
         <v>418</v>
       </c>
       <c r="K347" s="32">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L347" s="32">
         <v>2</v>
       </c>
       <c r="M347" s="32">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="348" spans="1:13">
@@ -36438,13 +36684,13 @@
         <v>418</v>
       </c>
       <c r="K348" s="32">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L348" s="32">
         <v>3</v>
       </c>
       <c r="M348" s="32">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="349" spans="1:13">
@@ -36464,13 +36710,13 @@
         <v>418</v>
       </c>
       <c r="K349" s="32">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L349" s="32">
         <v>4</v>
       </c>
       <c r="M349" s="32">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="350" spans="1:13">
@@ -36490,13 +36736,13 @@
         <v>418</v>
       </c>
       <c r="K350" s="32">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L350" s="32">
         <v>3</v>
       </c>
       <c r="M350" s="32">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="351" spans="1:13">
@@ -36516,13 +36762,13 @@
         <v>418</v>
       </c>
       <c r="K351" s="32">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L351" s="32">
         <v>5</v>
       </c>
       <c r="M351" s="32">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="352" spans="1:13">
@@ -36568,13 +36814,13 @@
         <v>417</v>
       </c>
       <c r="K353" s="32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L353" s="32">
         <v>3</v>
       </c>
       <c r="M353" s="32">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="354" spans="1:13">
@@ -36594,13 +36840,13 @@
         <v>417</v>
       </c>
       <c r="K354" s="32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L354" s="32">
         <v>4</v>
       </c>
       <c r="M354" s="32">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="355" spans="1:13">
@@ -36620,13 +36866,13 @@
         <v>417</v>
       </c>
       <c r="K355" s="32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L355" s="32">
         <v>4</v>
       </c>
       <c r="M355" s="32">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="356" spans="1:13">
@@ -36652,7 +36898,7 @@
         <v>4</v>
       </c>
       <c r="M356" s="32">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="357" spans="1:13">
@@ -36678,7 +36924,7 @@
         <v>2</v>
       </c>
       <c r="M357" s="32">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="358" spans="1:13">
@@ -36704,7 +36950,7 @@
         <v>3</v>
       </c>
       <c r="M358" s="32">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="359" spans="1:13">
@@ -36730,7 +36976,7 @@
         <v>2</v>
       </c>
       <c r="M359" s="32">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="360" spans="1:13">
@@ -36750,13 +36996,13 @@
         <v>417</v>
       </c>
       <c r="K360" s="32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L360" s="32">
         <v>2</v>
       </c>
       <c r="M360" s="32">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="361" spans="1:13">
@@ -36776,13 +37022,13 @@
         <v>417</v>
       </c>
       <c r="K361" s="32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L361" s="32">
         <v>3</v>
       </c>
       <c r="M361" s="32">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="362" spans="1:13">
@@ -36802,13 +37048,13 @@
         <v>417</v>
       </c>
       <c r="K362" s="32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L362" s="32">
         <v>1</v>
       </c>
       <c r="M362" s="32">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="363" spans="1:13">
@@ -36828,13 +37074,13 @@
         <v>417</v>
       </c>
       <c r="K363" s="32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L363" s="32">
         <v>1</v>
       </c>
       <c r="M363" s="32">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="364" spans="1:13">
@@ -36854,13 +37100,13 @@
         <v>417</v>
       </c>
       <c r="K364" s="32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L364" s="32">
         <v>3</v>
       </c>
       <c r="M364" s="32">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="365" spans="1:13">
@@ -36880,13 +37126,13 @@
         <v>417</v>
       </c>
       <c r="K365" s="32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L365" s="32">
         <v>1</v>
       </c>
       <c r="M365" s="32">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="366" spans="1:13">
@@ -36906,13 +37152,13 @@
         <v>417</v>
       </c>
       <c r="K366" s="32">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L366" s="32">
         <v>1</v>
       </c>
       <c r="M366" s="32">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="367" spans="1:13">
@@ -36932,13 +37178,13 @@
         <v>417</v>
       </c>
       <c r="K367" s="32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L367" s="32">
         <v>2</v>
       </c>
       <c r="M367" s="32">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="368" spans="1:13">
@@ -36958,13 +37204,13 @@
         <v>417</v>
       </c>
       <c r="K368" s="32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L368" s="32">
         <v>4</v>
       </c>
       <c r="M368" s="32">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="369" spans="1:13">
@@ -36990,7 +37236,7 @@
         <v>4</v>
       </c>
       <c r="M369" s="32">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="370" spans="1:13">
@@ -37010,13 +37256,13 @@
         <v>415</v>
       </c>
       <c r="K370" s="32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L370" s="32">
         <v>3</v>
       </c>
       <c r="M370" s="32">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="371" spans="1:13">
@@ -37036,13 +37282,13 @@
         <v>415</v>
       </c>
       <c r="K371" s="32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L371" s="32">
         <v>2</v>
       </c>
       <c r="M371" s="32">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="372" spans="1:13">
@@ -37062,13 +37308,13 @@
         <v>415</v>
       </c>
       <c r="K372" s="32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L372" s="32">
         <v>3</v>
       </c>
       <c r="M372" s="32">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="373" spans="1:13">
@@ -37088,13 +37334,13 @@
         <v>415</v>
       </c>
       <c r="K373" s="32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L373" s="32">
         <v>4</v>
       </c>
       <c r="M373" s="32">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="374" spans="1:13">
@@ -37120,7 +37366,7 @@
         <v>5</v>
       </c>
       <c r="M374" s="32">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="375" spans="1:13">
@@ -37146,7 +37392,7 @@
         <v>4</v>
       </c>
       <c r="M375" s="32">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="376" spans="1:13">
@@ -37172,7 +37418,7 @@
         <v>3</v>
       </c>
       <c r="M376" s="32">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="377" spans="1:13">
@@ -37192,13 +37438,13 @@
         <v>415</v>
       </c>
       <c r="K377" s="32">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L377" s="32">
         <v>2</v>
       </c>
       <c r="M377" s="32">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="378" spans="1:13">
@@ -37218,13 +37464,13 @@
         <v>415</v>
       </c>
       <c r="K378" s="32">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L378" s="32">
         <v>3</v>
       </c>
       <c r="M378" s="32">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="379" spans="1:13">
@@ -37244,13 +37490,13 @@
         <v>415</v>
       </c>
       <c r="K379" s="32">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L379" s="32">
         <v>4</v>
       </c>
       <c r="M379" s="32">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="380" spans="1:13">
@@ -37270,13 +37516,13 @@
         <v>415</v>
       </c>
       <c r="K380" s="32">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L380" s="32">
         <v>5</v>
       </c>
       <c r="M380" s="32">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="381" spans="1:13">
@@ -37296,13 +37542,13 @@
         <v>415</v>
       </c>
       <c r="K381" s="32">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L381" s="32">
         <v>2</v>
       </c>
       <c r="M381" s="32">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="382" spans="1:13">
@@ -37322,7 +37568,7 @@
         <v>415</v>
       </c>
       <c r="K382" s="32">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L382" s="32">
         <v>3</v>
@@ -37348,13 +37594,13 @@
         <v>415</v>
       </c>
       <c r="K383" s="32">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L383" s="32">
         <v>2</v>
       </c>
       <c r="M383" s="32">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="384" spans="1:13">
@@ -37374,13 +37620,13 @@
         <v>415</v>
       </c>
       <c r="K384" s="32">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L384" s="32">
         <v>2</v>
       </c>
       <c r="M384" s="32">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="385" spans="1:13">
@@ -37400,13 +37646,13 @@
         <v>415</v>
       </c>
       <c r="K385" s="32">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L385" s="32">
         <v>4</v>
       </c>
       <c r="M385" s="32">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="386" spans="1:13">
@@ -37426,13 +37672,13 @@
         <v>415</v>
       </c>
       <c r="K386" s="32">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L386" s="32">
         <v>3</v>
       </c>
       <c r="M386" s="32">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="387" spans="1:13">
@@ -37452,13 +37698,13 @@
         <v>540</v>
       </c>
       <c r="K387" s="32">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="L387" s="32">
         <v>2</v>
       </c>
       <c r="M387" s="32">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="388" spans="1:13">
@@ -37478,13 +37724,13 @@
         <v>540</v>
       </c>
       <c r="K388" s="32">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L388" s="32">
         <v>5</v>
       </c>
       <c r="M388" s="32">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="389" spans="1:13">
@@ -37504,13 +37750,13 @@
         <v>540</v>
       </c>
       <c r="K389" s="32">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L389" s="32">
         <v>5</v>
       </c>
       <c r="M389" s="32">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="390" spans="1:13">
@@ -37530,13 +37776,13 @@
         <v>540</v>
       </c>
       <c r="K390" s="32">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L390" s="32">
         <v>1</v>
       </c>
       <c r="M390" s="32">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="391" spans="1:13">
@@ -37562,7 +37808,7 @@
         <v>2</v>
       </c>
       <c r="M391" s="32">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="392" spans="1:13">
@@ -37582,13 +37828,13 @@
         <v>540</v>
       </c>
       <c r="K392" s="32">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L392" s="32">
         <v>5</v>
       </c>
       <c r="M392" s="32">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="393" spans="1:13">
@@ -37608,13 +37854,13 @@
         <v>540</v>
       </c>
       <c r="K393" s="32">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L393" s="32">
         <v>4</v>
       </c>
       <c r="M393" s="32">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="394" spans="1:13">
@@ -37634,13 +37880,13 @@
         <v>540</v>
       </c>
       <c r="K394" s="32">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L394" s="32">
         <v>5</v>
       </c>
       <c r="M394" s="32">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="395" spans="1:13">
@@ -37660,7 +37906,7 @@
         <v>540</v>
       </c>
       <c r="K395" s="32">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L395" s="32">
         <v>1</v>
@@ -37686,7 +37932,7 @@
         <v>540</v>
       </c>
       <c r="K396" s="32">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L396" s="32">
         <v>1</v>
@@ -37712,13 +37958,13 @@
         <v>540</v>
       </c>
       <c r="K397" s="32">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L397" s="32">
         <v>3</v>
       </c>
       <c r="M397" s="32">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="398" spans="1:13">
@@ -37738,13 +37984,13 @@
         <v>540</v>
       </c>
       <c r="K398" s="32">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L398" s="32">
         <v>3</v>
       </c>
       <c r="M398" s="32">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="399" spans="1:13">
@@ -37764,13 +38010,13 @@
         <v>540</v>
       </c>
       <c r="K399" s="32">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L399" s="32">
         <v>2</v>
       </c>
       <c r="M399" s="32">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="400" spans="1:13">
@@ -37790,13 +38036,13 @@
         <v>540</v>
       </c>
       <c r="K400" s="32">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L400" s="32">
         <v>1</v>
       </c>
       <c r="M400" s="32">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="401" spans="1:13">
@@ -37816,13 +38062,13 @@
         <v>540</v>
       </c>
       <c r="K401" s="32">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L401" s="32">
         <v>4</v>
       </c>
       <c r="M401" s="32">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="402" spans="1:13">
@@ -37842,13 +38088,13 @@
         <v>540</v>
       </c>
       <c r="K402" s="32">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L402" s="32">
         <v>2</v>
       </c>
       <c r="M402" s="32">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="403" spans="1:13">
@@ -37868,7 +38114,7 @@
         <v>540</v>
       </c>
       <c r="K403" s="32">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="L403" s="32">
         <v>5</v>
@@ -37894,13 +38140,13 @@
         <v>540</v>
       </c>
       <c r="K404" s="32">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L404" s="32">
         <v>1</v>
       </c>
       <c r="M404" s="32">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="405" spans="1:13">
@@ -37920,13 +38166,13 @@
         <v>540</v>
       </c>
       <c r="K405" s="32">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L405" s="32">
         <v>4</v>
       </c>
       <c r="M405" s="32">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="406" spans="1:13">
@@ -37946,13 +38192,13 @@
         <v>540</v>
       </c>
       <c r="K406" s="32">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L406" s="32">
         <v>3</v>
       </c>
       <c r="M406" s="32">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="407" spans="1:13">
@@ -37972,13 +38218,13 @@
         <v>807</v>
       </c>
       <c r="K407" s="32">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L407" s="32">
         <v>2</v>
       </c>
       <c r="M407" s="32">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="408" spans="1:13">
@@ -37998,13 +38244,13 @@
         <v>807</v>
       </c>
       <c r="K408" s="32">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L408" s="32">
         <v>4</v>
       </c>
       <c r="M408" s="32">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="409" spans="1:13">
@@ -38024,7 +38270,7 @@
         <v>807</v>
       </c>
       <c r="K409" s="32">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L409" s="32">
         <v>3</v>
@@ -38050,13 +38296,13 @@
         <v>807</v>
       </c>
       <c r="K410" s="32">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L410" s="32">
         <v>3</v>
       </c>
       <c r="M410" s="32">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="411" spans="1:13">
@@ -38082,7 +38328,7 @@
         <v>2</v>
       </c>
       <c r="M411" s="32">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="412" spans="1:13">
@@ -38108,7 +38354,7 @@
         <v>3</v>
       </c>
       <c r="M412" s="32">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="413" spans="1:13">
@@ -38134,7 +38380,7 @@
         <v>4</v>
       </c>
       <c r="M413" s="32">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="414" spans="1:13">
@@ -38154,13 +38400,13 @@
         <v>807</v>
       </c>
       <c r="K414" s="32">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L414" s="32">
         <v>5</v>
       </c>
       <c r="M414" s="32">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="415" spans="1:13">
@@ -38180,13 +38426,13 @@
         <v>807</v>
       </c>
       <c r="K415" s="32">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L415" s="32">
         <v>3</v>
       </c>
       <c r="M415" s="32">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="416" spans="1:13">
@@ -38206,13 +38452,13 @@
         <v>807</v>
       </c>
       <c r="K416" s="32">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L416" s="32">
         <v>4</v>
       </c>
       <c r="M416" s="32">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -38232,13 +38478,13 @@
         <v>807</v>
       </c>
       <c r="K417" s="32">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L417" s="32">
         <v>3</v>
       </c>
       <c r="M417" s="32">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="418" spans="1:14">
@@ -38258,13 +38504,13 @@
         <v>807</v>
       </c>
       <c r="K418" s="32">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L418" s="32">
         <v>3</v>
       </c>
       <c r="M418" s="32">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="419" spans="1:14">
@@ -38284,13 +38530,13 @@
         <v>807</v>
       </c>
       <c r="K419" s="32">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L419" s="32">
         <v>4</v>
       </c>
       <c r="M419" s="32">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="420" spans="1:14">
@@ -38310,13 +38556,13 @@
         <v>807</v>
       </c>
       <c r="K420" s="32">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L420" s="32">
         <v>3</v>
       </c>
       <c r="M420" s="32">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -38336,13 +38582,13 @@
         <v>807</v>
       </c>
       <c r="K421" s="32">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L421" s="32">
         <v>5</v>
       </c>
       <c r="M421" s="32">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="422" spans="1:14">
@@ -38362,13 +38608,13 @@
         <v>807</v>
       </c>
       <c r="K422" s="32">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L422" s="32">
         <v>3</v>
       </c>
       <c r="M422" s="32">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="423" spans="1:14">
@@ -38388,13 +38634,13 @@
         <v>807</v>
       </c>
       <c r="K423" s="32">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L423" s="32">
         <v>4</v>
       </c>
       <c r="M423" s="32">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -38414,13 +38660,13 @@
         <v>807</v>
       </c>
       <c r="K424" s="32">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L424" s="32">
         <v>3</v>
       </c>
       <c r="M424" s="32">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="425" spans="1:14">
@@ -38440,7 +38686,7 @@
         <v>807</v>
       </c>
       <c r="K425" s="32">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L425" s="32">
         <v>3</v>
@@ -38469,7 +38715,7 @@
         <v>808</v>
       </c>
       <c r="K426" s="32">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L426" s="32">
         <v>2</v>
@@ -38495,7 +38741,7 @@
         <v>808</v>
       </c>
       <c r="K427" s="32">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L427" s="32">
         <v>4</v>
@@ -38518,7 +38764,7 @@
         <v>808</v>
       </c>
       <c r="K428" s="32">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L428" s="32">
         <v>3</v>
@@ -38541,7 +38787,7 @@
         <v>808</v>
       </c>
       <c r="K429" s="32">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L429" s="32">
         <v>3</v>
@@ -38564,7 +38810,7 @@
         <v>808</v>
       </c>
       <c r="K430" s="32">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L430" s="32">
         <v>4</v>
@@ -38587,7 +38833,7 @@
         <v>808</v>
       </c>
       <c r="K431" s="32">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L431" s="32">
         <v>5</v>
@@ -38610,7 +38856,7 @@
         <v>808</v>
       </c>
       <c r="K432" s="32">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L432" s="32">
         <v>3</v>
@@ -38633,7 +38879,7 @@
         <v>808</v>
       </c>
       <c r="K433" s="32">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L433" s="32">
         <v>2</v>
@@ -41646,6 +41892,9 @@
       <c r="B590" s="12" t="s">
         <v>439</v>
       </c>
+      <c r="C590" s="32" t="s">
+        <v>1136</v>
+      </c>
       <c r="E590" s="32" t="s">
         <v>791</v>
       </c>
@@ -41672,6 +41921,9 @@
       <c r="B591" s="12" t="s">
         <v>474</v>
       </c>
+      <c r="C591" s="32" t="s">
+        <v>1137</v>
+      </c>
       <c r="E591" s="32" t="s">
         <v>789</v>
       </c>
@@ -41698,6 +41950,9 @@
       <c r="B592" s="12" t="s">
         <v>440</v>
       </c>
+      <c r="C592" s="32" t="s">
+        <v>1138</v>
+      </c>
       <c r="E592" s="32" t="s">
         <v>790</v>
       </c>
@@ -41724,6 +41979,9 @@
       <c r="B593" s="12" t="s">
         <v>475</v>
       </c>
+      <c r="C593" s="32" t="s">
+        <v>1139</v>
+      </c>
       <c r="E593" s="32" t="s">
         <v>791</v>
       </c>
@@ -41750,6 +42008,9 @@
       <c r="B594" s="12" t="s">
         <v>514</v>
       </c>
+      <c r="C594" s="32" t="s">
+        <v>1140</v>
+      </c>
       <c r="E594" s="32" t="s">
         <v>789</v>
       </c>
@@ -41776,6 +42037,9 @@
       <c r="B595" s="12" t="s">
         <v>515</v>
       </c>
+      <c r="C595" s="32" t="s">
+        <v>1141</v>
+      </c>
       <c r="E595" s="32" t="s">
         <v>790</v>
       </c>
@@ -41802,6 +42066,9 @@
       <c r="B596" s="12" t="s">
         <v>516</v>
       </c>
+      <c r="C596" s="32" t="s">
+        <v>1142</v>
+      </c>
       <c r="E596" s="32" t="s">
         <v>791</v>
       </c>
@@ -41828,6 +42095,9 @@
       <c r="B597" s="12" t="s">
         <v>441</v>
       </c>
+      <c r="C597" s="32" t="s">
+        <v>1143</v>
+      </c>
       <c r="E597" s="32" t="s">
         <v>789</v>
       </c>
@@ -41854,6 +42124,9 @@
       <c r="B598" s="12" t="s">
         <v>442</v>
       </c>
+      <c r="C598" s="32" t="s">
+        <v>1144</v>
+      </c>
       <c r="E598" s="32" t="s">
         <v>790</v>
       </c>
@@ -41879,6 +42152,9 @@
       </c>
       <c r="B599" s="12" t="s">
         <v>476</v>
+      </c>
+      <c r="C599" s="32" t="s">
+        <v>1145</v>
       </c>
       <c r="E599" s="32" t="s">
         <v>791</v>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="15"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8518" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8532" uniqueCount="1135">
   <si>
     <t>SVN</t>
   </si>
@@ -3627,6 +3627,9 @@
   </si>
   <si>
     <t>Main menu (filter) has different style of tooltip</t>
+  </si>
+  <si>
+    <t>portal user</t>
   </si>
 </sst>
 </file>
@@ -27541,7 +27544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+    <sheetView topLeftCell="A508" workbookViewId="0">
       <selection activeCell="N671" sqref="N671"/>
     </sheetView>
   </sheetViews>
@@ -51991,10 +51994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52005,7 +52008,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -52021,8 +52024,11 @@
       <c r="E1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -52038,8 +52044,11 @@
       <c r="E2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -52055,8 +52064,11 @@
       <c r="E3" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
         <v>231</v>
       </c>
@@ -52070,8 +52082,11 @@
       <c r="E4" s="26" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="26" t="s">
         <v>241</v>
       </c>
@@ -52085,8 +52100,11 @@
       <c r="E5" s="26" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="26" t="s">
         <v>232</v>
       </c>
@@ -52100,8 +52118,11 @@
       <c r="E6" s="26" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="26" t="s">
         <v>233</v>
       </c>
@@ -52115,8 +52136,11 @@
       <c r="E7" s="26" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="26" t="s">
         <v>234</v>
       </c>
@@ -52130,8 +52154,11 @@
       <c r="E8" s="26" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="26" t="s">
         <v>235</v>
       </c>
@@ -52145,8 +52172,11 @@
       <c r="E9" s="26" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="26" t="s">
         <v>236</v>
       </c>
@@ -52160,8 +52190,11 @@
       <c r="E10" s="26" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="26" t="s">
         <v>237</v>
       </c>
@@ -52175,8 +52208,11 @@
       <c r="E11" s="26" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="26" t="s">
         <v>238</v>
       </c>
@@ -52190,8 +52226,11 @@
       <c r="E12" s="26" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="26" t="s">
         <v>239</v>
       </c>
@@ -52205,8 +52244,11 @@
       <c r="E13" s="26" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="26" t="s">
         <v>240</v>
       </c>
@@ -52219,6 +52261,9 @@
       </c>
       <c r="E14" s="26" t="s">
         <v>776</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -27544,15 +27544,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P746"/>
   <sheetViews>
-    <sheetView topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="N671" sqref="N671"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="O250" sqref="O250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="32" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="32" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="32" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="32" customWidth="1"/>
     <col min="6" max="8" width="17.42578125" style="32" customWidth="1"/>
@@ -30859,7 +30859,7 @@
         <v>4</v>
       </c>
       <c r="O98" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -30925,7 +30925,7 @@
         <v>2</v>
       </c>
       <c r="O100" s="32">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -35812,13 +35812,13 @@
         <v>418</v>
       </c>
       <c r="M250" s="32">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N250" s="32">
         <v>5</v>
       </c>
       <c r="O250" s="32">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251" spans="1:15">
@@ -51996,7 +51996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" firstSheet="5" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8532" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8749" uniqueCount="1135">
   <si>
     <t>SVN</t>
   </si>
@@ -4264,7 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -20075,8 +20075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L336"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20149,7 +20149,7 @@
         <v>320</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="G2" s="32">
         <v>4</v>
@@ -20183,6 +20183,9 @@
       <c r="E3" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F3" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="G3" s="32">
         <v>6</v>
       </c>
@@ -20215,6 +20218,9 @@
       <c r="E4" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F4" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="G4" s="32">
         <v>10</v>
       </c>
@@ -20247,6 +20253,9 @@
       <c r="E5" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F5" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="G5" s="32">
         <v>6</v>
       </c>
@@ -20279,6 +20288,9 @@
       <c r="E6" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F6" s="32" t="s">
+        <v>319</v>
+      </c>
       <c r="G6" s="32">
         <v>2</v>
       </c>
@@ -20311,6 +20323,9 @@
       <c r="E7" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F7" s="32" t="s">
+        <v>313</v>
+      </c>
       <c r="G7" s="32">
         <v>8</v>
       </c>
@@ -20343,6 +20358,9 @@
       <c r="E8" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F8" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="G8" s="32">
         <v>6</v>
       </c>
@@ -20375,6 +20393,9 @@
       <c r="E9" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F9" s="32" t="s">
+        <v>317</v>
+      </c>
       <c r="G9" s="32">
         <v>8</v>
       </c>
@@ -20407,6 +20428,9 @@
       <c r="E10" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F10" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="G10" s="32">
         <v>2</v>
       </c>
@@ -20439,6 +20463,9 @@
       <c r="E11" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F11" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G11" s="32">
         <v>4</v>
       </c>
@@ -20471,6 +20498,9 @@
       <c r="E12" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F12" s="32" t="s">
+        <v>318</v>
+      </c>
       <c r="G12" s="32">
         <v>2</v>
       </c>
@@ -20503,6 +20533,9 @@
       <c r="E13" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F13" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="G13" s="32">
         <v>6</v>
       </c>
@@ -20538,6 +20571,9 @@
       <c r="E14" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F14" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G14" s="32">
         <v>8</v>
       </c>
@@ -20570,6 +20606,9 @@
       <c r="E15" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F15" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="G15" s="32">
         <v>6</v>
       </c>
@@ -20602,6 +20641,9 @@
       <c r="E16" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F16" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="G16" s="32">
         <v>2</v>
       </c>
@@ -20634,6 +20676,9 @@
       <c r="E17" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F17" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="G17" s="32">
         <v>2</v>
       </c>
@@ -20666,6 +20711,9 @@
       <c r="E18" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F18" s="32" t="s">
+        <v>319</v>
+      </c>
       <c r="G18" s="32">
         <v>6</v>
       </c>
@@ -20698,6 +20746,9 @@
       <c r="E19" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F19" s="32" t="s">
+        <v>313</v>
+      </c>
       <c r="G19" s="32">
         <v>2</v>
       </c>
@@ -20730,6 +20781,9 @@
       <c r="E20" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F20" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="G20" s="32">
         <v>2</v>
       </c>
@@ -20762,6 +20816,9 @@
       <c r="E21" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F21" s="32" t="s">
+        <v>317</v>
+      </c>
       <c r="G21" s="32">
         <v>2</v>
       </c>
@@ -20794,6 +20851,9 @@
       <c r="E22" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F22" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="G22" s="32">
         <v>2</v>
       </c>
@@ -20826,6 +20886,9 @@
       <c r="E23" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F23" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G23" s="32">
         <v>6</v>
       </c>
@@ -20858,6 +20921,9 @@
       <c r="E24" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F24" s="32" t="s">
+        <v>318</v>
+      </c>
       <c r="G24" s="32">
         <v>2</v>
       </c>
@@ -20890,6 +20956,9 @@
       <c r="E25" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F25" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="G25" s="32">
         <v>2</v>
       </c>
@@ -20925,6 +20994,9 @@
       <c r="E26" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F26" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G26" s="32">
         <v>2</v>
       </c>
@@ -20957,6 +21029,9 @@
       <c r="E27" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F27" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="G27" s="32">
         <v>6</v>
       </c>
@@ -20989,6 +21064,9 @@
       <c r="E28" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F28" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="G28" s="32">
         <v>6</v>
       </c>
@@ -21021,6 +21099,9 @@
       <c r="E29" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F29" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="G29" s="32">
         <v>2</v>
       </c>
@@ -21053,6 +21134,9 @@
       <c r="E30" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F30" s="32" t="s">
+        <v>319</v>
+      </c>
       <c r="G30" s="32">
         <v>8</v>
       </c>
@@ -21085,6 +21169,9 @@
       <c r="E31" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F31" s="32" t="s">
+        <v>313</v>
+      </c>
       <c r="G31" s="32">
         <v>2</v>
       </c>
@@ -21117,6 +21204,9 @@
       <c r="E32" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F32" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="G32" s="32">
         <v>6</v>
       </c>
@@ -21149,6 +21239,9 @@
       <c r="E33" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F33" s="32" t="s">
+        <v>317</v>
+      </c>
       <c r="G33" s="32">
         <v>2</v>
       </c>
@@ -21181,6 +21274,9 @@
       <c r="E34" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F34" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="G34" s="32">
         <v>2</v>
       </c>
@@ -21213,6 +21309,9 @@
       <c r="E35" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F35" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G35" s="32">
         <v>6</v>
       </c>
@@ -21245,6 +21344,9 @@
       <c r="E36" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F36" s="32" t="s">
+        <v>318</v>
+      </c>
       <c r="G36" s="32">
         <v>8</v>
       </c>
@@ -21277,6 +21379,9 @@
       <c r="E37" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F37" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="G37" s="32">
         <v>2</v>
       </c>
@@ -21309,6 +21414,9 @@
       <c r="E38" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F38" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G38" s="32">
         <v>4</v>
       </c>
@@ -21341,6 +21449,9 @@
       <c r="E39" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F39" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="G39" s="32">
         <v>8</v>
       </c>
@@ -21373,6 +21484,9 @@
       <c r="E40" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F40" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="G40" s="32">
         <v>2</v>
       </c>
@@ -21405,6 +21519,9 @@
       <c r="E41" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F41" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="G41" s="32">
         <v>6</v>
       </c>
@@ -21437,6 +21554,9 @@
       <c r="E42" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F42" s="32" t="s">
+        <v>319</v>
+      </c>
       <c r="G42" s="32">
         <v>2</v>
       </c>
@@ -21469,6 +21589,9 @@
       <c r="E43" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F43" s="32" t="s">
+        <v>313</v>
+      </c>
       <c r="G43" s="32">
         <v>2</v>
       </c>
@@ -21501,6 +21624,9 @@
       <c r="E44" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F44" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="G44" s="32">
         <v>2</v>
       </c>
@@ -21533,6 +21659,9 @@
       <c r="E45" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F45" s="32" t="s">
+        <v>317</v>
+      </c>
       <c r="G45" s="32">
         <v>8</v>
       </c>
@@ -21565,6 +21694,9 @@
       <c r="E46" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F46" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="G46" s="32">
         <v>8</v>
       </c>
@@ -21597,6 +21729,9 @@
       <c r="E47" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F47" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G47" s="32">
         <v>2</v>
       </c>
@@ -21629,6 +21764,9 @@
       <c r="E48" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F48" s="32" t="s">
+        <v>318</v>
+      </c>
       <c r="G48" s="32">
         <v>8</v>
       </c>
@@ -21661,6 +21799,9 @@
       <c r="E49" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F49" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="G49" s="32">
         <v>6</v>
       </c>
@@ -21693,6 +21834,9 @@
       <c r="E50" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F50" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G50" s="32">
         <v>4</v>
       </c>
@@ -21725,6 +21869,9 @@
       <c r="E51" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F51" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="G51" s="32">
         <v>2</v>
       </c>
@@ -21757,6 +21904,9 @@
       <c r="E52" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F52" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="G52" s="32">
         <v>6</v>
       </c>
@@ -21789,6 +21939,9 @@
       <c r="E53" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F53" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="G53" s="32">
         <v>6</v>
       </c>
@@ -21821,6 +21974,9 @@
       <c r="E54" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F54" s="32" t="s">
+        <v>319</v>
+      </c>
       <c r="G54" s="32">
         <v>6</v>
       </c>
@@ -21853,6 +22009,9 @@
       <c r="E55" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F55" s="32" t="s">
+        <v>313</v>
+      </c>
       <c r="G55" s="32">
         <v>2</v>
       </c>
@@ -21885,6 +22044,9 @@
       <c r="E56" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F56" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="G56" s="32">
         <v>2</v>
       </c>
@@ -21917,6 +22079,9 @@
       <c r="E57" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F57" s="32" t="s">
+        <v>317</v>
+      </c>
       <c r="G57" s="32">
         <v>6</v>
       </c>
@@ -21949,6 +22114,9 @@
       <c r="E58" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F58" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="G58" s="32">
         <v>2</v>
       </c>
@@ -21981,6 +22149,9 @@
       <c r="E59" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F59" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G59" s="32">
         <v>2</v>
       </c>
@@ -22013,6 +22184,9 @@
       <c r="E60" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F60" s="32" t="s">
+        <v>318</v>
+      </c>
       <c r="G60" s="32">
         <v>4</v>
       </c>
@@ -22045,6 +22219,9 @@
       <c r="E61" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F61" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="G61" s="32">
         <v>2</v>
       </c>
@@ -22077,6 +22254,9 @@
       <c r="E62" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F62" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G62" s="32">
         <v>6</v>
       </c>
@@ -22109,6 +22289,9 @@
       <c r="E63" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F63" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="G63" s="32">
         <v>4</v>
       </c>
@@ -22141,6 +22324,9 @@
       <c r="E64" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F64" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="G64" s="32">
         <v>6</v>
       </c>
@@ -22173,6 +22359,9 @@
       <c r="E65" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F65" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="G65" s="32">
         <v>2</v>
       </c>
@@ -22205,6 +22394,9 @@
       <c r="E66" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F66" s="32" t="s">
+        <v>319</v>
+      </c>
       <c r="G66" s="32">
         <v>8</v>
       </c>
@@ -22237,6 +22429,9 @@
       <c r="E67" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F67" s="32" t="s">
+        <v>313</v>
+      </c>
       <c r="G67" s="32">
         <v>2</v>
       </c>
@@ -22269,6 +22464,9 @@
       <c r="E68" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F68" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="G68" s="32">
         <v>2</v>
       </c>
@@ -22301,6 +22499,9 @@
       <c r="E69" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F69" s="32" t="s">
+        <v>317</v>
+      </c>
       <c r="G69" s="32">
         <v>2</v>
       </c>
@@ -22333,6 +22534,9 @@
       <c r="E70" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F70" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="G70" s="32">
         <v>6</v>
       </c>
@@ -22365,6 +22569,9 @@
       <c r="E71" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F71" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G71" s="32">
         <v>6</v>
       </c>
@@ -22397,6 +22604,9 @@
       <c r="E72" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F72" s="32" t="s">
+        <v>318</v>
+      </c>
       <c r="G72" s="32">
         <v>6</v>
       </c>
@@ -22429,6 +22639,9 @@
       <c r="E73" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F73" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="G73" s="32">
         <v>2</v>
       </c>
@@ -22461,6 +22674,9 @@
       <c r="E74" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F74" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G74" s="32">
         <v>2</v>
       </c>
@@ -22493,6 +22709,9 @@
       <c r="E75" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F75" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="G75" s="32">
         <v>6</v>
       </c>
@@ -22525,6 +22744,9 @@
       <c r="E76" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F76" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="G76" s="32">
         <v>2</v>
       </c>
@@ -22557,6 +22779,9 @@
       <c r="E77" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F77" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="G77" s="32">
         <v>2</v>
       </c>
@@ -22589,6 +22814,9 @@
       <c r="E78" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F78" s="32" t="s">
+        <v>319</v>
+      </c>
       <c r="G78" s="32">
         <v>2</v>
       </c>
@@ -22621,6 +22849,9 @@
       <c r="E79" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F79" s="32" t="s">
+        <v>313</v>
+      </c>
       <c r="G79" s="32">
         <v>2</v>
       </c>
@@ -22653,6 +22884,9 @@
       <c r="E80" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F80" s="32" t="s">
+        <v>310</v>
+      </c>
       <c r="G80" s="32">
         <v>6</v>
       </c>
@@ -22685,6 +22919,9 @@
       <c r="E81" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F81" s="32" t="s">
+        <v>317</v>
+      </c>
       <c r="G81" s="32">
         <v>2</v>
       </c>
@@ -22717,6 +22954,9 @@
       <c r="E82" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F82" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="G82" s="32">
         <v>12</v>
       </c>
@@ -22749,6 +22989,9 @@
       <c r="E83" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F83" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G83" s="32">
         <v>2</v>
       </c>
@@ -22781,6 +23024,9 @@
       <c r="E84" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F84" s="32" t="s">
+        <v>318</v>
+      </c>
       <c r="G84" s="32">
         <v>2</v>
       </c>
@@ -22813,6 +23059,9 @@
       <c r="E85" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F85" s="32" t="s">
+        <v>315</v>
+      </c>
       <c r="G85" s="32">
         <v>6</v>
       </c>
@@ -22845,6 +23094,9 @@
       <c r="E86" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F86" s="32" t="s">
+        <v>309</v>
+      </c>
       <c r="G86" s="32">
         <v>4</v>
       </c>
@@ -22877,6 +23129,9 @@
       <c r="E87" s="32" t="s">
         <v>322</v>
       </c>
+      <c r="F87" s="32" t="s">
+        <v>316</v>
+      </c>
       <c r="G87" s="32">
         <v>6</v>
       </c>
@@ -22909,6 +23164,9 @@
       <c r="E88" s="32" t="s">
         <v>321</v>
       </c>
+      <c r="F88" s="32" t="s">
+        <v>312</v>
+      </c>
       <c r="G88" s="32">
         <v>2</v>
       </c>
@@ -22941,6 +23199,9 @@
       <c r="E89" s="32" t="s">
         <v>320</v>
       </c>
+      <c r="F89" s="32" t="s">
+        <v>311</v>
+      </c>
       <c r="G89" s="32">
         <v>2</v>
       </c>
@@ -22973,6 +23234,9 @@
       <c r="E90" s="32" t="s">
         <v>15</v>
       </c>
+      <c r="F90" s="32" t="s">
+        <v>15</v>
+      </c>
       <c r="G90" s="32">
         <v>6</v>
       </c>
@@ -23372,6 +23636,9 @@
       <c r="E122" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F122" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G122" s="32">
         <v>3</v>
       </c>
@@ -23404,6 +23671,9 @@
       <c r="E123" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F123" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G123" s="32">
         <v>5</v>
       </c>
@@ -23436,6 +23706,9 @@
       <c r="E124" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F124" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G124" s="32">
         <v>7</v>
       </c>
@@ -23468,6 +23741,9 @@
       <c r="E125" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F125" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G125" s="6">
         <v>3</v>
       </c>
@@ -23500,6 +23776,9 @@
       <c r="E126" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F126" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G126" s="6">
         <v>1</v>
       </c>
@@ -23532,6 +23811,9 @@
       <c r="E127" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F127" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G127" s="6">
         <v>5</v>
       </c>
@@ -23564,6 +23846,9 @@
       <c r="E128" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F128" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G128" s="6">
         <v>3</v>
       </c>
@@ -23596,6 +23881,9 @@
       <c r="E129" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F129" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G129" s="6">
         <v>5</v>
       </c>
@@ -23628,6 +23916,9 @@
       <c r="E130" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F130" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G130" s="6">
         <v>1</v>
       </c>
@@ -23660,6 +23951,9 @@
       <c r="E131" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F131" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G131" s="6">
         <v>3</v>
       </c>
@@ -23692,6 +23986,9 @@
       <c r="E132" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F132" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G132" s="6">
         <v>3</v>
       </c>
@@ -23724,6 +24021,9 @@
       <c r="E133" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F133" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G133" s="6">
         <v>3</v>
       </c>
@@ -23756,6 +24056,9 @@
       <c r="E134" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F134" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G134" s="6">
         <v>3</v>
       </c>
@@ -23788,6 +24091,9 @@
       <c r="E135" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F135" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G135" s="6">
         <v>3</v>
       </c>
@@ -23820,6 +24126,9 @@
       <c r="E136" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F136" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G136" s="6">
         <v>3</v>
       </c>
@@ -23852,6 +24161,9 @@
       <c r="E137" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F137" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G137" s="6">
         <v>3</v>
       </c>
@@ -23884,6 +24196,9 @@
       <c r="E138" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F138" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G138" s="6">
         <v>1</v>
       </c>
@@ -23916,6 +24231,9 @@
       <c r="E139" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F139" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G139" s="6">
         <v>3</v>
       </c>
@@ -23948,6 +24266,9 @@
       <c r="E140" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F140" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G140" s="6">
         <v>3</v>
       </c>
@@ -23980,6 +24301,9 @@
       <c r="E141" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F141" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G141" s="6">
         <v>1</v>
       </c>
@@ -24012,6 +24336,9 @@
       <c r="E142" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F142" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G142" s="6">
         <v>1</v>
       </c>
@@ -24044,6 +24371,9 @@
       <c r="E143" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F143" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G143" s="6">
         <v>2</v>
       </c>
@@ -24076,6 +24406,9 @@
       <c r="E144" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F144" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G144" s="6">
         <v>3</v>
       </c>
@@ -24108,6 +24441,9 @@
       <c r="E145" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F145" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G145" s="6">
         <v>3</v>
       </c>
@@ -24140,6 +24476,9 @@
       <c r="E146" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F146" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G146" s="6">
         <v>2</v>
       </c>
@@ -24172,6 +24511,9 @@
       <c r="E147" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F147" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G147" s="6">
         <v>3</v>
       </c>
@@ -24204,6 +24546,9 @@
       <c r="E148" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F148" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G148" s="6">
         <v>3</v>
       </c>
@@ -24236,6 +24581,9 @@
       <c r="E149" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F149" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G149" s="6">
         <v>3</v>
       </c>
@@ -24268,6 +24616,9 @@
       <c r="E150" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F150" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G150" s="6">
         <v>2</v>
       </c>
@@ -24300,6 +24651,9 @@
       <c r="E151" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F151" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G151" s="6">
         <v>2</v>
       </c>
@@ -24332,6 +24686,9 @@
       <c r="E152" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F152" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G152" s="6">
         <v>2</v>
       </c>
@@ -24364,6 +24721,9 @@
       <c r="E153" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F153" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G153" s="6">
         <v>2</v>
       </c>
@@ -24396,6 +24756,9 @@
       <c r="E154" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F154" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G154" s="6">
         <v>2</v>
       </c>
@@ -24428,6 +24791,9 @@
       <c r="E155" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F155" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G155" s="6">
         <v>1</v>
       </c>
@@ -24460,6 +24826,9 @@
       <c r="E156" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F156" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G156" s="6">
         <v>1</v>
       </c>
@@ -24492,6 +24861,9 @@
       <c r="E157" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F157" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G157" s="6">
         <v>5</v>
       </c>
@@ -24524,6 +24896,9 @@
       <c r="E158" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F158" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G158" s="6">
         <v>3</v>
       </c>
@@ -24559,6 +24934,9 @@
       <c r="E159" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F159" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G159" s="6">
         <v>1</v>
       </c>
@@ -24591,6 +24969,9 @@
       <c r="E160" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F160" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G160" s="6">
         <v>3</v>
       </c>
@@ -24623,6 +25004,9 @@
       <c r="E161" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F161" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G161" s="6">
         <v>2</v>
       </c>
@@ -24655,6 +25039,9 @@
       <c r="E162" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F162" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G162" s="6">
         <v>1</v>
       </c>
@@ -24687,6 +25074,9 @@
       <c r="E163" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F163" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G163" s="6">
         <v>1</v>
       </c>
@@ -24719,6 +25109,9 @@
       <c r="E164" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F164" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G164" s="6">
         <v>3</v>
       </c>
@@ -24751,6 +25144,9 @@
       <c r="E165" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F165" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G165" s="6">
         <v>3</v>
       </c>
@@ -24783,6 +25179,9 @@
       <c r="E166" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F166" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G166" s="6">
         <v>3</v>
       </c>
@@ -24815,6 +25214,9 @@
       <c r="E167" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F167" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G167" s="6">
         <v>3</v>
       </c>
@@ -24847,6 +25249,9 @@
       <c r="E168" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F168" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G168" s="6">
         <v>3</v>
       </c>
@@ -24879,6 +25284,9 @@
       <c r="E169" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F169" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G169" s="6">
         <v>3</v>
       </c>
@@ -24911,6 +25319,9 @@
       <c r="E170" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F170" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G170" s="6">
         <v>3</v>
       </c>
@@ -24943,6 +25354,9 @@
       <c r="E171" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F171" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G171" s="6">
         <v>3</v>
       </c>
@@ -24975,6 +25389,9 @@
       <c r="E172" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F172" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G172" s="6">
         <v>3</v>
       </c>
@@ -25007,6 +25424,9 @@
       <c r="E173" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F173" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G173" s="6">
         <v>3</v>
       </c>
@@ -25039,6 +25459,9 @@
       <c r="E174" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F174" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G174" s="6">
         <v>2</v>
       </c>
@@ -25071,6 +25494,9 @@
       <c r="E175" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F175" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G175" s="6">
         <v>3</v>
       </c>
@@ -25103,6 +25529,9 @@
       <c r="E176" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F176" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G176" s="6">
         <v>3</v>
       </c>
@@ -25135,6 +25564,9 @@
       <c r="E177" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F177" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G177" s="6">
         <v>1</v>
       </c>
@@ -25167,6 +25599,9 @@
       <c r="E178" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F178" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G178" s="6">
         <v>1</v>
       </c>
@@ -25199,6 +25634,9 @@
       <c r="E179" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F179" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G179" s="6">
         <v>1</v>
       </c>
@@ -25231,6 +25669,9 @@
       <c r="E180" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F180" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G180" s="6">
         <v>3</v>
       </c>
@@ -25263,6 +25704,9 @@
       <c r="E181" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F181" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G181" s="6">
         <v>3</v>
       </c>
@@ -25295,6 +25739,9 @@
       <c r="E182" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F182" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G182" s="6">
         <v>3</v>
       </c>
@@ -25327,6 +25774,9 @@
       <c r="E183" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F183" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G183" s="6">
         <v>3</v>
       </c>
@@ -25359,6 +25809,9 @@
       <c r="E184" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F184" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G184" s="6">
         <v>3</v>
       </c>
@@ -25391,6 +25844,9 @@
       <c r="E185" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F185" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G185" s="6">
         <v>3</v>
       </c>
@@ -25423,6 +25879,9 @@
       <c r="E186" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F186" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G186" s="6">
         <v>4</v>
       </c>
@@ -25455,6 +25914,9 @@
       <c r="E187" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F187" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G187" s="6">
         <v>2</v>
       </c>
@@ -25487,6 +25949,9 @@
       <c r="E188" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F188" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G188" s="6">
         <v>3</v>
       </c>
@@ -25519,6 +25984,9 @@
       <c r="E189" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F189" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G189" s="6">
         <v>3</v>
       </c>
@@ -25551,6 +26019,9 @@
       <c r="E190" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F190" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G190" s="6">
         <v>3</v>
       </c>
@@ -25583,6 +26054,9 @@
       <c r="E191" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F191" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G191" s="6">
         <v>1</v>
       </c>
@@ -25615,6 +26089,9 @@
       <c r="E192" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F192" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G192" s="6">
         <v>1</v>
       </c>
@@ -25647,6 +26124,9 @@
       <c r="E193" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F193" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G193" s="6">
         <v>3</v>
       </c>
@@ -25682,6 +26162,9 @@
       <c r="E194" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F194" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G194" s="6">
         <v>3</v>
       </c>
@@ -25714,6 +26197,9 @@
       <c r="E195" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F195" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G195" s="6">
         <v>1</v>
       </c>
@@ -25746,6 +26232,9 @@
       <c r="E196" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F196" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G196" s="6">
         <v>3</v>
       </c>
@@ -25778,6 +26267,9 @@
       <c r="E197" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F197" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G197" s="6">
         <v>2</v>
       </c>
@@ -25810,6 +26302,9 @@
       <c r="E198" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F198" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G198" s="6">
         <v>1</v>
       </c>
@@ -25842,6 +26337,9 @@
       <c r="E199" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F199" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G199" s="6">
         <v>1</v>
       </c>
@@ -25874,6 +26372,9 @@
       <c r="E200" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F200" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G200" s="6">
         <v>3</v>
       </c>
@@ -25906,6 +26407,9 @@
       <c r="E201" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F201" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G201" s="6">
         <v>3</v>
       </c>
@@ -25938,6 +26442,9 @@
       <c r="E202" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F202" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G202" s="6">
         <v>3</v>
       </c>
@@ -25970,6 +26477,9 @@
       <c r="E203" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F203" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G203" s="6">
         <v>3</v>
       </c>
@@ -26002,6 +26512,9 @@
       <c r="E204" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F204" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G204" s="6">
         <v>3</v>
       </c>
@@ -26034,6 +26547,9 @@
       <c r="E205" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F205" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G205" s="6">
         <v>3</v>
       </c>
@@ -26066,6 +26582,9 @@
       <c r="E206" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F206" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G206" s="6">
         <v>3</v>
       </c>
@@ -26098,6 +26617,9 @@
       <c r="E207" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F207" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G207" s="6">
         <v>3</v>
       </c>
@@ -26130,6 +26652,9 @@
       <c r="E208" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F208" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G208" s="6">
         <v>3</v>
       </c>
@@ -26162,6 +26687,9 @@
       <c r="E209" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F209" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G209" s="6">
         <v>3</v>
       </c>
@@ -26194,6 +26722,9 @@
       <c r="E210" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F210" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G210" s="6">
         <v>2</v>
       </c>
@@ -26226,6 +26757,9 @@
       <c r="E211" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F211" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G211" s="6">
         <v>3</v>
       </c>
@@ -26258,6 +26792,9 @@
       <c r="E212" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F212" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G212" s="6">
         <v>3</v>
       </c>
@@ -26290,6 +26827,9 @@
       <c r="E213" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F213" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G213" s="6">
         <v>1</v>
       </c>
@@ -26325,6 +26865,9 @@
       <c r="E214" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F214" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G214" s="6">
         <v>2</v>
       </c>
@@ -26357,6 +26900,9 @@
       <c r="E215" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F215" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G215" s="6">
         <v>2</v>
       </c>
@@ -26389,6 +26935,9 @@
       <c r="E216" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F216" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G216" s="6">
         <v>3</v>
       </c>
@@ -26421,6 +26970,9 @@
       <c r="E217" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F217" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G217" s="6">
         <v>3</v>
       </c>
@@ -26453,6 +27005,9 @@
       <c r="E218" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F218" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G218" s="6">
         <v>2</v>
       </c>
@@ -26485,6 +27040,9 @@
       <c r="E219" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F219" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G219" s="6">
         <v>3</v>
       </c>
@@ -26517,6 +27075,9 @@
       <c r="E220" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F220" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G220" s="6">
         <v>3</v>
       </c>
@@ -26549,6 +27110,9 @@
       <c r="E221" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F221" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G221" s="6">
         <v>3</v>
       </c>
@@ -26581,6 +27145,9 @@
       <c r="E222" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F222" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G222" s="6">
         <v>5</v>
       </c>
@@ -26613,6 +27180,9 @@
       <c r="E223" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F223" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G223" s="6">
         <v>4</v>
       </c>
@@ -26645,6 +27215,9 @@
       <c r="E224" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F224" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G224" s="6">
         <v>3</v>
       </c>
@@ -26677,6 +27250,9 @@
       <c r="E225" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F225" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G225" s="6">
         <v>3</v>
       </c>
@@ -26709,6 +27285,9 @@
       <c r="E226" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F226" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G226" s="6">
         <v>3</v>
       </c>
@@ -26741,6 +27320,9 @@
       <c r="E227" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F227" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G227" s="6">
         <v>1</v>
       </c>
@@ -26773,6 +27355,9 @@
       <c r="E228" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F228" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G228" s="6">
         <v>1</v>
       </c>
@@ -26805,6 +27390,9 @@
       <c r="E229" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F229" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G229" s="6">
         <v>3</v>
       </c>
@@ -26837,6 +27425,9 @@
       <c r="E230" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F230" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G230" s="6">
         <v>3</v>
       </c>
@@ -26869,6 +27460,9 @@
       <c r="E231" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F231" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G231" s="6">
         <v>1</v>
       </c>
@@ -26904,6 +27498,9 @@
       <c r="E232" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F232" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G232" s="6">
         <v>3</v>
       </c>
@@ -26936,6 +27533,9 @@
       <c r="E233" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F233" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G233" s="6">
         <v>2</v>
       </c>
@@ -26968,6 +27568,9 @@
       <c r="E234" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F234" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G234" s="6">
         <v>1</v>
       </c>
@@ -27000,6 +27603,9 @@
       <c r="E235" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F235" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G235" s="6">
         <v>1</v>
       </c>
@@ -27032,6 +27638,9 @@
       <c r="E236" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F236" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G236" s="6">
         <v>3</v>
       </c>
@@ -27064,6 +27673,9 @@
       <c r="E237" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F237" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G237" s="6">
         <v>3</v>
       </c>
@@ -27096,6 +27708,9 @@
       <c r="E238" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F238" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G238" s="6">
         <v>3</v>
       </c>
@@ -27128,6 +27743,9 @@
       <c r="E239" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F239" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G239" s="6">
         <v>3</v>
       </c>
@@ -27160,6 +27778,9 @@
       <c r="E240" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F240" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G240" s="6">
         <v>3</v>
       </c>
@@ -27192,6 +27813,9 @@
       <c r="E241" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F241" s="6" t="s">
+        <v>315</v>
+      </c>
       <c r="G241" s="6">
         <v>3</v>
       </c>
@@ -27224,6 +27848,9 @@
       <c r="E242" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F242" s="6" t="s">
+        <v>309</v>
+      </c>
       <c r="G242" s="6">
         <v>3</v>
       </c>
@@ -27256,6 +27883,9 @@
       <c r="E243" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F243" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G243" s="6">
         <v>3</v>
       </c>
@@ -27288,6 +27918,9 @@
       <c r="E244" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F244" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="G244" s="6">
         <v>3</v>
       </c>
@@ -27320,6 +27953,9 @@
       <c r="E245" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F245" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="G245" s="6">
         <v>3</v>
       </c>
@@ -27352,6 +27988,9 @@
       <c r="E246" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F246" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G246" s="6">
         <v>1</v>
       </c>
@@ -27384,6 +28023,9 @@
       <c r="E247" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="F247" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="G247" s="6">
         <v>3</v>
       </c>
@@ -27416,6 +28058,9 @@
       <c r="E248" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="F248" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G248" s="6">
         <v>3</v>
       </c>
@@ -27448,6 +28093,9 @@
       <c r="E249" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="F249" s="6" t="s">
+        <v>317</v>
+      </c>
       <c r="G249" s="6">
         <v>1</v>
       </c>
@@ -27478,6 +28126,9 @@
         <v>15</v>
       </c>
       <c r="E250" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F250" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G250" s="6">

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="18"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'release-backlog-item'!$F$1:$F$336</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Settings!$B$4:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateCount="1"/>
 </workbook>
 </file>
 
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8750" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8751" uniqueCount="1136">
   <si>
     <t>SVN</t>
   </si>
@@ -3630,6 +3630,9 @@
   </si>
   <si>
     <t>#products-id</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -5394,7 +5397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -52741,10 +52744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52753,9 +52756,10 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -52771,11 +52775,14 @@
       <c r="E1" t="s">
         <v>779</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="32" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G1" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -52791,11 +52798,14 @@
       <c r="E2" t="s">
         <v>776</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="32">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -52811,11 +52821,11 @@
       <c r="E3" t="s">
         <v>777</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="26" t="s">
         <v>231</v>
       </c>
@@ -52829,11 +52839,11 @@
       <c r="E4" s="26" t="s">
         <v>753</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="26" t="s">
         <v>241</v>
       </c>
@@ -52847,11 +52857,11 @@
       <c r="E5" s="26" t="s">
         <v>756</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="26" t="s">
         <v>232</v>
       </c>
@@ -52865,11 +52875,11 @@
       <c r="E6" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="26" t="s">
         <v>233</v>
       </c>
@@ -52883,11 +52893,11 @@
       <c r="E7" s="26" t="s">
         <v>760</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="26" t="s">
         <v>234</v>
       </c>
@@ -52901,11 +52911,11 @@
       <c r="E8" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="26" t="s">
         <v>235</v>
       </c>
@@ -52919,11 +52929,11 @@
       <c r="E9" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="26" t="s">
         <v>236</v>
       </c>
@@ -52937,11 +52947,11 @@
       <c r="E10" s="26" t="s">
         <v>766</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="26" t="s">
         <v>237</v>
       </c>
@@ -52955,11 +52965,11 @@
       <c r="E11" s="26" t="s">
         <v>768</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="26" t="s">
         <v>238</v>
       </c>
@@ -52973,11 +52983,11 @@
       <c r="E12" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="26" t="s">
         <v>239</v>
       </c>
@@ -52991,11 +53001,11 @@
       <c r="E13" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="26" t="s">
         <v>240</v>
       </c>
@@ -53009,7 +53019,7 @@
       <c r="E14" s="26" t="s">
         <v>774</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>338</v>
       </c>
     </row>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8751" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8753" uniqueCount="1137">
   <si>
     <t>SVN</t>
   </si>
@@ -3633,6 +3633,9 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>Hudson Service Name</t>
   </si>
 </sst>
 </file>
@@ -8044,8 +8047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8322,6 +8325,14 @@
       </c>
       <c r="C28" s="31" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -52746,7 +52757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8745" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8746" uniqueCount="1135">
   <si>
     <t>SVN</t>
   </si>
@@ -3627,6 +3627,9 @@
   </si>
   <si>
     <t>Use if requirements have been already pre-generated</t>
+  </si>
+  <si>
+    <t>BuildServerName</t>
   </si>
 </sst>
 </file>
@@ -4261,7 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -8042,8 +8045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8324,8 +8327,12 @@
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="29" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="7"/>
@@ -54695,7 +54702,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54754,8 +54761,9 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
+      <c r="E2" t="str">
+        <f>Settings!$C$30</f>
+        <v>Hudson</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>Settings!$C$13</f>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8746" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8744" uniqueCount="1135">
   <si>
     <t>SVN</t>
   </si>
@@ -4264,7 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -8045,8 +8045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54796,7 +54796,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54847,11 +54847,13 @@
       <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>918</v>
-      </c>
-      <c r="D2" t="s">
-        <v>918</v>
+      <c r="C2" t="str">
+        <f>Settings!$C$14</f>
+        <v>MediaStore</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Settings!$C$14</f>
+        <v>MediaStore</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8744" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8745" uniqueCount="1136">
   <si>
     <t>SVN</t>
   </si>
@@ -3630,6 +3630,9 @@
   </si>
   <si>
     <t>BuildServerName</t>
+  </si>
+  <si>
+    <t>BranchPath</t>
   </si>
 </sst>
 </file>
@@ -4386,7 +4389,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4421,8 +4424,9 @@
       <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
-        <v>317</v>
+      <c r="D2" t="str">
+        <f>Settings!$C$31</f>
+        <v>/trunk</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
@@ -8046,7 +8050,7 @@
   <dimension ref="B1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8335,8 +8339,12 @@
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="29" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="7"/>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8745" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8748" uniqueCount="1138">
   <si>
     <t>SVN</t>
   </si>
@@ -3633,6 +3633,12 @@
   </si>
   <si>
     <t>BranchPath</t>
+  </si>
+  <si>
+    <t>KeepRelease</t>
+  </si>
+  <si>
+    <t>ReleaseName</t>
   </si>
 </sst>
 </file>
@@ -8050,7 +8056,7 @@
   <dimension ref="B1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8347,12 +8353,20 @@
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="29" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="7"/>
@@ -54377,7 +54391,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54436,8 +54450,9 @@
       <c r="F2" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>916</v>
+      <c r="G2" s="5" t="str">
+        <f>Settings!$C$33</f>
+        <v>HP Media Store 2.0</v>
       </c>
       <c r="H2" t="s">
         <v>917</v>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="645" windowWidth="22680" windowHeight="9030" tabRatio="954" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Doc" sheetId="18" r:id="rId1"/>
@@ -8055,7 +8055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -53071,8 +53071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54219,7 +54219,7 @@
         <v>86400000</v>
       </c>
       <c r="I60">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J60">
         <f t="shared" si="2"/>
